--- a/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
+++ b/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\bldgs\BASoBC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\bldgs\BASoBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A89B899-1E36-45BB-A427-E7ACA8D2F775}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -37,7 +36,7 @@
     <definedName name="Preferences.AreaUnits">[2]Preferences!$C$7</definedName>
     <definedName name="Unit.m2">[2]Conversions!$F$77</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -562,7 +561,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -957,24 +956,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="A - bold" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="A - bottom border" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="A - header 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="A - normal" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="A - bold" xfId="8"/>
+    <cellStyle name="A - bottom border" xfId="11"/>
+    <cellStyle name="A - header 2 2" xfId="10"/>
+    <cellStyle name="A - normal" xfId="9"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
+    <cellStyle name="Footnotes: top row" xfId="6"/>
+    <cellStyle name="Header: bottom row" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Parent row" xfId="5"/>
+    <cellStyle name="Table title" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,6 +986,972 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="#,##0.0000000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Building Projections'!$G$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Building Projections'!$G$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.5035115580063982E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3970251998047552E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12684881276416166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18421484485167577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2872774933779334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47047821933449213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70671885782441357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0007772995698385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AA5-4765-AF0C-37F137842174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1613209368"/>
+        <c:axId val="1613216256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1613209368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1613216256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1613216256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1613209368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>454818</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>159543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>735805</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1286,23 +2251,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1338,23 +2286,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1530,18 +2461,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="83.5703125" customWidth="1"/>
-    <col min="4" max="4" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="83.59765625" customWidth="1"/>
+    <col min="4" max="4" width="69.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +2482,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1561,7 +2492,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>39</v>
@@ -1569,7 +2500,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" s="5">
         <v>2015</v>
@@ -1577,7 +2508,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>38</v>
@@ -1585,38 +2516,38 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
@@ -1624,7 +2555,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
@@ -1633,13 +2564,13 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>56</v>
@@ -1647,7 +2578,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
         <v>39</v>
@@ -1655,7 +2586,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="B19" s="5">
         <v>2015</v>
@@ -1663,7 +2594,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
         <v>57</v>
@@ -1671,7 +2602,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="B21" s="10" t="s">
         <v>58</v>
@@ -1679,7 +2610,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>59</v>
@@ -1687,7 +2618,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>69</v>
@@ -1695,123 +2626,123 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" s="48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B29" s="5">
         <v>2008</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" s="5">
         <v>2014</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B38" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B31" r:id="rId4"/>
+    <hyperlink ref="B38" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -1819,7 +2750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1829,14 +2760,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="7" customWidth="1"/>
-    <col min="2" max="4" width="8.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="24.86328125" style="7" customWidth="1"/>
+    <col min="2" max="4" width="8.59765625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>168</v>
       </c>
@@ -1952,7 +2883,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -2105,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -2258,7 +3189,7 @@
         <v>623687348.02427864</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -2411,7 +3342,7 @@
         <v>9268543458.0967274</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -2564,7 +3495,7 @@
         <v>1353709724.9118495</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -2717,7 +3648,7 @@
         <v>2344362581.3172245</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2876,21 +3807,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AL3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="4" width="8.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="4" width="8.59765625" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>168</v>
       </c>
@@ -3006,7 +3939,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -3159,769 +4092,769 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B7" si="0">E3</f>
-        <v>435241652.41342491</v>
+        <v>198343402.37690645</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:D7" si="1">B3</f>
-        <v>435241652.41342491</v>
+        <v>198343402.37690645</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="1"/>
-        <v>435241652.41342491</v>
+        <v>198343402.37690645</v>
       </c>
       <c r="E3" s="9">
         <f>'Calculations 2'!B81</f>
-        <v>435241652.41342491</v>
+        <v>198343402.37690645</v>
       </c>
       <c r="F3" s="9">
         <f>'Calculations 2'!C81</f>
-        <v>574214511.22675765</v>
+        <v>288397774.2138322</v>
       </c>
       <c r="G3" s="9">
         <f>'Calculations 2'!D81</f>
-        <v>593276308.4503926</v>
+        <v>384224844.37301129</v>
       </c>
       <c r="H3" s="9">
         <f>'Calculations 2'!E81</f>
-        <v>612338105.67418611</v>
+        <v>485824612.81797314</v>
       </c>
       <c r="I3" s="9">
         <f>'Calculations 2'!F81</f>
-        <v>631399902.89790213</v>
+        <v>593197079.38437831</v>
       </c>
       <c r="J3" s="9">
         <f>'Calculations 2'!G81</f>
-        <v>650461700.12161863</v>
+        <v>706342244.27303731</v>
       </c>
       <c r="K3" s="9">
         <f>'Calculations 2'!H81</f>
-        <v>894308505.10054898</v>
+        <v>825260107.40573585</v>
       </c>
       <c r="L3" s="9">
         <f>'Calculations 2'!I81</f>
-        <v>927567250.18249083</v>
+        <v>949950668.76160002</v>
       </c>
       <c r="M3" s="9">
         <f>'Calculations 2'!J81</f>
-        <v>960825995.2644304</v>
+        <v>1080413928.3810577</v>
       </c>
       <c r="N3" s="9">
         <f>'Calculations 2'!K81</f>
-        <v>994084740.34653401</v>
+        <v>1216649886.2028105</v>
       </c>
       <c r="O3" s="9">
         <f>'Calculations 2'!L81</f>
-        <v>1027343485.4283229</v>
+        <v>1358658542.2659645</v>
       </c>
       <c r="P3" s="9">
         <f>'Calculations 2'!M81</f>
-        <v>1480078547.4297001</v>
+        <v>1506439896.6540098</v>
       </c>
       <c r="Q3" s="9">
         <f>'Calculations 2'!N81</f>
-        <v>1539830533.5803998</v>
+        <v>1659993949.2052426</v>
       </c>
       <c r="R3" s="9">
         <f>'Calculations 2'!O81</f>
-        <v>1599582519.7309482</v>
+        <v>1819320700.0187471</v>
       </c>
       <c r="S3" s="9">
         <f>'Calculations 2'!P81</f>
-        <v>1659334505.8811688</v>
+        <v>1984420149.0749762</v>
       </c>
       <c r="T3" s="9">
         <f>'Calculations 2'!Q81</f>
-        <v>1719086492.0320213</v>
+        <v>2155292296.3739238</v>
       </c>
       <c r="U3" s="9">
         <f>'Calculations 2'!R81</f>
-        <v>2514473371.6438098</v>
+        <v>2331937141.957335</v>
       </c>
       <c r="V3" s="9">
         <f>'Calculations 2'!S81</f>
-        <v>2620686508.9606557</v>
+        <v>2514354685.7443619</v>
       </c>
       <c r="W3" s="9">
         <f>'Calculations 2'!T81</f>
-        <v>2726899646.2771983</v>
+        <v>2702544927.7323632</v>
       </c>
       <c r="X3" s="9">
         <f>'Calculations 2'!U81</f>
-        <v>2833112783.5930853</v>
+        <v>2896507868.085681</v>
       </c>
       <c r="Y3" s="9">
         <f>'Calculations 2'!V81</f>
-        <v>2939325920.9102387</v>
+        <v>3096243506.5200167</v>
       </c>
       <c r="Z3" s="9">
         <f>'Calculations 2'!W81</f>
-        <v>3532423840.802434</v>
+        <v>3301751843.3170309</v>
       </c>
       <c r="AA3" s="9">
         <f>'Calculations 2'!X81</f>
-        <v>3669387595.9658585</v>
+        <v>3513032878.3594069</v>
       </c>
       <c r="AB3" s="9">
         <f>'Calculations 2'!Y81</f>
-        <v>3806351351.1299348</v>
+        <v>3730086611.6053891</v>
       </c>
       <c r="AC3" s="9">
         <f>'Calculations 2'!Z81</f>
-        <v>3943315106.2927485</v>
+        <v>3952913043.0106072</v>
       </c>
       <c r="AD3" s="9">
         <f>'Calculations 2'!AA81</f>
-        <v>4080278861.4561772</v>
+        <v>4181512172.8202496</v>
       </c>
       <c r="AE3" s="9">
         <f>'Calculations 2'!AB81</f>
-        <v>4747986488.9695063</v>
+        <v>4415884000.7943983</v>
       </c>
       <c r="AF3" s="9">
         <f>'Calculations 2'!AC81</f>
-        <v>4918470909.7550306</v>
+        <v>4656028526.9277782</v>
       </c>
       <c r="AG3" s="9">
         <f>'Calculations 2'!AD81</f>
-        <v>5088955330.5405502</v>
+        <v>4901945751.5073261</v>
       </c>
       <c r="AH3" s="9">
         <f>'Calculations 2'!AE81</f>
-        <v>5259439751.3260775</v>
+        <v>5153635674.1705198</v>
       </c>
       <c r="AI3" s="9">
         <f>'Calculations 2'!AF81</f>
-        <v>5429924172.112258</v>
+        <v>5411098295.0738153</v>
       </c>
       <c r="AJ3" s="9">
         <f>'Calculations 2'!AG81</f>
-        <v>5600408592.8971672</v>
+        <v>5674333614.3424091</v>
       </c>
       <c r="AK3" s="9">
         <f>'Calculations 2'!AH81</f>
-        <v>5770893013.6826897</v>
+        <v>5943341631.7755213</v>
       </c>
       <c r="AL3" s="9">
         <f>'Calculations 2'!AI81</f>
-        <v>5941377434.4688702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+        <v>6218122347.367857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>1058520028.0030756</v>
+        <v>191085394.83042541</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>1058520028.0030756</v>
+        <v>191085394.83042541</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="1"/>
-        <v>1058520028.0030756</v>
+        <v>191085394.83042541</v>
       </c>
       <c r="E4" s="9">
         <f>'Calculations 2'!B82</f>
-        <v>1058520028.0030756</v>
+        <v>191085394.83042541</v>
       </c>
       <c r="F4" s="9">
         <f>'Calculations 2'!C82</f>
-        <v>1606559916.5805442</v>
+        <v>570728895.50225139</v>
       </c>
       <c r="G4" s="9">
         <f>'Calculations 2'!D82</f>
-        <v>1630861713.7709665</v>
+        <v>957731982.82981169</v>
       </c>
       <c r="H4" s="9">
         <f>'Calculations 2'!E82</f>
-        <v>1655163510.9620652</v>
+        <v>1352094656.6456592</v>
       </c>
       <c r="I4" s="9">
         <f>'Calculations 2'!F82</f>
-        <v>1679465308.1528251</v>
+        <v>1753816916.2564676</v>
       </c>
       <c r="J4" s="9">
         <f>'Calculations 2'!G82</f>
-        <v>1703767105.3435879</v>
+        <v>2162898762.5230122</v>
       </c>
       <c r="K4" s="9">
         <f>'Calculations 2'!H82</f>
-        <v>2665958469.2069798</v>
+        <v>2579340195.1036744</v>
       </c>
       <c r="L4" s="9">
         <f>'Calculations 2'!I82</f>
-        <v>2708359889.6142354</v>
+        <v>3003141213.9113607</v>
       </c>
       <c r="M4" s="9">
         <f>'Calculations 2'!J82</f>
-        <v>2750761310.0214834</v>
+        <v>3434301819.1185727</v>
       </c>
       <c r="N4" s="9">
         <f>'Calculations 2'!K82</f>
-        <v>2793162730.4294157</v>
+        <v>3872822010.4657278</v>
       </c>
       <c r="O4" s="9">
         <f>'Calculations 2'!L82</f>
-        <v>2835564150.8360047</v>
+        <v>4318701788.1236324</v>
       </c>
       <c r="P4" s="9">
         <f>'Calculations 2'!M82</f>
-        <v>4628182211.7294846</v>
+        <v>4771941152.4406395</v>
       </c>
       <c r="Q4" s="9">
         <f>'Calculations 2'!N82</f>
-        <v>4704359742.7432909</v>
+        <v>5232540102.726778</v>
       </c>
       <c r="R4" s="9">
         <f>'Calculations 2'!O82</f>
-        <v>4780537273.7564344</v>
+        <v>5700498639.4107466</v>
       </c>
       <c r="S4" s="9">
         <f>'Calculations 2'!P82</f>
-        <v>4856714804.7682142</v>
+        <v>6175816762.4071674</v>
       </c>
       <c r="T4" s="9">
         <f>'Calculations 2'!Q82</f>
-        <v>4932892335.7826891</v>
+        <v>6658494471.716013</v>
       </c>
       <c r="U4" s="9">
         <f>'Calculations 2'!R82</f>
-        <v>8078421770.4110537</v>
+        <v>7148531767.5114622</v>
       </c>
       <c r="V4" s="9">
         <f>'Calculations 2'!S82</f>
-        <v>8213832408.3374271</v>
+        <v>7645928649.4485483</v>
       </c>
       <c r="W4" s="9">
         <f>'Calculations 2'!T82</f>
-        <v>8349243046.262475</v>
+        <v>8150685117.5238819</v>
       </c>
       <c r="X4" s="9">
         <f>'Calculations 2'!U82</f>
-        <v>8484653684.1847839</v>
+        <v>8662801172.430809</v>
       </c>
       <c r="Y4" s="9">
         <f>'Calculations 2'!V82</f>
-        <v>8620064322.1125011</v>
+        <v>9182276812.960207</v>
       </c>
       <c r="Z4" s="9">
         <f>'Calculations 2'!W82</f>
-        <v>10786945663.131109</v>
+        <v>9709112040.3178291</v>
       </c>
       <c r="AA4" s="9">
         <f>'Calculations 2'!X82</f>
-        <v>10961560121.642162</v>
+        <v>10243306853.991264</v>
       </c>
       <c r="AB4" s="9">
         <f>'Calculations 2'!Y82</f>
-        <v>11136174580.155943</v>
+        <v>10784861253.806299</v>
       </c>
       <c r="AC4" s="9">
         <f>'Calculations 2'!Z82</f>
-        <v>11310789038.664328</v>
+        <v>11333775239.585436</v>
       </c>
       <c r="AD4" s="9">
         <f>'Calculations 2'!AA82</f>
-        <v>11485403497.175402</v>
+        <v>11890048812.36697</v>
       </c>
       <c r="AE4" s="9">
         <f>'Calculations 2'!AB82</f>
-        <v>13874485661.622061</v>
+        <v>12453681971.119328</v>
       </c>
       <c r="AF4" s="9">
         <f>'Calculations 2'!AC82</f>
-        <v>14091835461.826611</v>
+        <v>13024674715.835768</v>
       </c>
       <c r="AG4" s="9">
         <f>'Calculations 2'!AD82</f>
-        <v>14309185262.031143</v>
+        <v>13603027047.728785</v>
       </c>
       <c r="AH4" s="9">
         <f>'Calculations 2'!AE82</f>
-        <v>14526535062.23571</v>
+        <v>14188738965.247595</v>
       </c>
       <c r="AI4" s="9">
         <f>'Calculations 2'!AF82</f>
-        <v>14743884862.443001</v>
+        <v>14781810469.075548</v>
       </c>
       <c r="AJ4" s="9">
         <f>'Calculations 2'!AG82</f>
-        <v>14961234662.644863</v>
+        <v>15382241559.735016</v>
       </c>
       <c r="AK4" s="9">
         <f>'Calculations 2'!AH82</f>
-        <v>15178584462.849411</v>
+        <v>15990032236.365362</v>
       </c>
       <c r="AL4" s="9">
         <f>'Calculations 2'!AI82</f>
-        <v>15395934263.056702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+        <v>16605182498.959753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>143153978.00396717</v>
+        <v>82076691.708378464</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>143153978.00396717</v>
+        <v>82076691.708378464</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="1"/>
-        <v>143153978.00396717</v>
+        <v>82076691.708378464</v>
       </c>
       <c r="E5" s="9">
         <f>'Calculations 2'!B83</f>
-        <v>143153978.00396717</v>
+        <v>82076691.708378464</v>
       </c>
       <c r="F5" s="9">
         <f>'Calculations 2'!C83</f>
-        <v>176719438.16721475</v>
+        <v>102409903.87468652</v>
       </c>
       <c r="G5" s="9">
         <f>'Calculations 2'!D83</f>
-        <v>184264159.08515969</v>
+        <v>125027968.67095701</v>
       </c>
       <c r="H5" s="9">
         <f>'Calculations 2'!E83</f>
-        <v>191808880.00313994</v>
+        <v>149930886.08974716</v>
       </c>
       <c r="I5" s="9">
         <f>'Calculations 2'!F83</f>
-        <v>199353600.92110336</v>
+        <v>177118656.09398109</v>
       </c>
       <c r="J5" s="9">
         <f>'Calculations 2'!G83</f>
-        <v>206898321.83906689</v>
+        <v>206591278.72817755</v>
       </c>
       <c r="K5" s="9">
         <f>'Calculations 2'!H83</f>
-        <v>265759917.8602055</v>
+        <v>238348753.97536394</v>
       </c>
       <c r="L5" s="9">
         <f>'Calculations 2'!I83</f>
-        <v>278923836.60196698</v>
+        <v>272391081.83077502</v>
       </c>
       <c r="M5" s="9">
         <f>'Calculations 2'!J83</f>
-        <v>292087755.34372795</v>
+        <v>308718262.30341929</v>
       </c>
       <c r="N5" s="9">
         <f>'Calculations 2'!K83</f>
-        <v>305251674.08552641</v>
+        <v>347330295.37952358</v>
       </c>
       <c r="O5" s="9">
         <f>'Calculations 2'!L83</f>
-        <v>318415592.82725471</v>
+        <v>388227181.06757396</v>
       </c>
       <c r="P5" s="9">
         <f>'Calculations 2'!M83</f>
-        <v>427343076.84885091</v>
+        <v>431408919.38663059</v>
       </c>
       <c r="Q5" s="9">
         <f>'Calculations 2'!N83</f>
-        <v>450993105.98879135</v>
+        <v>476875510.30066079</v>
       </c>
       <c r="R5" s="9">
         <f>'Calculations 2'!O83</f>
-        <v>474643135.12869877</v>
+        <v>524626953.83140177</v>
       </c>
       <c r="S5" s="9">
         <f>'Calculations 2'!P83</f>
-        <v>498293164.26853156</v>
+        <v>574663249.97461176</v>
       </c>
       <c r="T5" s="9">
         <f>'Calculations 2'!Q83</f>
-        <v>521943193.40850514</v>
+        <v>626984398.7302891</v>
       </c>
       <c r="U5" s="9">
         <f>'Calculations 2'!R83</f>
-        <v>713533621.80492115</v>
+        <v>681590400.10796428</v>
       </c>
       <c r="V5" s="9">
         <f>'Calculations 2'!S83</f>
-        <v>755573124.66349077</v>
+        <v>738481254.08962214</v>
       </c>
       <c r="W5" s="9">
         <f>'Calculations 2'!T83</f>
-        <v>797612627.52199423</v>
+        <v>797656960.67421722</v>
       </c>
       <c r="X5" s="9">
         <f>'Calculations 2'!U83</f>
-        <v>839652130.38034785</v>
+        <v>859117519.89882684</v>
       </c>
       <c r="Y5" s="9">
         <f>'Calculations 2'!V83</f>
-        <v>881691633.23898423</v>
+        <v>922862931.6998719</v>
       </c>
       <c r="Z5" s="9">
         <f>'Calculations 2'!W83</f>
-        <v>1034883591.6219234</v>
+        <v>988893196.13988757</v>
       </c>
       <c r="AA5" s="9">
         <f>'Calculations 2'!X83</f>
-        <v>1089094288.3603525</v>
+        <v>1057208313.1934156</v>
       </c>
       <c r="AB5" s="9">
         <f>'Calculations 2'!Y83</f>
-        <v>1143304985.0989301</v>
+        <v>1127808282.8509243</v>
       </c>
       <c r="AC5" s="9">
         <f>'Calculations 2'!Z83</f>
-        <v>1197515681.8372266</v>
+        <v>1200693105.1018417</v>
       </c>
       <c r="AD5" s="9">
         <f>'Calculations 2'!AA83</f>
-        <v>1251726378.5756564</v>
+        <v>1275862780.0012596</v>
       </c>
       <c r="AE5" s="9">
         <f>'Calculations 2'!AB83</f>
-        <v>1427102260.1328843</v>
+        <v>1353317307.4961736</v>
       </c>
       <c r="AF5" s="9">
         <f>'Calculations 2'!AC83</f>
-        <v>1494580544.6089716</v>
+        <v>1433056687.5844948</v>
       </c>
       <c r="AG5" s="9">
         <f>'Calculations 2'!AD83</f>
-        <v>1562058829.085058</v>
+        <v>1515080920.3308475</v>
       </c>
       <c r="AH5" s="9">
         <f>'Calculations 2'!AE83</f>
-        <v>1629537113.5611463</v>
+        <v>1599390005.6546769</v>
       </c>
       <c r="AI5" s="9">
         <f>'Calculations 2'!AF83</f>
-        <v>1697015398.0373843</v>
+        <v>1685983943.5899348</v>
       </c>
       <c r="AJ5" s="9">
         <f>'Calculations 2'!AG83</f>
-        <v>1764493682.5133379</v>
+        <v>1774862734.1652031</v>
       </c>
       <c r="AK5" s="9">
         <f>'Calculations 2'!AH83</f>
-        <v>1831971966.9894257</v>
+        <v>1866026377.3359697</v>
       </c>
       <c r="AL5" s="9">
         <f>'Calculations 2'!AI83</f>
-        <v>1899450251.4656627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+        <v>1959474873.1001425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>464304354.21554506</v>
+        <v>228125723.427302</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>464304354.21554506</v>
+        <v>228125723.427302</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="1"/>
-        <v>464304354.21554506</v>
+        <v>228125723.427302</v>
       </c>
       <c r="E6" s="9">
         <f>'Calculations 2'!B84</f>
-        <v>464304354.21554506</v>
+        <v>228125723.427302</v>
       </c>
       <c r="F6" s="9">
         <f>'Calculations 2'!C84</f>
-        <v>600631041.65789402</v>
+        <v>315073594.52557069</v>
       </c>
       <c r="G6" s="9">
         <f>'Calculations 2'!D84</f>
-        <v>622217963.61234343</v>
+        <v>408558875.83889914</v>
       </c>
       <c r="H6" s="9">
         <f>'Calculations 2'!E84</f>
-        <v>643804885.56694555</v>
+        <v>508581567.33285242</v>
       </c>
       <c r="I6" s="9">
         <f>'Calculations 2'!F84</f>
-        <v>665391807.52147341</v>
+        <v>615141668.84878969</v>
       </c>
       <c r="J6" s="9">
         <f>'Calculations 2'!G84</f>
-        <v>686978729.47600174</v>
+        <v>728239180.57978714</v>
       </c>
       <c r="K6" s="9">
         <f>'Calculations 2'!H84</f>
-        <v>926149494.01600993</v>
+        <v>847874102.45100343</v>
       </c>
       <c r="L6" s="9">
         <f>'Calculations 2'!I84</f>
-        <v>963814039.80690491</v>
+        <v>974046434.4422338</v>
       </c>
       <c r="M6" s="9">
         <f>'Calculations 2'!J84</f>
-        <v>1001478585.5977979</v>
+        <v>1106756176.5923936</v>
       </c>
       <c r="N6" s="9">
         <f>'Calculations 2'!K84</f>
-        <v>1039143131.3888495</v>
+        <v>1246003328.842365</v>
       </c>
       <c r="O6" s="9">
         <f>'Calculations 2'!L84</f>
-        <v>1076807677.1795983</v>
+        <v>1391787891.2295682</v>
       </c>
       <c r="P6" s="9">
         <f>'Calculations 2'!M84</f>
-        <v>1520510284.9409244</v>
+        <v>1544109863.8348184</v>
       </c>
       <c r="Q6" s="9">
         <f>'Calculations 2'!N84</f>
-        <v>1588177643.1928453</v>
+        <v>1702969246.502459</v>
       </c>
       <c r="R6" s="9">
         <f>'Calculations 2'!O84</f>
-        <v>1655845001.4446213</v>
+        <v>1868366039.3275328</v>
       </c>
       <c r="S6" s="9">
         <f>'Calculations 2'!P84</f>
-        <v>1723512359.6960809</v>
+        <v>2040300242.2913363</v>
       </c>
       <c r="T6" s="9">
         <f>'Calculations 2'!Q84</f>
-        <v>1791179717.9481483</v>
+        <v>2218771855.3938632</v>
       </c>
       <c r="U6" s="9">
         <f>'Calculations 2'!R84</f>
-        <v>2570915325.1356416</v>
+        <v>2403780878.6755204</v>
       </c>
       <c r="V6" s="9">
         <f>'Calculations 2'!S84</f>
-        <v>2691198563.8509631</v>
+        <v>2595327312.0584869</v>
       </c>
       <c r="W6" s="9">
         <f>'Calculations 2'!T84</f>
-        <v>2811481802.5659933</v>
+        <v>2793411155.5397677</v>
       </c>
       <c r="X6" s="9">
         <f>'Calculations 2'!U84</f>
-        <v>2931765041.2803888</v>
+        <v>2998032409.2780094</v>
       </c>
       <c r="Y6" s="9">
         <f>'Calculations 2'!V84</f>
-        <v>3052048279.9960041</v>
+        <v>3209191072.999321</v>
       </c>
       <c r="Z6" s="9">
         <f>'Calculations 2'!W84</f>
-        <v>3643618562.9278398</v>
+        <v>3426887146.974606</v>
       </c>
       <c r="AA6" s="9">
         <f>'Calculations 2'!X84</f>
-        <v>3798725967.4716978</v>
+        <v>3651120631.0916066</v>
       </c>
       <c r="AB6" s="9">
         <f>'Calculations 2'!Y84</f>
-        <v>3953833372.0161853</v>
+        <v>3881891525.3099055</v>
       </c>
       <c r="AC6" s="9">
         <f>'Calculations 2'!Z84</f>
-        <v>4108940776.5594583</v>
+        <v>4119199829.5861197</v>
       </c>
       <c r="AD6" s="9">
         <f>'Calculations 2'!AA84</f>
-        <v>4264048181.1033192</v>
+        <v>4363045544.1567144</v>
       </c>
       <c r="AE6" s="9">
         <f>'Calculations 2'!AB84</f>
-        <v>4932896659.0747538</v>
+        <v>4613428668.791194</v>
       </c>
       <c r="AF6" s="9">
         <f>'Calculations 2'!AC84</f>
-        <v>5125965226.6797628</v>
+        <v>4870349203.4835844</v>
       </c>
       <c r="AG6" s="9">
         <f>'Calculations 2'!AD84</f>
-        <v>5319033794.2847652</v>
+        <v>5133807148.5107622</v>
       </c>
       <c r="AH6" s="9">
         <f>'Calculations 2'!AE84</f>
-        <v>5512102361.8897772</v>
+        <v>5403802503.5239878</v>
       </c>
       <c r="AI6" s="9">
         <f>'Calculations 2'!AF84</f>
-        <v>5705170929.4954224</v>
+        <v>5680335268.6729698</v>
       </c>
       <c r="AJ6" s="9">
         <f>'Calculations 2'!AG84</f>
-        <v>5898239497.0998421</v>
+        <v>5963405444.0788937</v>
       </c>
       <c r="AK6" s="9">
         <f>'Calculations 2'!AH84</f>
-        <v>6091308064.7048502</v>
+        <v>6253013029.5487156</v>
       </c>
       <c r="AL6" s="9">
         <f>'Calculations 2'!AI84</f>
-        <v>6284376632.3104935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+        <v>6549158025.0764408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>285210583.44498038</v>
+        <v>131795843.78363682</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>285210583.44498038</v>
+        <v>131795843.78363682</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="1"/>
-        <v>285210583.44498038</v>
+        <v>131795843.78363682</v>
       </c>
       <c r="E7" s="9">
         <f>'Calculations 2'!B85</f>
-        <v>285210583.44498038</v>
+        <v>131795843.78363682</v>
       </c>
       <c r="F7" s="9">
         <f>'Calculations 2'!C85</f>
-        <v>374963934.47210169</v>
+        <v>189802581.40597671</v>
       </c>
       <c r="G7" s="9">
         <f>'Calculations 2'!D85</f>
-        <v>387593019.95406812</v>
+        <v>251633926.94378018</v>
       </c>
       <c r="H7" s="9">
         <f>'Calculations 2'!E85</f>
-        <v>400222105.43613666</v>
+        <v>317289880.37364125</v>
       </c>
       <c r="I7" s="9">
         <f>'Calculations 2'!F85</f>
-        <v>412851190.91815525</v>
+        <v>386770441.58970714</v>
       </c>
       <c r="J7" s="9">
         <f>'Calculations 2'!G85</f>
-        <v>425480276.40017426</v>
+        <v>460075610.72123688</v>
       </c>
       <c r="K7" s="9">
         <f>'Calculations 2'!H85</f>
-        <v>582961118.30933082</v>
+        <v>537205387.71792459</v>
       </c>
       <c r="L7" s="9">
         <f>'Calculations 2'!I85</f>
-        <v>604996162.0009048</v>
+        <v>618159772.56631947</v>
       </c>
       <c r="M7" s="9">
         <f>'Calculations 2'!J85</f>
-        <v>627031205.69247758</v>
+        <v>702938765.29244936</v>
       </c>
       <c r="N7" s="9">
         <f>'Calculations 2'!K85</f>
-        <v>649066249.38415611</v>
+        <v>791542365.85683703</v>
       </c>
       <c r="O7" s="9">
         <f>'Calculations 2'!L85</f>
-        <v>671101293.07563186</v>
+        <v>883970574.28463495</v>
       </c>
       <c r="P7" s="9">
         <f>'Calculations 2'!M85</f>
-        <v>963447430.43024623</v>
+        <v>980223390.62964404</v>
       </c>
       <c r="Q7" s="9">
         <f>'Calculations 2'!N85</f>
-        <v>1003035142.5416027</v>
+        <v>1080300814.7877579</v>
       </c>
       <c r="R7" s="9">
         <f>'Calculations 2'!O85</f>
-        <v>1042622854.6528616</v>
+        <v>1184202846.822731</v>
       </c>
       <c r="S7" s="9">
         <f>'Calculations 2'!P85</f>
-        <v>1082210566.7639098</v>
+        <v>1291929486.7219911</v>
       </c>
       <c r="T7" s="9">
         <f>'Calculations 2'!Q85</f>
-        <v>1121798278.8753645</v>
+        <v>1403480734.4855344</v>
       </c>
       <c r="U7" s="9">
         <f>'Calculations 2'!R85</f>
-        <v>1635430089.7060108</v>
+        <v>1518856590.1402607</v>
       </c>
       <c r="V7" s="9">
         <f>'Calculations 2'!S85</f>
-        <v>1705799886.1499069</v>
+        <v>1638057053.6341207</v>
       </c>
       <c r="W7" s="9">
         <f>'Calculations 2'!T85</f>
-        <v>1776169682.5936079</v>
+        <v>1761082124.9653628</v>
       </c>
       <c r="X7" s="9">
         <f>'Calculations 2'!U85</f>
-        <v>1846539479.0368865</v>
+        <v>1887931804.2398429</v>
       </c>
       <c r="Y7" s="9">
         <f>'Calculations 2'!V85</f>
-        <v>1916909275.4809802</v>
+        <v>2018606091.2745011</v>
       </c>
       <c r="Z7" s="9">
         <f>'Calculations 2'!W85</f>
-        <v>2301028270.0497169</v>
+        <v>2153104986.250649</v>
       </c>
       <c r="AA7" s="9">
         <f>'Calculations 2'!X85</f>
-        <v>2391771391.0469904</v>
+        <v>2291428489.0928307</v>
       </c>
       <c r="AB7" s="9">
         <f>'Calculations 2'!Y85</f>
-        <v>2482514512.0446844</v>
+        <v>2433576599.7741408</v>
       </c>
       <c r="AC7" s="9">
         <f>'Calculations 2'!Z85</f>
-        <v>2573257633.0415649</v>
+        <v>2579549318.2659359</v>
       </c>
       <c r="AD7" s="9">
         <f>'Calculations 2'!AA85</f>
-        <v>2664000754.0388417</v>
+        <v>2729346644.7261224</v>
       </c>
       <c r="AE7" s="9">
         <f>'Calculations 2'!AB85</f>
-        <v>3096755928.6448865</v>
+        <v>2882968579.0002871</v>
       </c>
       <c r="AF7" s="9">
         <f>'Calculations 2'!AC85</f>
-        <v>3209707624.5518203</v>
+        <v>3040415121.0849357</v>
       </c>
       <c r="AG7" s="9">
         <f>'Calculations 2'!AD85</f>
-        <v>3322659320.4587522</v>
+        <v>3201686271.164876</v>
       </c>
       <c r="AH7" s="9">
         <f>'Calculations 2'!AE85</f>
-        <v>3435611016.3656893</v>
+        <v>3366782029.0067339</v>
       </c>
       <c r="AI7" s="9">
         <f>'Calculations 2'!AF85</f>
-        <v>3548562712.2730465</v>
+        <v>3535702394.7111421</v>
       </c>
       <c r="AJ7" s="9">
         <f>'Calculations 2'!AG85</f>
-        <v>3661514408.179585</v>
+        <v>3708447368.3587751</v>
       </c>
       <c r="AK7" s="9">
         <f>'Calculations 2'!AH85</f>
-        <v>3774466104.0865192</v>
+        <v>3885016949.820395</v>
       </c>
       <c r="AL7" s="9">
         <f>'Calculations 2'!AI85</f>
-        <v>3887417799.9938769</v>
+        <v>4065411139.0924935</v>
       </c>
     </row>
   </sheetData>
@@ -3930,23 +4863,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I35:I36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.86328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="40" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="40" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
@@ -3963,7 +4898,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3980,7 +4915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A3" s="22"/>
       <c r="B3" s="22" t="s">
         <v>45</v>
@@ -4019,7 +4954,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4" s="26"/>
       <c r="B4" s="27" t="s">
         <v>6</v>
@@ -4052,7 +4987,7 @@
       </c>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
       <c r="B5" s="31" t="s">
         <v>7</v>
@@ -4085,12 +5020,12 @@
       </c>
       <c r="M5" s="34"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <v>2012</v>
       </c>
@@ -4209,7 +5144,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -4370,7 +5305,7 @@
         <v>244.50886199386878</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -4531,7 +5466,7 @@
         <v>244508861.99386877</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -4689,7 +5624,7 @@
         <v>5463744.0223868787</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -4730,7 +5665,7 @@
       <c r="AM12" s="35"/>
       <c r="AN12" s="35"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -4891,7 +5826,7 @@
         <v>220.15565344890638</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
@@ -5052,7 +5987,7 @@
         <v>220155653.44890639</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -5209,7 +6144,7 @@
         <v>327937.6436971724</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18" s="36" t="s">
         <v>48</v>
       </c>
@@ -5229,7 +6164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19" s="39" t="s">
         <v>45</v>
       </c>
@@ -5269,7 +6204,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20" s="41" t="s">
         <v>52</v>
       </c>
@@ -5303,7 +6238,7 @@
         <v>5.8725104119963625</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -5319,7 +6254,7 @@
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A22" s="43" t="s">
         <v>53</v>
       </c>
@@ -5353,7 +6288,7 @@
         <v>1704172882.39362</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A23" s="43" t="s">
         <v>54</v>
       </c>
@@ -5390,12 +6325,12 @@
       </c>
       <c r="O23" s="47"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <v>2012</v>
       </c>
@@ -5514,503 +6449,504 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="46">
-        <f t="shared" ref="B27:G27" si="44">TREND($G23:$H23,$G$19:$H$19,B$26)</f>
-        <v>7.5035115580064371E-2</v>
+        <f>0.0009956984*B26^2-4.0161162101*B26+4049.792860899</f>
+        <v>9.7549947400693782E-2</v>
       </c>
       <c r="C27" s="46">
-        <f t="shared" si="44"/>
-        <v>7.8822142863661071E-2</v>
+        <f t="shared" ref="C27:AN27" si="44">0.0009956984*C26^2-4.0161162101*C26+4049.792860899</f>
+        <v>8.9119797300554637E-2</v>
       </c>
       <c r="D27" s="46">
         <f t="shared" si="44"/>
-        <v>8.2609170147257771E-2</v>
+        <v>8.2681044000310067E-2</v>
       </c>
       <c r="E27" s="46">
         <f t="shared" si="44"/>
-        <v>8.6396197430854471E-2</v>
+        <v>7.8233687500869564E-2</v>
       </c>
       <c r="F27" s="46">
         <f t="shared" si="44"/>
-        <v>9.0183224714451171E-2</v>
+        <v>7.5777727800414141E-2</v>
       </c>
       <c r="G27" s="46">
         <f t="shared" si="44"/>
-        <v>9.3970251998047871E-2</v>
+        <v>7.5313164901217533E-2</v>
       </c>
       <c r="H27" s="46">
-        <f>TREND($H23:$I23,$H$19:$I$19,H$26)</f>
-        <v>0.10054596415127115</v>
+        <f t="shared" si="44"/>
+        <v>7.6839998800551257E-2</v>
       </c>
       <c r="I27" s="46">
-        <f>TREND($H23:$I23,$H$19:$I$19,I$26)</f>
-        <v>0.10712167630449265</v>
+        <f t="shared" si="44"/>
+        <v>8.0358229500234302E-2</v>
       </c>
       <c r="J27" s="46">
-        <f>TREND($H23:$I23,$H$19:$I$19,J$26)</f>
-        <v>0.11369738845771593</v>
+        <f t="shared" si="44"/>
+        <v>8.5867857001176162E-2</v>
       </c>
       <c r="K27" s="46">
-        <f>TREND($H23:$I23,$H$19:$I$19,K$26)</f>
-        <v>0.12027310061093921</v>
+        <f t="shared" si="44"/>
+        <v>9.3368881300648354E-2</v>
       </c>
       <c r="L27" s="46">
-        <f>TREND($H23:$I23,$H$19:$I$19,L$26)</f>
-        <v>0.12684881276416249</v>
+        <f t="shared" si="44"/>
+        <v>0.10286130240046987</v>
       </c>
       <c r="M27" s="46">
-        <f>TREND($I23:$J23,$I$19:$J$19,M$26)</f>
-        <v>0.13832201918166476</v>
+        <f t="shared" si="44"/>
+        <v>0.1143451203006407</v>
       </c>
       <c r="N27" s="46">
-        <f>TREND($I23:$J23,$I$19:$J$19,N$26)</f>
-        <v>0.14979522559916703</v>
+        <f t="shared" si="44"/>
+        <v>0.12782033500070611</v>
       </c>
       <c r="O27" s="46">
-        <f>TREND($I23:$J23,$I$19:$J$19,O$26)</f>
-        <v>0.16126843201666929</v>
+        <f t="shared" si="44"/>
+        <v>0.14328694650112084</v>
       </c>
       <c r="P27" s="46">
-        <f>TREND($I23:$J23,$I$19:$J$19,P$26)</f>
-        <v>0.17274163843417512</v>
+        <f t="shared" si="44"/>
+        <v>0.16074495480097539</v>
       </c>
       <c r="Q27" s="46">
-        <f>TREND($I23:$J23,$I$19:$J$19,Q$26)</f>
-        <v>0.18421484485167738</v>
+        <f t="shared" si="44"/>
+        <v>0.18019435990026977</v>
       </c>
       <c r="R27" s="46">
-        <f>TREND($J23:$K23,$J$19:$K$19,R$26)</f>
-        <v>0.20482737455692757</v>
+        <f t="shared" si="44"/>
+        <v>0.20163516180082297</v>
       </c>
       <c r="S27" s="46">
-        <f>TREND($J23:$K23,$J$19:$K$19,S$26)</f>
-        <v>0.2254399042621813</v>
+        <f t="shared" si="44"/>
+        <v>0.22506736050081599</v>
       </c>
       <c r="T27" s="46">
-        <f>TREND($J23:$K23,$J$19:$K$19,T$26)</f>
-        <v>0.24605243396743504</v>
+        <f t="shared" si="44"/>
+        <v>0.25049095600070359</v>
       </c>
       <c r="U27" s="46">
-        <f>TREND($J23:$K23,$J$19:$K$19,U$26)</f>
-        <v>0.26666496367268167</v>
+        <f t="shared" si="44"/>
+        <v>0.27790594830048576</v>
       </c>
       <c r="V27" s="46">
-        <f>TREND($J23:$K23,$J$19:$K$19,V$26)</f>
-        <v>0.2872774933779354</v>
+        <f t="shared" si="44"/>
+        <v>0.30731233740016251</v>
       </c>
       <c r="W27" s="46">
-        <f>TREND($K23:$L23,$K$19:$L$19,W$26)</f>
-        <v>0.32391763856924172</v>
+        <f t="shared" si="44"/>
+        <v>0.33871012330064332</v>
       </c>
       <c r="X27" s="46">
-        <f>TREND($K23:$L23,$K$19:$L$19,X$26)</f>
-        <v>0.36055778376055514</v>
+        <f t="shared" si="44"/>
+        <v>0.3720993060010187</v>
       </c>
       <c r="Y27" s="46">
-        <f>TREND($K23:$L23,$K$19:$L$19,Y$26)</f>
-        <v>0.39719792895186856</v>
+        <f t="shared" si="44"/>
+        <v>0.40747988550037917</v>
       </c>
       <c r="Z27" s="46">
-        <f>TREND($K23:$L23,$K$19:$L$19,Z$26)</f>
-        <v>0.43383807414316777</v>
+        <f t="shared" si="44"/>
+        <v>0.4448518618014532</v>
       </c>
       <c r="AA27" s="46">
-        <f>TREND($K23:$L23,$K$19:$L$19,AA$26)</f>
-        <v>0.4704782193344812</v>
+        <f t="shared" si="44"/>
+        <v>0.48421523490060281</v>
       </c>
       <c r="AB27" s="46">
-        <f>TREND($L23:$M23,$L$19:$M$19,AB$26)</f>
-        <v>0.51772634703246467</v>
+        <f t="shared" si="44"/>
+        <v>0.52557000480055649</v>
       </c>
       <c r="AC27" s="46">
-        <f>TREND($L23:$M23,$L$19:$M$19,AC$26)</f>
-        <v>0.56497447473044815</v>
+        <f t="shared" si="44"/>
+        <v>0.56891617150131424</v>
       </c>
       <c r="AD27" s="46">
-        <f>TREND($L23:$M23,$L$19:$M$19,AD$26)</f>
-        <v>0.61222260242844584</v>
+        <f t="shared" si="44"/>
+        <v>0.61425373500196656</v>
       </c>
       <c r="AE27" s="46">
-        <f>TREND($L23:$M23,$L$19:$M$19,AE$26)</f>
-        <v>0.65947073012642932</v>
+        <f t="shared" si="44"/>
+        <v>0.66158269530069447</v>
       </c>
       <c r="AF27" s="46">
-        <f>TREND($L23:$M23,$L$19:$M$19,AF$26)</f>
-        <v>0.70671885782441279</v>
+        <f t="shared" si="44"/>
+        <v>0.71090305240113594</v>
       </c>
       <c r="AG27" s="46">
-        <f t="shared" ref="AG27:AN27" si="45">TREND($M23:$N23,$M$19:$N$19,AG$26)</f>
-        <v>0.76553054617349403</v>
+        <f t="shared" si="44"/>
+        <v>0.76221480630147198</v>
       </c>
       <c r="AH27" s="46">
-        <f t="shared" si="45"/>
-        <v>0.82434223452257527</v>
+        <f t="shared" si="44"/>
+        <v>0.81551795699988361</v>
       </c>
       <c r="AI27" s="46">
-        <f t="shared" si="45"/>
-        <v>0.8831539228716565</v>
+        <f t="shared" si="44"/>
+        <v>0.87081250450091829</v>
       </c>
       <c r="AJ27" s="46">
-        <f t="shared" si="45"/>
-        <v>0.94196561122073774</v>
+        <f t="shared" si="44"/>
+        <v>0.92809844880093806</v>
       </c>
       <c r="AK27" s="46">
-        <f t="shared" si="45"/>
-        <v>1.0007772995698332</v>
+        <f t="shared" si="44"/>
+        <v>0.9873757898999429</v>
       </c>
       <c r="AL27" s="46">
-        <f t="shared" si="45"/>
-        <v>1.0595889879189144</v>
+        <f t="shared" si="44"/>
+        <v>1.0486445278006613</v>
       </c>
       <c r="AM27" s="46">
-        <f t="shared" si="45"/>
-        <v>1.1184006762679957</v>
+        <f t="shared" si="44"/>
+        <v>1.1119046625012743</v>
       </c>
       <c r="AN27" s="46">
-        <f t="shared" si="45"/>
-        <v>1.1772123646170911</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v>1.1771561939999629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="47">
         <f>B27*10^10</f>
-        <v>750351155.80064368</v>
+        <v>975499474.00693786</v>
       </c>
       <c r="C28" s="47">
-        <f t="shared" ref="C28:AN28" si="46">C27*10^10</f>
-        <v>788221428.63661075</v>
+        <f t="shared" ref="C28:AN28" si="45">C27*10^10</f>
+        <v>891197973.00554633</v>
       </c>
       <c r="D28" s="47">
-        <f t="shared" si="46"/>
-        <v>826091701.47257769</v>
+        <f t="shared" si="45"/>
+        <v>826810440.00310063</v>
       </c>
       <c r="E28" s="47">
-        <f t="shared" si="46"/>
-        <v>863961974.30854475</v>
+        <f t="shared" si="45"/>
+        <v>782336875.0086956</v>
       </c>
       <c r="F28" s="47">
-        <f t="shared" si="46"/>
-        <v>901832247.1445117</v>
+        <f t="shared" si="45"/>
+        <v>757777278.00414145</v>
       </c>
       <c r="G28" s="47">
-        <f t="shared" si="46"/>
-        <v>939702519.98047876</v>
+        <f t="shared" si="45"/>
+        <v>753131649.01217532</v>
       </c>
       <c r="H28" s="47">
-        <f t="shared" si="46"/>
-        <v>1005459641.5127115</v>
+        <f t="shared" si="45"/>
+        <v>768399988.0055126</v>
       </c>
       <c r="I28" s="47">
-        <f t="shared" si="46"/>
-        <v>1071216763.0449265</v>
+        <f t="shared" si="45"/>
+        <v>803582295.00234306</v>
       </c>
       <c r="J28" s="47">
-        <f t="shared" si="46"/>
-        <v>1136973884.5771594</v>
+        <f t="shared" si="45"/>
+        <v>858678570.01176167</v>
       </c>
       <c r="K28" s="47">
-        <f t="shared" si="46"/>
-        <v>1202731006.1093922</v>
+        <f t="shared" si="45"/>
+        <v>933688813.00648355</v>
       </c>
       <c r="L28" s="47">
-        <f t="shared" si="46"/>
-        <v>1268488127.6416249</v>
+        <f t="shared" si="45"/>
+        <v>1028613024.0046986</v>
       </c>
       <c r="M28" s="47">
-        <f t="shared" si="46"/>
-        <v>1383220191.8166475</v>
+        <f t="shared" si="45"/>
+        <v>1143451203.006407</v>
       </c>
       <c r="N28" s="47">
-        <f t="shared" si="46"/>
-        <v>1497952255.9916704</v>
+        <f t="shared" si="45"/>
+        <v>1278203350.007061</v>
       </c>
       <c r="O28" s="47">
-        <f t="shared" si="46"/>
-        <v>1612684320.166693</v>
+        <f t="shared" si="45"/>
+        <v>1432869465.0112083</v>
       </c>
       <c r="P28" s="47">
-        <f t="shared" si="46"/>
-        <v>1727416384.3417511</v>
+        <f t="shared" si="45"/>
+        <v>1607449548.0097539</v>
       </c>
       <c r="Q28" s="47">
-        <f t="shared" si="46"/>
-        <v>1842148448.5167739</v>
+        <f t="shared" si="45"/>
+        <v>1801943599.0026977</v>
       </c>
       <c r="R28" s="47">
-        <f t="shared" si="46"/>
-        <v>2048273745.5692756</v>
+        <f t="shared" si="45"/>
+        <v>2016351618.0082297</v>
       </c>
       <c r="S28" s="47">
-        <f t="shared" si="46"/>
-        <v>2254399042.6218128</v>
+        <f t="shared" si="45"/>
+        <v>2250673605.0081601</v>
       </c>
       <c r="T28" s="47">
-        <f t="shared" si="46"/>
-        <v>2460524339.6743503</v>
+        <f t="shared" si="45"/>
+        <v>2504909560.0070357</v>
       </c>
       <c r="U28" s="47">
-        <f t="shared" si="46"/>
-        <v>2666649636.7268167</v>
+        <f t="shared" si="45"/>
+        <v>2779059483.0048575</v>
       </c>
       <c r="V28" s="47">
-        <f t="shared" si="46"/>
-        <v>2872774933.7793541</v>
+        <f t="shared" si="45"/>
+        <v>3073123374.0016251</v>
       </c>
       <c r="W28" s="47">
-        <f t="shared" si="46"/>
-        <v>3239176385.6924171</v>
+        <f t="shared" si="45"/>
+        <v>3387101233.006433</v>
       </c>
       <c r="X28" s="47">
-        <f t="shared" si="46"/>
-        <v>3605577837.6055512</v>
+        <f t="shared" si="45"/>
+        <v>3720993060.0101871</v>
       </c>
       <c r="Y28" s="47">
-        <f t="shared" si="46"/>
-        <v>3971979289.5186858</v>
+        <f t="shared" si="45"/>
+        <v>4074798855.0037918</v>
       </c>
       <c r="Z28" s="47">
-        <f t="shared" si="46"/>
-        <v>4338380741.4316778</v>
+        <f t="shared" si="45"/>
+        <v>4448518618.0145321</v>
       </c>
       <c r="AA28" s="47">
-        <f t="shared" si="46"/>
-        <v>4704782193.3448124</v>
+        <f t="shared" si="45"/>
+        <v>4842152349.0060282</v>
       </c>
       <c r="AB28" s="47">
-        <f t="shared" si="46"/>
-        <v>5177263470.3246469</v>
+        <f t="shared" si="45"/>
+        <v>5255700048.0055647</v>
       </c>
       <c r="AC28" s="47">
-        <f t="shared" si="46"/>
-        <v>5649744747.3044815</v>
+        <f t="shared" si="45"/>
+        <v>5689161715.0131426</v>
       </c>
       <c r="AD28" s="47">
-        <f t="shared" si="46"/>
-        <v>6122226024.2844582</v>
+        <f t="shared" si="45"/>
+        <v>6142537350.0196657</v>
       </c>
       <c r="AE28" s="47">
-        <f t="shared" si="46"/>
-        <v>6594707301.2642927</v>
+        <f t="shared" si="45"/>
+        <v>6615826953.0069447</v>
       </c>
       <c r="AF28" s="47">
-        <f t="shared" si="46"/>
-        <v>7067188578.2441282</v>
+        <f t="shared" si="45"/>
+        <v>7109030524.0113592</v>
       </c>
       <c r="AG28" s="47">
-        <f t="shared" si="46"/>
-        <v>7655305461.7349405</v>
+        <f t="shared" si="45"/>
+        <v>7622148063.01472</v>
       </c>
       <c r="AH28" s="47">
-        <f t="shared" si="46"/>
-        <v>8243422345.2257528</v>
+        <f t="shared" si="45"/>
+        <v>8155179569.9988365</v>
       </c>
       <c r="AI28" s="47">
-        <f t="shared" si="46"/>
-        <v>8831539228.7165642</v>
+        <f t="shared" si="45"/>
+        <v>8708125045.0091839</v>
       </c>
       <c r="AJ28" s="47">
-        <f t="shared" si="46"/>
-        <v>9419656112.2073765</v>
+        <f t="shared" si="45"/>
+        <v>9280984488.0093803</v>
       </c>
       <c r="AK28" s="47">
-        <f t="shared" si="46"/>
-        <v>10007772995.698332</v>
+        <f t="shared" si="45"/>
+        <v>9873757898.9994297</v>
       </c>
       <c r="AL28" s="47">
-        <f t="shared" si="46"/>
-        <v>10595889879.189144</v>
+        <f t="shared" si="45"/>
+        <v>10486445278.006613</v>
       </c>
       <c r="AM28" s="47">
-        <f t="shared" si="46"/>
-        <v>11184006762.679956</v>
+        <f t="shared" si="45"/>
+        <v>11119046625.012743</v>
       </c>
       <c r="AN28" s="47">
-        <f t="shared" si="46"/>
-        <v>11772123646.170912</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+        <f t="shared" si="45"/>
+        <v>11771561939.999628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="47">
         <f>C28-B28</f>
-        <v>37870272.835967064</v>
+        <v>-84301501.00139153</v>
       </c>
       <c r="D29" s="47">
-        <f t="shared" ref="D29:AN29" si="47">D28-C28</f>
-        <v>37870272.835966945</v>
+        <f t="shared" ref="D29:AN29" si="46">D28-C28</f>
+        <v>-64387533.002445698</v>
       </c>
       <c r="E29" s="47">
-        <f t="shared" si="47"/>
-        <v>37870272.835967064</v>
+        <f t="shared" si="46"/>
+        <v>-44473564.994405031</v>
       </c>
       <c r="F29" s="47">
-        <f t="shared" si="47"/>
-        <v>37870272.835966945</v>
+        <f t="shared" si="46"/>
+        <v>-24559597.004554152</v>
       </c>
       <c r="G29" s="47">
-        <f t="shared" si="47"/>
-        <v>37870272.835967064</v>
+        <f t="shared" si="46"/>
+        <v>-4645628.9919661283</v>
       </c>
       <c r="H29" s="47">
-        <f t="shared" si="47"/>
-        <v>65757121.532232761</v>
+        <f t="shared" si="46"/>
+        <v>15268338.993337274</v>
       </c>
       <c r="I29" s="47">
-        <f t="shared" si="47"/>
-        <v>65757121.532214999</v>
+        <f t="shared" si="46"/>
+        <v>35182306.996830463</v>
       </c>
       <c r="J29" s="47">
-        <f t="shared" si="47"/>
-        <v>65757121.532232881</v>
+        <f t="shared" si="46"/>
+        <v>55096275.009418607</v>
       </c>
       <c r="K29" s="47">
-        <f t="shared" si="47"/>
-        <v>65757121.532232761</v>
+        <f t="shared" si="46"/>
+        <v>75010242.994721889</v>
       </c>
       <c r="L29" s="47">
-        <f t="shared" si="47"/>
-        <v>65757121.532232761</v>
+        <f t="shared" si="46"/>
+        <v>94924210.998215079</v>
       </c>
       <c r="M29" s="47">
-        <f t="shared" si="47"/>
-        <v>114732064.1750226</v>
+        <f t="shared" si="46"/>
+        <v>114838179.00170839</v>
       </c>
       <c r="N29" s="47">
-        <f t="shared" si="47"/>
-        <v>114732064.17502284</v>
+        <f t="shared" si="46"/>
+        <v>134752147.00065398</v>
       </c>
       <c r="O29" s="47">
-        <f t="shared" si="47"/>
-        <v>114732064.1750226</v>
+        <f t="shared" si="46"/>
+        <v>154666115.00414729</v>
       </c>
       <c r="P29" s="47">
-        <f t="shared" si="47"/>
-        <v>114732064.17505813</v>
+        <f t="shared" si="46"/>
+        <v>174580082.99854565</v>
       </c>
       <c r="Q29" s="47">
-        <f t="shared" si="47"/>
-        <v>114732064.17502284</v>
+        <f t="shared" si="46"/>
+        <v>194494050.99294376</v>
       </c>
       <c r="R29" s="47">
-        <f t="shared" si="47"/>
-        <v>206125297.05250168</v>
+        <f t="shared" si="46"/>
+        <v>214408019.00553203</v>
       </c>
       <c r="S29" s="47">
-        <f t="shared" si="47"/>
-        <v>206125297.0525372</v>
+        <f t="shared" si="46"/>
+        <v>234321986.99993038</v>
       </c>
       <c r="T29" s="47">
-        <f t="shared" si="47"/>
-        <v>206125297.05253744</v>
+        <f t="shared" si="46"/>
+        <v>254235954.99887562</v>
       </c>
       <c r="U29" s="47">
-        <f t="shared" si="47"/>
-        <v>206125297.05246639</v>
+        <f t="shared" si="46"/>
+        <v>274149922.99782181</v>
       </c>
       <c r="V29" s="47">
-        <f t="shared" si="47"/>
-        <v>206125297.05253744</v>
+        <f t="shared" si="46"/>
+        <v>294063890.99676752</v>
       </c>
       <c r="W29" s="47">
-        <f t="shared" si="47"/>
-        <v>366401451.91306305</v>
+        <f t="shared" si="46"/>
+        <v>313977859.00480795</v>
       </c>
       <c r="X29" s="47">
-        <f t="shared" si="47"/>
-        <v>366401451.9131341</v>
+        <f t="shared" si="46"/>
+        <v>333891827.00375414</v>
       </c>
       <c r="Y29" s="47">
-        <f t="shared" si="47"/>
-        <v>366401451.91313457</v>
+        <f t="shared" si="46"/>
+        <v>353805794.99360466</v>
       </c>
       <c r="Z29" s="47">
-        <f t="shared" si="47"/>
-        <v>366401451.912992</v>
+        <f t="shared" si="46"/>
+        <v>373719763.01074028</v>
       </c>
       <c r="AA29" s="47">
-        <f t="shared" si="47"/>
-        <v>366401451.91313457</v>
+        <f t="shared" si="46"/>
+        <v>393633730.99149609</v>
       </c>
       <c r="AB29" s="47">
-        <f t="shared" si="47"/>
-        <v>472481276.97983456</v>
+        <f t="shared" si="46"/>
+        <v>413547698.99953651</v>
       </c>
       <c r="AC29" s="47">
-        <f t="shared" si="47"/>
-        <v>472481276.97983456</v>
+        <f t="shared" si="46"/>
+        <v>433461667.0075779</v>
       </c>
       <c r="AD29" s="47">
-        <f t="shared" si="47"/>
-        <v>472481276.97997665</v>
+        <f t="shared" si="46"/>
+        <v>453375635.00652313</v>
       </c>
       <c r="AE29" s="47">
-        <f t="shared" si="47"/>
-        <v>472481276.97983456</v>
+        <f t="shared" si="46"/>
+        <v>473289602.98727894</v>
       </c>
       <c r="AF29" s="47">
-        <f t="shared" si="47"/>
-        <v>472481276.97983551</v>
+        <f t="shared" si="46"/>
+        <v>493203571.00441456</v>
       </c>
       <c r="AG29" s="47">
-        <f t="shared" si="47"/>
-        <v>588116883.4908123</v>
+        <f t="shared" si="46"/>
+        <v>513117539.00336075</v>
       </c>
       <c r="AH29" s="47">
-        <f t="shared" si="47"/>
-        <v>588116883.4908123</v>
+        <f t="shared" si="46"/>
+        <v>533031506.98411655</v>
       </c>
       <c r="AI29" s="47">
-        <f t="shared" si="47"/>
-        <v>588116883.49081135</v>
+        <f t="shared" si="46"/>
+        <v>552945475.01034737</v>
       </c>
       <c r="AJ29" s="47">
-        <f t="shared" si="47"/>
-        <v>588116883.4908123</v>
+        <f t="shared" si="46"/>
+        <v>572859443.00019646</v>
       </c>
       <c r="AK29" s="47">
-        <f t="shared" si="47"/>
-        <v>588116883.49095535</v>
+        <f t="shared" si="46"/>
+        <v>592773410.99004936</v>
       </c>
       <c r="AL29" s="47">
-        <f t="shared" si="47"/>
-        <v>588116883.4908123</v>
+        <f t="shared" si="46"/>
+        <v>612687379.00718307</v>
       </c>
       <c r="AM29" s="47">
-        <f t="shared" si="47"/>
-        <v>588116883.4908123</v>
+        <f t="shared" si="46"/>
+        <v>632601347.00613022</v>
       </c>
       <c r="AN29" s="47">
-        <f t="shared" si="47"/>
-        <v>588116883.49095535</v>
+        <f t="shared" si="46"/>
+        <v>652515314.98688507</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="7" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
+    <col min="2" max="7" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>98</v>
       </c>
@@ -6021,24 +6957,24 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="64"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="53"/>
       <c r="B3" s="53" t="s">
         <v>81</v>
@@ -6059,7 +6995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="57" t="s">
         <v>83</v>
       </c>
@@ -6086,7 +7022,7 @@
         <v>0.2497793056616999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="57" t="s">
         <v>84</v>
       </c>
@@ -6107,7 +7043,7 @@
         <v>0.18228697595634452</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="57" t="s">
         <v>85</v>
       </c>
@@ -6128,7 +7064,7 @@
         <v>0.41937541620336222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="57" t="s">
         <v>86</v>
       </c>
@@ -6149,7 +7085,7 @@
         <v>1.2114007895833022E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="57" t="s">
         <v>87</v>
       </c>
@@ -6170,7 +7106,7 @@
         <v>1.7305725565475744E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="57"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -6179,7 +7115,7 @@
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="57" t="s">
         <v>88</v>
       </c>
@@ -6200,7 +7136,7 @@
         <v>9.3450918053569018E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="57" t="s">
         <v>89</v>
       </c>
@@ -6221,7 +7157,7 @@
         <v>1.2690865414682215E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="57" t="s">
         <v>90</v>
       </c>
@@ -6242,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="57" t="s">
         <v>91</v>
       </c>
@@ -6263,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="57" t="s">
         <v>92</v>
       </c>
@@ -6284,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="57"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -6293,7 +7229,7 @@
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="57" t="s">
         <v>93</v>
       </c>
@@ -6312,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="57" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +7269,7 @@
         <v>1.0048857978352916</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="57" t="s">
         <v>95</v>
       </c>
@@ -6354,7 +7290,7 @@
         <v>5.8262609403768338E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="57" t="s">
         <v>96</v>
       </c>
@@ -6375,7 +7311,7 @@
         <v>3.4611451130951488E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -6384,7 +7320,7 @@
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -6404,18 +7340,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -6423,7 +7359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -6431,7 +7367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -6439,7 +7375,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -6447,7 +7383,7 @@
         <v>51.81818181818182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -6455,7 +7391,7 @@
         <v>9.1324200913242013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -6463,7 +7399,7 @@
         <v>13.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -6477,34 +7413,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.265625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="5" max="5" width="19.73046875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="25.73046875" customWidth="1"/>
+    <col min="9" max="9" width="27.265625" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -6515,7 +7451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6526,7 +7462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -6537,7 +7473,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -6548,7 +7484,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -6559,7 +7495,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -6570,7 +7506,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -6581,7 +7517,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -6592,7 +7528,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -6603,7 +7539,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -6614,7 +7550,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -6625,14 +7561,14 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -6640,7 +7576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -6648,7 +7584,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -6656,7 +7592,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -6664,20 +7600,20 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="53"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="53"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="53"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="53"/>
     </row>
   </sheetData>
@@ -6686,19 +7622,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>105.9</v>
       </c>
@@ -6706,18 +7642,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -6726,7 +7662,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -6735,7 +7671,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -6744,7 +7680,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -6753,7 +7689,7 @@
         <v>52.95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -6762,7 +7698,7 @@
         <v>7.2766750648905578</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -6771,12 +7707,12 @@
         <v>14.553350129781116</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6787,12 +7723,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="16">
         <f>(2*C11+2*C12)*A15</f>
         <v>130.98015116803003</v>
@@ -6801,27 +7737,27 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="17">
         <v>4</v>
       </c>
@@ -6829,7 +7765,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="61">
         <f>A18-A25</f>
         <v>126.98015116803003</v>
@@ -6838,7 +7774,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="61">
         <f>A2</f>
         <v>105.9</v>
@@ -6847,25 +7783,25 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -6873,7 +7809,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="57">
         <v>3</v>
       </c>
@@ -6881,7 +7817,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>4</v>
       </c>
@@ -6889,7 +7825,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6897,7 +7833,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2</v>
       </c>
@@ -6905,7 +7841,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -6913,7 +7849,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="17">
         <f>SUM(A34:A39)</f>
         <v>17</v>
@@ -6922,12 +7858,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="17">
         <f>A40/2</f>
         <v>8.5</v>
@@ -6942,24 +7878,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="3" max="4" width="14.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>157</v>
       </c>
@@ -6970,7 +7906,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="60"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
@@ -6993,7 +7929,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -7021,7 +7957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -7049,7 +7985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -7077,7 +8013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -7105,7 +8041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -7133,7 +8069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -7161,7 +8097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -7189,7 +8125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -7217,16 +8153,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G12" s="49"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
@@ -7239,7 +8175,7 @@
       <c r="F13" s="53"/>
       <c r="G13" s="49"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="53" t="s">
         <v>83</v>
       </c>
@@ -7267,7 +8203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="53" t="s">
         <v>84</v>
       </c>
@@ -7295,7 +8231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="53" t="s">
         <v>86</v>
       </c>
@@ -7323,7 +8259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="53" t="s">
         <v>99</v>
       </c>
@@ -7351,7 +8287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="53" t="s">
         <v>89</v>
       </c>
@@ -7379,7 +8315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="53" t="s">
         <v>90</v>
       </c>
@@ -7407,7 +8343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="53" t="s">
         <v>91</v>
       </c>
@@ -7435,7 +8371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="53" t="s">
         <v>92</v>
       </c>
@@ -7463,7 +8399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="53" t="s">
         <v>93</v>
       </c>
@@ -7491,7 +8427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="53" t="s">
         <v>95</v>
       </c>
@@ -7519,7 +8455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>156</v>
       </c>
@@ -7530,32 +8466,32 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
         <v>27</v>
       </c>
@@ -7575,7 +8511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="57" t="s">
         <v>22</v>
       </c>
@@ -7599,7 +8535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="57" t="s">
         <v>19</v>
       </c>
@@ -7623,7 +8559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="57" t="s">
         <v>28</v>
       </c>
@@ -7647,7 +8583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="57" t="s">
         <v>29</v>
       </c>
@@ -7671,7 +8607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="57" t="s">
         <v>30</v>
       </c>
@@ -7695,7 +8631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="57" t="s">
         <v>5</v>
       </c>
@@ -7719,7 +8655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="57" t="s">
         <v>21</v>
       </c>
@@ -7743,7 +8679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="57" t="s">
         <v>20</v>
       </c>
@@ -7767,13 +8703,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="57"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
         <v>27</v>
       </c>
@@ -7781,7 +8717,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="57" t="s">
         <v>83</v>
       </c>
@@ -7805,7 +8741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="57" t="s">
         <v>84</v>
       </c>
@@ -7829,7 +8765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="57" t="s">
         <v>86</v>
       </c>
@@ -7853,7 +8789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="57" t="s">
         <v>99</v>
       </c>
@@ -7877,7 +8813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="57" t="s">
         <v>89</v>
       </c>
@@ -7901,7 +8837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="57" t="s">
         <v>90</v>
       </c>
@@ -7925,7 +8861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="57" t="s">
         <v>91</v>
       </c>
@@ -7949,7 +8885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="57" t="s">
         <v>92</v>
       </c>
@@ -7973,7 +8909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="57" t="s">
         <v>93</v>
       </c>
@@ -7997,7 +8933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="57" t="s">
         <v>95</v>
       </c>
@@ -8030,21 +8966,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -8052,7 +8988,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="57">
         <v>2012</v>
       </c>
@@ -8060,7 +8996,7 @@
         <v>54.77</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="51" t="s">
         <v>8</v>
       </c>
@@ -8099,7 +9035,7 @@
       <c r="AH3" s="52"/>
       <c r="AI3" s="52"/>
     </row>
-    <row r="4" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -8138,7 +9074,7 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
     </row>
-    <row r="5" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="50">
         <v>2017</v>
       </c>
@@ -8242,7 +9178,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="53" t="s">
         <v>11</v>
       </c>
@@ -8383,7 +9319,7 @@
         <v>18045066.020885926</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="53" t="s">
         <v>12</v>
       </c>
@@ -8524,7 +9460,7 @@
         <v>20561330.420585737</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
@@ -8665,7 +9601,7 @@
         <v>10076895.421836529</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="53" t="s">
         <v>14</v>
       </c>
@@ -8806,7 +9742,7 @@
         <v>31639184.440264147</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="53" t="s">
         <v>15</v>
       </c>
@@ -8947,7 +9883,7 @@
         <v>23127176.384811651</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="53" t="s">
         <v>16</v>
       </c>
@@ -9088,8 +10024,8 @@
         <v>20986154.280275311</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>164</v>
       </c>
@@ -9128,7 +10064,7 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
     </row>
-    <row r="14" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="50">
         <v>2017</v>
       </c>
@@ -9232,7 +10168,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="53" t="s">
         <v>11</v>
       </c>
@@ -9373,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="53" t="s">
         <v>12</v>
       </c>
@@ -9514,7 +10450,7 @@
         <v>248476791664.29727</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="53" t="s">
         <v>13</v>
       </c>
@@ -9655,7 +10591,7 @@
         <v>1119291539806.5999</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="53" t="s">
         <v>14</v>
       </c>
@@ -9796,7 +10732,7 @@
         <v>192287143435.70535</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="53" t="s">
         <v>15</v>
       </c>
@@ -9937,7 +10873,7 @@
         <v>1008333846061.5533</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="53" t="s">
         <v>16</v>
       </c>
@@ -10078,7 +11014,7 @@
         <v>27865548085.545998</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -10114,7 +11050,7 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>165</v>
       </c>
@@ -10153,7 +11089,7 @@
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
     </row>
-    <row r="23" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B23" s="50">
         <v>2017</v>
       </c>
@@ -10257,148 +11193,148 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="64">
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="64">
         <f t="shared" ref="C24:AI24" si="0">C15</f>
         <v>0</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="65">
+      <c r="J24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="65">
+      <c r="K24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="65">
+      <c r="L24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="65">
+      <c r="M24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="65">
+      <c r="N24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="65">
+      <c r="O24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="65">
+      <c r="P24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="65">
+      <c r="Q24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="65">
+      <c r="R24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S24" s="65">
+      <c r="S24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T24" s="65">
+      <c r="T24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U24" s="65">
+      <c r="U24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V24" s="65">
+      <c r="V24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W24" s="65">
+      <c r="W24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X24" s="65">
+      <c r="X24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="65">
+      <c r="Y24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="65">
+      <c r="Z24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="65">
+      <c r="AA24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="65">
+      <c r="AB24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="65">
+      <c r="AC24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="65">
+      <c r="AD24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="65">
+      <c r="AE24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="65">
+      <c r="AF24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="65">
+      <c r="AG24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH24" s="65">
+      <c r="AH24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI24" s="65">
+      <c r="AI24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="57" t="s">
         <v>12</v>
       </c>
@@ -10539,7 +11475,7 @@
         <v>4536731635.2802124</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="57" t="s">
         <v>13</v>
       </c>
@@ -10680,7 +11616,7 @@
         <v>20436215808.044544</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="57" t="s">
         <v>14</v>
       </c>
@@ -10821,7 +11757,7 @@
         <v>3510811455.8281054</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="57" t="s">
         <v>15</v>
       </c>
@@ -10962,7 +11898,7 @@
         <v>18410331313.886311</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="57" t="s">
         <v>16</v>
       </c>
@@ -11103,8 +12039,8 @@
         <v>508773928.8943947</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="51" t="s">
         <v>9</v>
       </c>
@@ -11143,7 +12079,7 @@
       <c r="AH31" s="52"/>
       <c r="AI31" s="52"/>
     </row>
-    <row r="32" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
@@ -11182,7 +12118,7 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B33" s="50">
         <v>2017</v>
       </c>
@@ -11286,7 +12222,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
@@ -11427,7 +12363,7 @@
         <v>11897817.422918709</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>12</v>
       </c>
@@ -11568,7 +12504,7 @@
         <v>14211793.378763018</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>13</v>
       </c>
@@ -11709,7 +12645,7 @@
         <v>4570226.8960784031</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>14</v>
       </c>
@@ -11850,7 +12786,7 @@
         <v>24399072.524367582</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
@@ -11991,7 +12927,7 @@
         <v>16571364.91994416</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>16</v>
       </c>
@@ -12132,7 +13068,7 @@
         <v>14602464.644035432</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>164</v>
       </c>
@@ -12171,7 +13107,7 @@
       <c r="AH41" s="13"/>
       <c r="AI41" s="13"/>
     </row>
-    <row r="42" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B42" s="50">
         <v>2017</v>
       </c>
@@ -12275,7 +13211,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="43" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
@@ -12416,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>12</v>
       </c>
@@ -12557,7 +13493,7 @@
         <v>34159356051.289742</v>
       </c>
     </row>
-    <row r="45" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>13</v>
       </c>
@@ -12698,7 +13634,7 @@
         <v>507638125199.95782</v>
       </c>
     </row>
-    <row r="46" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
@@ -12839,7 +13775,7 @@
         <v>74142681633.421997</v>
       </c>
     </row>
-    <row r="47" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
@@ -12980,7 +13916,7 @@
         <v>128400738578.7444</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
@@ -13121,7 +14057,7 @@
         <v>3480586298.7147856</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -13157,7 +14093,7 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>165</v>
       </c>
@@ -13196,7 +14132,7 @@
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
     </row>
-    <row r="51" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B51" s="50">
         <v>2017</v>
       </c>
@@ -13300,7 +14236,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="57" t="s">
         <v>11</v>
       </c>
@@ -13441,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="57" t="s">
         <v>12</v>
       </c>
@@ -13582,7 +14518,7 @@
         <v>623687348.02427864</v>
       </c>
     </row>
-    <row r="54" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="57" t="s">
         <v>13</v>
       </c>
@@ -13723,7 +14659,7 @@
         <v>9268543458.0967274</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="57" t="s">
         <v>14</v>
       </c>
@@ -13864,7 +14800,7 @@
         <v>1353709724.9118495</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="57" t="s">
         <v>15</v>
       </c>
@@ -14005,7 +14941,7 @@
         <v>2344362581.3172245</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A57" s="57" t="s">
         <v>16</v>
       </c>
@@ -14146,7 +15082,7 @@
         <v>63549138.190885253</v>
       </c>
     </row>
-    <row r="59" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="51" t="s">
         <v>10</v>
       </c>
@@ -14185,7 +15121,7 @@
       <c r="AH59" s="52"/>
       <c r="AI59" s="52"/>
     </row>
-    <row r="60" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>73</v>
       </c>
@@ -14224,7 +15160,7 @@
       <c r="AH60" s="13"/>
       <c r="AI60" s="13"/>
     </row>
-    <row r="61" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B61" s="50">
         <v>2017</v>
       </c>
@@ -14328,854 +15264,854 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="6">
         <f>'Building Projections'!G$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!F$28</f>
-        <v>85335127.948836088</v>
+        <v>35237385.63983079</v>
       </c>
       <c r="C62" s="6">
         <f>'Building Projections'!H$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!G$28</f>
-        <v>115215148.89962637</v>
+        <v>54906846.836083338</v>
       </c>
       <c r="D62" s="6">
         <f>'Building Projections'!I$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!H$28</f>
-        <v>118676050.03288403</v>
+        <v>75624411.628699541</v>
       </c>
       <c r="E62" s="6">
         <f>'Building Projections'!J$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!I$28</f>
-        <v>122136951.16617638</v>
+        <v>97390080.009541929</v>
       </c>
       <c r="F62" s="6">
         <f>'Building Projections'!K$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!J$28</f>
-        <v>125597852.29945168</v>
+        <v>120203851.94270934</v>
       </c>
       <c r="G62" s="6">
         <f>'Building Projections'!L$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!K$28</f>
-        <v>129058753.43272708</v>
+        <v>144065727.47224054</v>
       </c>
       <c r="H62" s="6">
         <f>'Building Projections'!M$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!L$28</f>
-        <v>181494597.20879233</v>
+        <v>168975706.58090305</v>
       </c>
       <c r="I62" s="6">
         <f>'Building Projections'!N$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!M$28</f>
-        <v>187533126.90221483</v>
+        <v>194933789.26414907</v>
       </c>
       <c r="J62" s="6">
         <f>'Building Projections'!O$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!N$28</f>
-        <v>193571656.59563684</v>
+        <v>221939975.5308347</v>
       </c>
       <c r="K62" s="6">
         <f>'Building Projections'!P$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!O$28</f>
-        <v>199610186.2890946</v>
+        <v>249994265.3675566</v>
       </c>
       <c r="L62" s="6">
         <f>'Building Projections'!Q$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!P$28</f>
-        <v>205648715.98248342</v>
+        <v>279096658.78293079</v>
       </c>
       <c r="M62" s="6">
         <f>'Building Projections'!R$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!Q$28</f>
-        <v>303080478.55338454</v>
+        <v>309247155.79514766</v>
       </c>
       <c r="N62" s="6">
         <f>'Building Projections'!S$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!R$28</f>
-        <v>313929178.39828855</v>
+        <v>340445756.36878455</v>
       </c>
       <c r="O62" s="6">
         <f>'Building Projections'!T$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!S$28</f>
-        <v>324777878.24315917</v>
+        <v>372692460.52562088</v>
       </c>
       <c r="P62" s="6">
         <f>'Building Projections'!U$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!T$28</f>
-        <v>335626578.08795851</v>
+        <v>405987268.26134998</v>
       </c>
       <c r="Q62" s="6">
         <f>'Building Projections'!V$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!U$28</f>
-        <v>346475277.9328962</v>
+        <v>440330179.57597053</v>
       </c>
       <c r="R62" s="6">
         <f>'Building Projections'!W$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!V$28</f>
-        <v>517600132.63829219</v>
+        <v>475721194.47857767</v>
       </c>
       <c r="S62" s="6">
         <f>'Building Projections'!X$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!W$28</f>
-        <v>536884419.58115602</v>
+        <v>512160312.95146114</v>
       </c>
       <c r="T62" s="6">
         <f>'Building Projections'!Y$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!X$28</f>
-        <v>556168706.52395308</v>
+        <v>549647534.99414086</v>
       </c>
       <c r="U62" s="6">
         <f>'Building Projections'!Z$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!Y$28</f>
-        <v>575452993.46660709</v>
+        <v>588182860.64251876</v>
       </c>
       <c r="V62" s="6">
         <f>'Building Projections'!AA$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!Z$28</f>
-        <v>594737280.40953863</v>
+        <v>627766289.8343662</v>
       </c>
       <c r="W62" s="6">
         <f>'Building Projections'!AB$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AA$28</f>
-        <v>720101392.4190352</v>
+        <v>668397822.63143277</v>
       </c>
       <c r="X62" s="6">
         <f>'Building Projections'!AC$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AB$28</f>
-        <v>744968828.0495528</v>
+        <v>710077459.00787067</v>
       </c>
       <c r="Y62" s="6">
         <f>'Building Projections'!AD$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AC$28</f>
-        <v>769836263.6802125</v>
+        <v>752805198.95458317</v>
       </c>
       <c r="Z62" s="6">
         <f>'Building Projections'!AE$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AD$28</f>
-        <v>794703699.31059551</v>
+        <v>796581042.46199822</v>
       </c>
       <c r="AA62" s="6">
         <f>'Building Projections'!AF$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AE$28</f>
-        <v>819571134.94111407</v>
+        <v>841404989.58372736</v>
       </c>
       <c r="AB62" s="6">
         <f>'Building Projections'!AG$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AF$28</f>
-        <v>960074177.08260846</v>
+        <v>887277040.26711655</v>
       </c>
       <c r="AC62" s="6">
         <f>'Building Projections'!AH$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AG$28</f>
-        <v>991027697.26633549</v>
+        <v>934197194.5112071</v>
       </c>
       <c r="AD62" s="6">
         <f>'Building Projections'!AI$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AH$28</f>
-        <v>1021981217.4500616</v>
+        <v>982165452.37870717</v>
       </c>
       <c r="AE62" s="6">
         <f>'Building Projections'!AJ$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AI$28</f>
-        <v>1052934737.6337893</v>
+        <v>1031181813.7901535</v>
       </c>
       <c r="AF62" s="6">
         <f>'Building Projections'!AK$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AJ$28</f>
-        <v>1083888257.8176594</v>
+        <v>1081246278.7800167</v>
       </c>
       <c r="AG62" s="6">
         <f>'Building Projections'!AL$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AK$28</f>
-        <v>1114841778.0012507</v>
+        <v>1132358847.3755741</v>
       </c>
       <c r="AH62" s="6">
         <f>'Building Projections'!AM$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AL$28</f>
-        <v>1145795298.1849778</v>
+        <v>1184519519.532794</v>
       </c>
       <c r="AI62" s="6">
         <f>'Building Projections'!AN$29+(1/'Component Lifetimes'!$B2)*'Building Projections'!AM$28</f>
-        <v>1176748818.3688478</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1237728295.2507136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="6">
         <f>'Building Projections'!G$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!F$28</f>
-        <v>94828098.971409917</v>
+        <v>43213988.566190176</v>
       </c>
       <c r="C63" s="6">
         <f>'Building Projections'!H$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!G$28</f>
-        <v>125106754.37310511</v>
+        <v>62834548.404632561</v>
       </c>
       <c r="D63" s="6">
         <f>'Building Projections'!I$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!H$28</f>
-        <v>129259835.73301783</v>
+        <v>83712832.555073366</v>
       </c>
       <c r="E63" s="6">
         <f>'Building Projections'!J$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!I$28</f>
-        <v>133412917.09296508</v>
+        <v>105848841.00956659</v>
       </c>
       <c r="F63" s="6">
         <f>'Building Projections'!K$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!J$28</f>
-        <v>137565998.45289546</v>
+        <v>129242573.73230684</v>
       </c>
       <c r="G63" s="6">
         <f>'Building Projections'!L$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!K$28</f>
-        <v>141719079.81282595</v>
+        <v>153894030.76704562</v>
       </c>
       <c r="H63" s="6">
         <f>'Building Projections'!M$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!L$28</f>
-        <v>194847103.81554627</v>
+        <v>179803212.09674197</v>
       </c>
       <c r="I63" s="6">
         <f>'Building Projections'!N$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!M$28</f>
-        <v>202093339.44765323</v>
+        <v>206970117.71684811</v>
       </c>
       <c r="J63" s="6">
         <f>'Building Projections'!O$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!N$28</f>
-        <v>209339575.07975969</v>
+        <v>235394747.63617221</v>
       </c>
       <c r="K63" s="6">
         <f>'Building Projections'!P$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!O$28</f>
-        <v>216585810.7119019</v>
+        <v>265077101.84135881</v>
       </c>
       <c r="L63" s="6">
         <f>'Building Projections'!Q$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!P$28</f>
-        <v>223832046.34397554</v>
+        <v>296017180.3409282</v>
       </c>
       <c r="M63" s="6">
         <f>'Building Projections'!R$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!Q$28</f>
-        <v>322471514.8535611</v>
+        <v>328214983.15307081</v>
       </c>
       <c r="N63" s="6">
         <f>'Building Projections'!S$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!R$28</f>
-        <v>335489954.66743881</v>
+        <v>361670510.24255544</v>
       </c>
       <c r="O63" s="6">
         <f>'Building Projections'!T$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!S$28</f>
-        <v>348508394.48128355</v>
+        <v>396383761.63096994</v>
       </c>
       <c r="P63" s="6">
         <f>'Building Projections'!U$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!T$28</f>
-        <v>361526834.29505694</v>
+        <v>432354737.31405568</v>
       </c>
       <c r="Q63" s="6">
         <f>'Building Projections'!V$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!U$28</f>
-        <v>374545274.10896796</v>
+        <v>469583437.29181117</v>
       </c>
       <c r="R63" s="6">
         <f>'Building Projections'!W$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!V$28</f>
-        <v>547839868.78333807</v>
+        <v>508069861.57333165</v>
       </c>
       <c r="S63" s="6">
         <f>'Building Projections'!X$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!W$28</f>
-        <v>570981013.1147604</v>
+        <v>547814010.14100254</v>
       </c>
       <c r="T63" s="6">
         <f>'Building Projections'!Y$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!X$28</f>
-        <v>594122157.44611681</v>
+        <v>588815882.99424803</v>
       </c>
       <c r="U63" s="6">
         <f>'Building Projections'!Z$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!Y$28</f>
-        <v>617263301.77733004</v>
+        <v>631075480.1688745</v>
       </c>
       <c r="V63" s="6">
         <f>'Building Projections'!AA$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!Z$28</f>
-        <v>640404446.10881948</v>
+        <v>674592801.6029402</v>
       </c>
       <c r="W63" s="6">
         <f>'Building Projections'!AB$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AA$28</f>
-        <v>769625415.50687528</v>
+        <v>719367847.35781193</v>
       </c>
       <c r="X63" s="6">
         <f>'Building Projections'!AC$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AB$28</f>
-        <v>799466338.2634964</v>
+        <v>765400617.40792942</v>
       </c>
       <c r="Y63" s="6">
         <f>'Building Projections'!AD$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AC$28</f>
-        <v>829307261.02025962</v>
+        <v>812691111.74419522</v>
       </c>
       <c r="Z63" s="6">
         <f>'Building Projections'!AE$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AD$28</f>
-        <v>859148183.7767477</v>
+        <v>861239330.35694206</v>
       </c>
       <c r="AA63" s="6">
         <f>'Building Projections'!AF$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AE$28</f>
-        <v>888989106.53336978</v>
+        <v>911045273.29959011</v>
       </c>
       <c r="AB63" s="6">
         <f>'Building Projections'!AG$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AF$28</f>
-        <v>1034465635.8009678</v>
+        <v>962108940.51986766</v>
       </c>
       <c r="AC63" s="6">
         <f>'Building Projections'!AH$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AG$28</f>
-        <v>1071609860.0214401</v>
+        <v>1014430332.0166252</v>
       </c>
       <c r="AD63" s="6">
         <f>'Building Projections'!AI$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AH$28</f>
-        <v>1108754084.2419114</v>
+        <v>1068009447.8523791</v>
       </c>
       <c r="AE63" s="6">
         <f>'Building Projections'!AJ$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AI$28</f>
-        <v>1145898308.4623847</v>
+        <v>1122846287.9481449</v>
       </c>
       <c r="AF63" s="6">
         <f>'Building Projections'!AK$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AJ$28</f>
-        <v>1183042532.6830001</v>
+        <v>1178940852.3380103</v>
       </c>
       <c r="AG63" s="6">
         <f>'Building Projections'!AL$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AK$28</f>
-        <v>1220186756.9033384</v>
+        <v>1236293141.0492525</v>
       </c>
       <c r="AH63" s="6">
         <f>'Building Projections'!AM$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AL$28</f>
-        <v>1257330981.1238108</v>
+        <v>1294903154.0381269</v>
       </c>
       <c r="AI63" s="6">
         <f>'Building Projections'!AN$29+(1/'Component Lifetimes'!$B3)*'Building Projections'!AM$28</f>
-        <v>1294475205.3444262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1354770891.3034794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="6">
         <f>'Building Projections'!G$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!F$28</f>
-        <v>55274053.044019043</v>
+        <v>9978143.0396927428</v>
       </c>
       <c r="C64" s="6">
         <f>'Building Projections'!H$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!G$28</f>
-        <v>83891731.566943765</v>
+        <v>29802458.5356775</v>
       </c>
       <c r="D64" s="6">
         <f>'Building Projections'!I$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!H$28</f>
-        <v>85160728.649126977</v>
+        <v>50011078.695182458</v>
       </c>
       <c r="E64" s="6">
         <f>'Building Projections'!J$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!I$28</f>
-        <v>86429725.731345505</v>
+        <v>70604003.509463817</v>
       </c>
       <c r="F64" s="6">
         <f>'Building Projections'!K$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!J$28</f>
-        <v>87698722.81354636</v>
+        <v>91581232.942317292</v>
       </c>
       <c r="G64" s="6">
         <f>'Building Projections'!L$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!K$28</f>
-        <v>88967719.895747349</v>
+        <v>112942767.03869107</v>
       </c>
       <c r="H64" s="6">
         <f>'Building Projections'!M$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!L$28</f>
-        <v>139211659.62073818</v>
+        <v>134688605.78074643</v>
       </c>
       <c r="I64" s="6">
         <f>'Building Projections'!N$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!M$28</f>
-        <v>141425787.17499322</v>
+        <v>156818749.16393551</v>
       </c>
       <c r="J64" s="6">
         <f>'Building Projections'!O$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!N$28</f>
-        <v>143639914.72924781</v>
+        <v>179333197.19726601</v>
       </c>
       <c r="K64" s="6">
         <f>'Building Projections'!P$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!O$28</f>
-        <v>145854042.28353816</v>
+        <v>202231949.867183</v>
       </c>
       <c r="L64" s="6">
         <f>'Building Projections'!Q$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!P$28</f>
-        <v>148068169.83775839</v>
+        <v>225515007.18260568</v>
       </c>
       <c r="M64" s="6">
         <f>'Building Projections'!R$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!Q$28</f>
-        <v>241675530.26949206</v>
+        <v>249182369.16172445</v>
       </c>
       <c r="N64" s="6">
         <f>'Building Projections'!S$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!R$28</f>
-        <v>245653386.87931269</v>
+        <v>273234035.76851022</v>
       </c>
       <c r="O64" s="6">
         <f>'Building Projections'!T$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!S$28</f>
-        <v>249631243.48909873</v>
+        <v>297670007.0253489</v>
       </c>
       <c r="P64" s="6">
         <f>'Building Projections'!U$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!T$28</f>
-        <v>253609100.0988135</v>
+        <v>322490282.92778218</v>
       </c>
       <c r="Q64" s="6">
         <f>'Building Projections'!V$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!U$28</f>
-        <v>257586956.70866901</v>
+        <v>347694863.47580862</v>
       </c>
       <c r="R64" s="6">
         <f>'Building Projections'!W$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!V$28</f>
-        <v>421840968.17898041</v>
+        <v>373283748.67852354</v>
       </c>
       <c r="S64" s="6">
         <f>'Building Projections'!X$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!W$28</f>
-        <v>428911873.3914088</v>
+        <v>399256938.5179134</v>
       </c>
       <c r="T64" s="6">
         <f>'Building Projections'!Y$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!X$28</f>
-        <v>435982778.60376799</v>
+        <v>425614432.99380124</v>
       </c>
       <c r="U64" s="6">
         <f>'Building Projections'!Z$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!Y$28</f>
-        <v>443053683.81598419</v>
+        <v>452356232.1423924</v>
       </c>
       <c r="V64" s="6">
         <f>'Building Projections'!AA$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!Z$28</f>
-        <v>450124589.02848274</v>
+        <v>479482335.90054846</v>
       </c>
       <c r="W64" s="6">
         <f>'Building Projections'!AB$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AA$28</f>
-        <v>563275319.30754149</v>
+        <v>506992744.33123183</v>
       </c>
       <c r="X64" s="6">
         <f>'Building Projections'!AC$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AB$28</f>
-        <v>572393379.03873122</v>
+        <v>534887457.40768528</v>
       </c>
       <c r="Y64" s="6">
         <f>'Building Projections'!AD$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AC$28</f>
-        <v>581511438.77006316</v>
+        <v>563166475.12081182</v>
       </c>
       <c r="Z64" s="6">
         <f>'Building Projections'!AE$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AD$28</f>
-        <v>590629498.50111353</v>
+        <v>591829797.46134269</v>
       </c>
       <c r="AA64" s="6">
         <f>'Building Projections'!AF$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AE$28</f>
-        <v>599747558.23230433</v>
+        <v>620877424.48349595</v>
       </c>
       <c r="AB64" s="6">
         <f>'Building Projections'!AG$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AF$28</f>
-        <v>724501224.47447085</v>
+        <v>650309356.13340449</v>
       </c>
       <c r="AC64" s="6">
         <f>'Building Projections'!AH$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AG$28</f>
-        <v>735850848.54183745</v>
+        <v>680125592.41071641</v>
       </c>
       <c r="AD64" s="6">
         <f>'Building Projections'!AI$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AH$28</f>
-        <v>747200472.6092031</v>
+        <v>710326133.37874603</v>
       </c>
       <c r="AE64" s="6">
         <f>'Building Projections'!AJ$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AI$28</f>
-        <v>758550096.67657053</v>
+        <v>740910978.95651412</v>
       </c>
       <c r="AF64" s="6">
         <f>'Building Projections'!AK$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AJ$28</f>
-        <v>769899720.74408019</v>
+        <v>771880129.17970407</v>
       </c>
       <c r="AG64" s="6">
         <f>'Building Projections'!AL$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AK$28</f>
-        <v>781249344.81130648</v>
+        <v>803233584.07559311</v>
       </c>
       <c r="AH64" s="6">
         <f>'Building Projections'!AM$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AL$28</f>
-        <v>792598968.87867296</v>
+        <v>834971343.5992403</v>
       </c>
       <c r="AI64" s="6">
         <f>'Building Projections'!AN$29+(1/'Component Lifetimes'!$B4)*'Building Projections'!AM$28</f>
-        <v>803948592.94618261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>867093407.75028896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="6">
         <f>'Building Projections'!G$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!F$28</f>
-        <v>136620903.89829111</v>
+        <v>78330982.949487358</v>
       </c>
       <c r="C65" s="6">
         <f>'Building Projections'!H$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!G$28</f>
-        <v>168654547.47009519</v>
+        <v>97736254.560170472</v>
       </c>
       <c r="D65" s="6">
         <f>'Building Projections'!I$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!H$28</f>
-        <v>175854952.27785692</v>
+        <v>119322105.6834341</v>
       </c>
       <c r="E65" s="6">
         <f>'Building Projections'!J$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!I$28</f>
-        <v>183055357.08565235</v>
+        <v>143088536.31217515</v>
       </c>
       <c r="F65" s="6">
         <f>'Building Projections'!K$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!J$28</f>
-        <v>190255761.89343172</v>
+        <v>169035546.41100979</v>
       </c>
       <c r="G65" s="6">
         <f>'Building Projections'!L$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!K$28</f>
-        <v>197456166.70121121</v>
+        <v>197163136.02242503</v>
       </c>
       <c r="H65" s="6">
         <f>'Building Projections'!M$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!L$28</f>
-        <v>253631514.15178055</v>
+        <v>227471305.13022289</v>
       </c>
       <c r="I65" s="6">
         <f>'Building Projections'!N$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!M$28</f>
-        <v>266194675.17894575</v>
+        <v>259960053.72985554</v>
       </c>
       <c r="J65" s="6">
         <f>'Building Projections'!O$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!N$28</f>
-        <v>278757836.20611048</v>
+        <v>294629381.82992047</v>
       </c>
       <c r="K65" s="6">
         <f>'Building Projections'!P$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!O$28</f>
-        <v>291320997.233311</v>
+        <v>331479289.41727293</v>
       </c>
       <c r="L65" s="6">
         <f>'Building Projections'!Q$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!P$28</f>
-        <v>303884158.26044458</v>
+        <v>370509776.5000118</v>
       </c>
       <c r="M65" s="6">
         <f>'Building Projections'!R$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!Q$28</f>
-        <v>407840552.16508842</v>
+        <v>411720843.09632742</v>
       </c>
       <c r="N65" s="6">
         <f>'Building Projections'!S$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!R$28</f>
-        <v>430411272.19237292</v>
+        <v>455112489.17183155</v>
       </c>
       <c r="O65" s="6">
         <f>'Building Projections'!T$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!S$28</f>
-        <v>452981992.21962595</v>
+        <v>500684714.74726915</v>
       </c>
       <c r="P65" s="6">
         <f>'Building Projections'!U$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!T$28</f>
-        <v>475552712.24680775</v>
+        <v>548437519.81859231</v>
       </c>
       <c r="Q65" s="6">
         <f>'Building Projections'!V$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!U$28</f>
-        <v>498123432.27412385</v>
+        <v>598370904.38579941</v>
       </c>
       <c r="R65" s="6">
         <f>'Building Projections'!W$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!V$28</f>
-        <v>680970307.16190231</v>
+        <v>650484868.45798588</v>
       </c>
       <c r="S65" s="6">
         <f>'Building Projections'!X$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!W$28</f>
-        <v>721091266.14645386</v>
+        <v>704779412.01795864</v>
       </c>
       <c r="T65" s="6">
         <f>'Building Projections'!Y$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!X$28</f>
-        <v>761212225.13094246</v>
+        <v>761254535.06472015</v>
       </c>
       <c r="U65" s="6">
         <f>'Building Projections'!Z$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!Y$28</f>
-        <v>801333184.11528802</v>
+        <v>819910237.63365555</v>
       </c>
       <c r="V65" s="6">
         <f>'Building Projections'!AA$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!Z$28</f>
-        <v>841454143.09990335</v>
+        <v>880746519.6640873</v>
       </c>
       <c r="W65" s="6">
         <f>'Building Projections'!AB$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AA$28</f>
-        <v>987654927.15109158</v>
+        <v>943763381.21569657</v>
       </c>
       <c r="X65" s="6">
         <f>'Building Projections'!AC$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AB$28</f>
-        <v>1039391626.9803834</v>
+        <v>1008960822.2641872</v>
       </c>
       <c r="Y65" s="6">
         <f>'Building Projections'!AD$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AC$28</f>
-        <v>1091128326.8098173</v>
+        <v>1076338842.8004622</v>
       </c>
       <c r="Z65" s="6">
         <f>'Building Projections'!AE$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AD$28</f>
-        <v>1142865026.6389828</v>
+        <v>1145897442.8144324</v>
       </c>
       <c r="AA65" s="6">
         <f>'Building Projections'!AF$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AE$28</f>
-        <v>1194601726.4682755</v>
+        <v>1217636622.358675</v>
       </c>
       <c r="AB65" s="6">
         <f>'Building Projections'!AG$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AF$28</f>
-        <v>1361974032.8085444</v>
+        <v>1291556381.3826046</v>
       </c>
       <c r="AC65" s="6">
         <f>'Building Projections'!AH$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AG$28</f>
-        <v>1426372831.5507884</v>
+        <v>1367656719.8842282</v>
       </c>
       <c r="AD65" s="6">
         <f>'Building Projections'!AI$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AH$28</f>
-        <v>1490771630.2930312</v>
+        <v>1445937637.92522</v>
       </c>
       <c r="AE65" s="6">
         <f>'Building Projections'!AJ$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AI$28</f>
-        <v>1555170429.0352759</v>
+        <v>1526399135.4287021</v>
       </c>
       <c r="AF65" s="6">
         <f>'Building Projections'!AK$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AJ$28</f>
-        <v>1619569227.7776632</v>
+        <v>1609041212.4270763</v>
       </c>
       <c r="AG65" s="6">
         <f>'Building Projections'!AL$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AK$28</f>
-        <v>1683968026.5197797</v>
+        <v>1693863868.9476206</v>
       </c>
       <c r="AH65" s="6">
         <f>'Building Projections'!AM$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AL$28</f>
-        <v>1748366825.2620237</v>
+        <v>1780867104.9478543</v>
       </c>
       <c r="AI65" s="6">
         <f>'Building Projections'!AN$29+(1/'Component Lifetimes'!$B5)*'Building Projections'!AM$28</f>
-        <v>1812765624.0044105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1870050920.4257805</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B66" s="6">
         <f>'Building Projections'!G$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!F$28</f>
-        <v>104508123.61019208</v>
+        <v>51347765.934448272</v>
       </c>
       <c r="C66" s="6">
         <f>'Building Projections'!H$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!G$28</f>
-        <v>135193268.32881987</v>
+        <v>70918460.841527581</v>
       </c>
       <c r="D66" s="6">
         <f>'Building Projections'!I$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!H$28</f>
-        <v>140052168.93463212</v>
+        <v>91960631.233691007</v>
       </c>
       <c r="E66" s="6">
         <f>'Building Projections'!J$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!I$28</f>
-        <v>144911069.54047871</v>
+        <v>114474277.1031878</v>
       </c>
       <c r="F66" s="6">
         <f>'Building Projections'!K$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!J$28</f>
-        <v>149769970.1463086</v>
+        <v>138459398.41431019</v>
       </c>
       <c r="G66" s="6">
         <f>'Building Projections'!L$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!K$28</f>
-        <v>154628870.75213861</v>
+        <v>163915995.21051681</v>
       </c>
       <c r="H66" s="6">
         <f>'Building Projections'!M$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!L$28</f>
-        <v>208462714.00075844</v>
+        <v>190844067.474962</v>
       </c>
       <c r="I66" s="6">
         <f>'Building Projections'!N$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!M$28</f>
-        <v>216940452.73290321</v>
+        <v>219243615.20309788</v>
       </c>
       <c r="J66" s="6">
         <f>'Building Projections'!O$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!N$28</f>
-        <v>225418191.46504754</v>
+        <v>249114638.40368384</v>
       </c>
       <c r="K66" s="6">
         <f>'Building Projections'!P$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!O$28</f>
-        <v>233895930.19722757</v>
+        <v>280457137.06341326</v>
       </c>
       <c r="L66" s="6">
         <f>'Building Projections'!Q$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!P$28</f>
-        <v>242373668.92933944</v>
+        <v>313271111.19070888</v>
       </c>
       <c r="M66" s="6">
         <f>'Building Projections'!R$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!Q$28</f>
-        <v>342244640.53896284</v>
+        <v>347556560.80376095</v>
       </c>
       <c r="N66" s="6">
         <f>'Building Projections'!S$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!R$28</f>
-        <v>357475573.81873989</v>
+        <v>383313485.86753356</v>
       </c>
       <c r="O66" s="6">
         <f>'Building Projections'!T$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!S$28</f>
-        <v>372706507.09848422</v>
+        <v>420541886.40341949</v>
       </c>
       <c r="P66" s="6">
         <f>'Building Projections'!U$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!T$28</f>
-        <v>387937440.37815732</v>
+        <v>459241762.40720868</v>
       </c>
       <c r="Q66" s="6">
         <f>'Building Projections'!V$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!U$28</f>
-        <v>403168373.65796727</v>
+        <v>499413113.87889987</v>
       </c>
       <c r="R66" s="6">
         <f>'Building Projections'!W$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!V$28</f>
-        <v>578675461.79823709</v>
+        <v>541055940.82758808</v>
       </c>
       <c r="S66" s="6">
         <f>'Building Projections'!X$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!W$28</f>
-        <v>605749460.70814037</v>
+        <v>584170243.23575664</v>
       </c>
       <c r="T66" s="6">
         <f>'Building Projections'!Y$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!X$28</f>
-        <v>632823459.61797833</v>
+        <v>628756021.10273182</v>
       </c>
       <c r="U66" s="6">
         <f>'Building Projections'!Z$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!Y$28</f>
-        <v>659897458.52767324</v>
+        <v>674813274.46422243</v>
       </c>
       <c r="V66" s="6">
         <f>'Building Projections'!AA$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!Z$28</f>
-        <v>686971457.43764281</v>
+        <v>722342003.25857973</v>
       </c>
       <c r="W66" s="6">
         <f>'Building Projections'!AB$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AA$28</f>
-        <v>820125281.41418028</v>
+        <v>771342207.54677999</v>
       </c>
       <c r="X66" s="6">
         <f>'Building Projections'!AC$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AB$28</f>
-        <v>855037691.0432322</v>
+        <v>821813887.30355561</v>
       </c>
       <c r="Y66" s="6">
         <f>'Building Projections'!AD$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AC$28</f>
-        <v>889950100.67242599</v>
+        <v>873757042.51980948</v>
       </c>
       <c r="Z66" s="6">
         <f>'Building Projections'!AE$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AD$28</f>
-        <v>924862510.3013463</v>
+        <v>927171673.18577647</v>
       </c>
       <c r="AA66" s="6">
         <f>'Building Projections'!AF$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AE$28</f>
-        <v>959774919.93039906</v>
+        <v>982057779.35468149</v>
       </c>
       <c r="AB66" s="6">
         <f>'Building Projections'!AG$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AF$28</f>
-        <v>1110322936.0704277</v>
+        <v>1038415360.9746435</v>
       </c>
       <c r="AC66" s="6">
         <f>'Building Projections'!AH$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AG$28</f>
-        <v>1153779848.6436405</v>
+        <v>1096244418.0443177</v>
       </c>
       <c r="AD66" s="6">
         <f>'Building Projections'!AI$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AH$28</f>
-        <v>1197236761.2168522</v>
+        <v>1155544950.626025</v>
       </c>
       <c r="AE66" s="6">
         <f>'Building Projections'!AJ$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AI$28</f>
-        <v>1240693673.7900658</v>
+        <v>1216316958.6412692</v>
       </c>
       <c r="AF66" s="6">
         <f>'Building Projections'!AK$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AJ$28</f>
-        <v>1284150586.3634217</v>
+        <v>1278560442.1237473</v>
       </c>
       <c r="AG66" s="6">
         <f>'Building Projections'!AL$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AK$28</f>
-        <v>1327607498.936502</v>
+        <v>1342275401.1007371</v>
       </c>
       <c r="AH66" s="6">
         <f>'Building Projections'!AM$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AL$28</f>
-        <v>1371064411.5097146</v>
+        <v>1407461835.5287864</v>
       </c>
       <c r="AI66" s="6">
         <f>'Building Projections'!AN$29+(1/'Component Lifetimes'!$B6)*'Building Projections'!AM$28</f>
-        <v>1414521324.0830703</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1474119745.4065461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="6">
         <f>'Building Projections'!G$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!F$28</f>
-        <v>96430808.364831448</v>
+        <v>44560687.761549547</v>
       </c>
       <c r="C67" s="6">
         <f>'Building Projections'!H$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!G$28</f>
-        <v>126776765.6868093</v>
+        <v>64172991.526595406</v>
       </c>
       <c r="D67" s="6">
         <f>'Building Projections'!I$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!H$28</f>
-        <v>131046708.64343002</v>
+        <v>85078410.114071533</v>
       </c>
       <c r="E67" s="6">
         <f>'Building Projections'!J$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!I$28</f>
-        <v>135316651.60008526</v>
+        <v>107276943.51606426</v>
       </c>
       <c r="F67" s="6">
         <f>'Building Projections'!K$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!J$28</f>
-        <v>139586594.55672362</v>
+        <v>130768591.69678433</v>
       </c>
       <c r="G67" s="6">
         <f>'Building Projections'!L$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!K$28</f>
-        <v>143856537.51336211</v>
+        <v>155553354.69993478</v>
       </c>
       <c r="H67" s="6">
         <f>'Building Projections'!M$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!L$28</f>
-        <v>197101423.11279047</v>
+        <v>181631232.50850698</v>
       </c>
       <c r="I67" s="6">
         <f>'Building Projections'!N$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!M$28</f>
-        <v>204551557.1501298</v>
+        <v>209002225.11795312</v>
       </c>
       <c r="J67" s="6">
         <f>'Building Projections'!O$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!N$28</f>
-        <v>212001691.18746871</v>
+        <v>237666332.53707331</v>
       </c>
       <c r="K67" s="6">
         <f>'Building Projections'!P$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!O$28</f>
-        <v>219451825.22484338</v>
+        <v>267623554.7525202</v>
       </c>
       <c r="L67" s="6">
         <f>'Building Projections'!Q$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!P$28</f>
-        <v>226901959.26214951</v>
+        <v>298873891.77279794</v>
       </c>
       <c r="M67" s="6">
         <f>'Building Projections'!R$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!Q$28</f>
-        <v>325745326.1769675</v>
+        <v>331417343.61609679</v>
       </c>
       <c r="N67" s="6">
         <f>'Building Projections'!S$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!R$28</f>
-        <v>339130085.72586679</v>
+        <v>365253910.24721801</v>
       </c>
       <c r="O67" s="6">
         <f>'Building Projections'!T$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!S$28</f>
-        <v>352514845.27473307</v>
+        <v>400383591.6877172</v>
       </c>
       <c r="P67" s="6">
         <f>'Building Projections'!U$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!T$28</f>
-        <v>365899604.82352805</v>
+        <v>436806387.93334359</v>
       </c>
       <c r="Q67" s="6">
         <f>'Building Projections'!V$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!U$28</f>
-        <v>379284364.3724606</v>
+        <v>474522298.98409593</v>
       </c>
       <c r="R67" s="6">
         <f>'Building Projections'!W$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!V$28</f>
-        <v>552945278.78185225</v>
+        <v>513531324.8490693</v>
       </c>
       <c r="S67" s="6">
         <f>'Building Projections'!X$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!W$28</f>
-        <v>576737580.85420012</v>
+        <v>553833465.51066542</v>
       </c>
       <c r="T67" s="6">
         <f>'Building Projections'!Y$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!X$28</f>
-        <v>600529882.92648196</v>
+        <v>595428720.96829212</v>
       </c>
       <c r="U67" s="6">
         <f>'Building Projections'!Z$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!Y$28</f>
-        <v>624322184.99862099</v>
+        <v>638317091.25773978</v>
       </c>
       <c r="V67" s="6">
         <f>'Building Projections'!AA$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!Z$28</f>
-        <v>648114487.07103562</v>
+        <v>682498576.31711507</v>
       </c>
       <c r="W67" s="6">
         <f>'Building Projections'!AB$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AA$28</f>
-        <v>777986614.2100172</v>
+        <v>727973176.20772016</v>
       </c>
       <c r="X67" s="6">
         <f>'Building Projections'!AC$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AB$28</f>
-        <v>808667216.61130512</v>
+        <v>774740890.90404308</v>
       </c>
       <c r="Y67" s="6">
         <f>'Building Projections'!AD$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AC$28</f>
-        <v>839347819.01273513</v>
+        <v>822801720.39698696</v>
       </c>
       <c r="Z67" s="6">
         <f>'Building Projections'!AE$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AD$28</f>
-        <v>870028421.41389024</v>
+        <v>872155664.6768676</v>
       </c>
       <c r="AA67" s="6">
         <f>'Building Projections'!AF$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AE$28</f>
-        <v>900709023.81517911</v>
+        <v>922802723.79707325</v>
       </c>
       <c r="AB67" s="6">
         <f>'Building Projections'!AG$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AF$28</f>
-        <v>1047025232.7274439</v>
+        <v>974742897.70539701</v>
       </c>
       <c r="AC67" s="6">
         <f>'Building Projections'!AH$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AG$28</f>
-        <v>1085214640.7463279</v>
+        <v>1027976186.4006567</v>
       </c>
       <c r="AD67" s="6">
         <f>'Building Projections'!AI$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AH$28</f>
-        <v>1123404048.7652109</v>
+        <v>1082502589.9453368</v>
       </c>
       <c r="AE67" s="6">
         <f>'Building Projections'!AJ$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AI$28</f>
-        <v>1161593456.7840958</v>
+        <v>1138322108.2605329</v>
       </c>
       <c r="AF67" s="6">
         <f>'Building Projections'!AK$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AJ$28</f>
-        <v>1199782864.8031225</v>
+        <v>1195434741.3802688</v>
       </c>
       <c r="AG67" s="6">
         <f>'Building Projections'!AL$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AK$28</f>
-        <v>1237972272.8218727</v>
+        <v>1253840489.3318214</v>
       </c>
       <c r="AH67" s="6">
         <f>'Building Projections'!AM$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AL$28</f>
-        <v>1276161680.8407567</v>
+        <v>1313539352.0714946</v>
       </c>
       <c r="AI67" s="6">
         <f>'Building Projections'!AN$29+(1/'Component Lifetimes'!$B7)*'Building Projections'!AM$28</f>
-        <v>1314351088.8597836</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1374531329.5981021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="69" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>166</v>
       </c>
@@ -15214,7 +16150,7 @@
       <c r="AH69" s="13"/>
       <c r="AI69" s="13"/>
     </row>
-    <row r="70" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B70" s="50">
         <v>2017</v>
       </c>
@@ -15318,7 +16254,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="71" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
         <v>11</v>
       </c>
@@ -15459,712 +16395,712 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*B63</f>
-        <v>23838185302.683285</v>
+        <v>10863268148.183167</v>
       </c>
       <c r="C72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*C63</f>
-        <v>31449728779.889519</v>
+        <v>15795546093.691589</v>
       </c>
       <c r="D72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*D63</f>
-        <v>32493743413.828007</v>
+        <v>21043994726.30983</v>
       </c>
       <c r="E72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*E63</f>
-        <v>33537758047.775177</v>
+        <v>26608614044.04039</v>
       </c>
       <c r="F72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*F63</f>
-        <v>34581772681.718102</v>
+        <v>32489404037.882404</v>
       </c>
       <c r="G72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*G63</f>
-        <v>35625787315.661057</v>
+        <v>38686364718.834259</v>
       </c>
       <c r="H72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*H63</f>
-        <v>48981276824.357071</v>
+        <v>45199496082.612152</v>
       </c>
       <c r="I72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*I63</f>
-        <v>50802858292.495026</v>
+        <v>52028798128.072838</v>
       </c>
       <c r="J72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*J63</f>
-        <v>52624439760.632858</v>
+        <v>59174270857.430542</v>
       </c>
       <c r="K72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*K63</f>
-        <v>54446021228.779671</v>
+        <v>66635914267.327942</v>
       </c>
       <c r="L72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*L63</f>
-        <v>56267602696.909248</v>
+        <v>74413728359.906876</v>
       </c>
       <c r="M72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*M63</f>
-        <v>81063902042.724686</v>
+        <v>82507713139.740128</v>
       </c>
       <c r="N72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*N63</f>
-        <v>84336518324.198502</v>
+        <v>90917868597.971146</v>
       </c>
       <c r="O72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*O63</f>
-        <v>87609134605.664032</v>
+        <v>99644194740.026779</v>
       </c>
       <c r="P72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*P63</f>
-        <v>90881750887.111618</v>
+        <v>108686691564.83646</v>
       </c>
       <c r="Q72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*Q63</f>
-        <v>94154367168.593811</v>
+        <v>118045359072.39981</v>
       </c>
       <c r="R72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*R63</f>
-        <v>137717706564.93146</v>
+        <v>127720197265.00325</v>
       </c>
       <c r="S72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*S63</f>
-        <v>143535000095.77512</v>
+        <v>137711206138.21872</v>
       </c>
       <c r="T72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*T63</f>
-        <v>149352293626.60217</v>
+        <v>148018385691.90155</v>
       </c>
       <c r="U72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*U63</f>
-        <v>155169587157.39328</v>
+        <v>158641735935.05276</v>
       </c>
       <c r="V72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*V63</f>
-        <v>160986880688.25378</v>
+        <v>169581256852.10132</v>
       </c>
       <c r="W72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*W63</f>
-        <v>193470853760.74933</v>
+        <v>180836948458.47379</v>
       </c>
       <c r="X72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*X63</f>
-        <v>200972358631.05008</v>
+        <v>192408810747.74472</v>
       </c>
       <c r="Y72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*Y63</f>
-        <v>208473863501.38654</v>
+        <v>204296843717.62717</v>
       </c>
       <c r="Z72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*Z63</f>
-        <v>215975368371.65384</v>
+        <v>216501047365.69098</v>
       </c>
       <c r="AA72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*AA63</f>
-        <v>223476873241.95483</v>
+        <v>229021421705.36508</v>
       </c>
       <c r="AB72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*AB63</f>
-        <v>260047220000.85989</v>
+        <v>241857966723.50919</v>
       </c>
       <c r="AC72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*AC63</f>
-        <v>269384651727.28305</v>
+        <v>255010682419.83441</v>
       </c>
       <c r="AD72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*AD63</f>
-        <v>278722083453.70593</v>
+        <v>268479568810.05624</v>
       </c>
       <c r="AE72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*AE63</f>
-        <v>288059515180.12927</v>
+        <v>282264625874.3194</v>
       </c>
       <c r="AF72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*AF63</f>
-        <v>297396946906.58838</v>
+        <v>296365853621.19287</v>
       </c>
       <c r="AG72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*AG63</f>
-        <v>306734378632.97784</v>
+        <v>310783252057.53375</v>
       </c>
       <c r="AH72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*AH63</f>
-        <v>316071810359.40094</v>
+        <v>325516821172.34534</v>
       </c>
       <c r="AI72" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A72)*AI63</f>
-        <v>325409242085.86005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>340566560965.33752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*B64</f>
-        <v>57975141933.728455</v>
+        <v>10465747074.8624</v>
       </c>
       <c r="C73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*C64</f>
-        <v>87991286631.116409</v>
+        <v>31258821606.65831</v>
       </c>
       <c r="D73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*D64</f>
-        <v>89322296063.23584</v>
+        <v>52454980699.588791</v>
       </c>
       <c r="E73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*E64</f>
-        <v>90653305495.392319</v>
+        <v>74054224344.482758</v>
       </c>
       <c r="F73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*F64</f>
-        <v>91984314927.530243</v>
+        <v>96056552503.36673</v>
       </c>
       <c r="G73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*G64</f>
-        <v>93315324359.66832</v>
+        <v>118461965223.38538</v>
       </c>
       <c r="H73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*H64</f>
-        <v>146014545358.46628</v>
+        <v>141270462485.82825</v>
       </c>
       <c r="I73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*I64</f>
-        <v>148336871154.17169</v>
+        <v>164482044285.92523</v>
       </c>
       <c r="J73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*J64</f>
-        <v>150659196949.87665</v>
+        <v>188096710633.12424</v>
       </c>
       <c r="K73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*K64</f>
-        <v>152981522745.61911</v>
+        <v>212114461513.20792</v>
       </c>
       <c r="L73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*L64</f>
-        <v>155303848541.28799</v>
+        <v>236535296935.53137</v>
       </c>
       <c r="M73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*M64</f>
-        <v>253485539736.42386</v>
+        <v>261359216919.17383</v>
       </c>
       <c r="N73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*N64</f>
-        <v>257657783110.05005</v>
+        <v>286586221426.34564</v>
       </c>
       <c r="O73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*O64</f>
-        <v>261830026483.63995</v>
+        <v>312216310480.52661</v>
       </c>
       <c r="P73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*P64</f>
-        <v>266002269857.15509</v>
+        <v>338249484077.04059</v>
       </c>
       <c r="Q73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*Q64</f>
-        <v>270174513230.81787</v>
+        <v>364685742215.88605</v>
       </c>
       <c r="R73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*R64</f>
-        <v>442455160365.41345</v>
+        <v>391525084906.60278</v>
       </c>
       <c r="S73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*S64</f>
-        <v>449871601004.64093</v>
+        <v>418767512130.297</v>
       </c>
       <c r="T73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*T64</f>
-        <v>457288041643.79578</v>
+        <v>446413023886.78302</v>
       </c>
       <c r="U73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*U64</f>
-        <v>464704482282.80066</v>
+        <v>474461620214.03546</v>
       </c>
       <c r="V73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*V64</f>
-        <v>472120922922.10168</v>
+        <v>502913301045.83057</v>
       </c>
       <c r="W73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*W64</f>
-        <v>590801013969.69092</v>
+        <v>531768066448.20752</v>
       </c>
       <c r="X73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*X64</f>
-        <v>600364647862.34131</v>
+        <v>561025916393.10156</v>
       </c>
       <c r="Y73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*Y64</f>
-        <v>609928281755.14099</v>
+        <v>590686850870.97107</v>
       </c>
       <c r="Z73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*Z64</f>
-        <v>619491915647.64526</v>
+        <v>620750869872.09436</v>
       </c>
       <c r="AA73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*AA64</f>
-        <v>629055549540.29675</v>
+        <v>651217973453.33899</v>
       </c>
       <c r="AB73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*AB64</f>
-        <v>759905579687.04028</v>
+        <v>682088161558.20557</v>
       </c>
       <c r="AC73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*AC64</f>
-        <v>771809828244.24353</v>
+        <v>713361434186.32507</v>
       </c>
       <c r="AD73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*AD64</f>
-        <v>783714076801.4458</v>
+        <v>745037791404.10559</v>
       </c>
       <c r="AE73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*AE64</f>
-        <v>795618325358.6499</v>
+        <v>777117233126.61084</v>
       </c>
       <c r="AF73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*AF64</f>
-        <v>807522573916.00317</v>
+        <v>809599759391.26782</v>
       </c>
       <c r="AG73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*AG64</f>
-        <v>819426822473.0592</v>
+        <v>842485370226.68689</v>
       </c>
       <c r="AH73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*AH64</f>
-        <v>831331071030.26233</v>
+        <v>875774065585.73096</v>
       </c>
       <c r="AI73" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A73)*AI64</f>
-        <v>843235319587.6156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>909465845468.02576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*B65</f>
-        <v>7840543375.2772818</v>
+        <v>4495340404.8678885</v>
       </c>
       <c r="C74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*C65</f>
-        <v>9678923628.4183521</v>
+        <v>5608990435.2165813</v>
       </c>
       <c r="D74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*D65</f>
-        <v>10092147993.094196</v>
+        <v>6847781844.1083164</v>
       </c>
       <c r="E74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*E65</f>
-        <v>10505372357.771975</v>
+        <v>8211714631.1354523</v>
       </c>
       <c r="F74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*F65</f>
-        <v>10918596722.448832</v>
+        <v>9700788794.2673454</v>
       </c>
       <c r="G74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*G65</f>
-        <v>11331821087.125694</v>
+        <v>11315004335.942286</v>
       </c>
       <c r="H74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*H65</f>
-        <v>14555670701.203457</v>
+        <v>13054361255.230684</v>
       </c>
       <c r="I74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*I65</f>
-        <v>15276658530.689734</v>
+        <v>14918859551.871548</v>
       </c>
       <c r="J74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*J65</f>
-        <v>15997646360.17598</v>
+        <v>16908499226.358276</v>
       </c>
       <c r="K74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*K65</f>
-        <v>16718634189.664282</v>
+        <v>19023280277.936508</v>
       </c>
       <c r="L74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*L65</f>
-        <v>17439622019.148743</v>
+        <v>21263202707.071026</v>
       </c>
       <c r="M74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*M65</f>
-        <v>23405580319.011566</v>
+        <v>23628266514.805759</v>
       </c>
       <c r="N74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*N65</f>
-        <v>24700892415.006104</v>
+        <v>26118471699.167194</v>
       </c>
       <c r="O74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*O65</f>
-        <v>25996204510.998833</v>
+        <v>28733818261.345875</v>
       </c>
       <c r="P74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*P65</f>
-        <v>27291516606.987476</v>
+        <v>31474306201.109486</v>
       </c>
       <c r="Q74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*Q65</f>
-        <v>28586828702.983829</v>
+        <v>34339935518.457939</v>
       </c>
       <c r="R74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*R65</f>
-        <v>39080236466.255531</v>
+        <v>37330706213.913208</v>
       </c>
       <c r="S74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*S65</f>
-        <v>41382740037.819389</v>
+        <v>40446618286.488609</v>
       </c>
       <c r="T74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*T65</f>
-        <v>43685243609.379623</v>
+        <v>43687671736.126877</v>
       </c>
       <c r="U74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*U65</f>
-        <v>45987747180.931656</v>
+        <v>47053866564.858749</v>
       </c>
       <c r="V74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*V65</f>
-        <v>48290250752.499168</v>
+        <v>50545202769.201988</v>
       </c>
       <c r="W74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*W65</f>
-        <v>56680574313.132751</v>
+        <v>54161680352.581642</v>
       </c>
       <c r="X74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*X65</f>
-        <v>59649694173.496506</v>
+        <v>57903299313.603378</v>
       </c>
       <c r="Y74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*Y65</f>
-        <v>62618814033.868408</v>
+        <v>61770059651.745125</v>
       </c>
       <c r="Z74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*Z65</f>
-        <v>65587933894.224907</v>
+        <v>65761961366.427879</v>
       </c>
       <c r="AA74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*AA65</f>
-        <v>68557053754.588707</v>
+        <v>69879004460.668991</v>
       </c>
       <c r="AB74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*AB65</f>
-        <v>78162390787.478073</v>
+        <v>74121188931.56543</v>
       </c>
       <c r="AC74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*AC65</f>
-        <v>81858176428.233383</v>
+        <v>78488514779.002792</v>
       </c>
       <c r="AD74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*AD65</f>
-        <v>85553962068.988632</v>
+        <v>82980982006.520523</v>
       </c>
       <c r="AE74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*AE65</f>
-        <v>89249747709.743988</v>
+        <v>87598590609.706665</v>
       </c>
       <c r="AF74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*AF65</f>
-        <v>92945533350.507538</v>
+        <v>92341340590.420731</v>
       </c>
       <c r="AG74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*AG65</f>
-        <v>96641318991.255524</v>
+        <v>97209231950.22818</v>
       </c>
       <c r="AH74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*AH65</f>
-        <v>100337104632.01085</v>
+        <v>102202264686.69107</v>
       </c>
       <c r="AI74" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A74)*AI65</f>
-        <v>104032890272.77435</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107320438799.69481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*B66</f>
-        <v>25429949480.385403</v>
+        <v>12494445872.113331</v>
       </c>
       <c r="C75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*C66</f>
-        <v>32896562151.602856</v>
+        <v>17256580772.165508</v>
       </c>
       <c r="D75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*D66</f>
-        <v>34078877867.048054</v>
+        <v>22376769629.696507</v>
       </c>
       <c r="E75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*E66</f>
-        <v>35261193582.50161</v>
+        <v>27855012442.820328</v>
       </c>
       <c r="F75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*F66</f>
-        <v>36443509297.951103</v>
+        <v>33691309202.848213</v>
       </c>
       <c r="G75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*G66</f>
-        <v>37625825013.40062</v>
+        <v>39885659920.354942</v>
       </c>
       <c r="H75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*H66</f>
-        <v>50725207787.256866</v>
+        <v>46438064591.241463</v>
       </c>
       <c r="I75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*I66</f>
-        <v>52788094960.224182</v>
+        <v>53348523214.401146</v>
       </c>
       <c r="J75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*J66</f>
-        <v>54850982133.191391</v>
+        <v>60617035791.965401</v>
       </c>
       <c r="K75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*K66</f>
-        <v>56913869306.16729</v>
+        <v>68243602320.696342</v>
       </c>
       <c r="L75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*L66</f>
-        <v>58976756479.126602</v>
+        <v>76228222802.643463</v>
       </c>
       <c r="M75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*M66</f>
-        <v>83278348306.214432</v>
+        <v>84570897242.233002</v>
       </c>
       <c r="N75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*N66</f>
-        <v>86984489517.67215</v>
+        <v>93271625630.939682</v>
       </c>
       <c r="O75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*O66</f>
-        <v>90690630729.121918</v>
+        <v>102330407973.96898</v>
       </c>
       <c r="P75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*P66</f>
-        <v>94396771940.554352</v>
+        <v>111747244270.29649</v>
       </c>
       <c r="Q75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*Q66</f>
-        <v>98102913152.020081</v>
+        <v>121522134519.92189</v>
       </c>
       <c r="R75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*R66</f>
-        <v>140809032357.67911</v>
+        <v>131655078725.05827</v>
       </c>
       <c r="S75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*S66</f>
-        <v>147396945342.11725</v>
+        <v>142146076881.44333</v>
       </c>
       <c r="T75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*T66</f>
-        <v>153984858326.53946</v>
+        <v>152995128988.91309</v>
       </c>
       <c r="U75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*U66</f>
-        <v>160572771310.92691</v>
+        <v>164202235056.15659</v>
       </c>
       <c r="V75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*V66</f>
-        <v>167160684295.38116</v>
+        <v>175767395068.17282</v>
       </c>
       <c r="W75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*W66</f>
-        <v>199560988691.5578</v>
+        <v>187690609039.79919</v>
       </c>
       <c r="X75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*X66</f>
-        <v>208056221238.4249</v>
+        <v>199971876964.8873</v>
       </c>
       <c r="Y75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*Y66</f>
-        <v>216551453785.32648</v>
+        <v>212611198841.22354</v>
       </c>
       <c r="Z75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*Z66</f>
-        <v>225046686332.16153</v>
+        <v>225608574666.43179</v>
       </c>
       <c r="AA75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*AA66</f>
-        <v>233541918879.02881</v>
+        <v>238964004453.46326</v>
       </c>
       <c r="AB75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*AB66</f>
-        <v>270174750017.52426</v>
+        <v>252677488189.6937</v>
       </c>
       <c r="AC75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*AC66</f>
-        <v>280749115465.25061</v>
+        <v>266749025874.79593</v>
       </c>
       <c r="AD75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*AD66</f>
-        <v>291323480912.97662</v>
+        <v>281178617523.93445</v>
       </c>
       <c r="AE75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*AE66</f>
-        <v>301897846360.70313</v>
+        <v>295966263118.00885</v>
       </c>
       <c r="AF75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*AF66</f>
-        <v>312472211808.46429</v>
+        <v>311111962665.21857</v>
       </c>
       <c r="AG75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*AG66</f>
-        <v>323046577256.15839</v>
+        <v>326615716172.20105</v>
       </c>
       <c r="AH75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*AH66</f>
-        <v>333620942703.88464</v>
+        <v>342477523628.38318</v>
       </c>
       <c r="AI75" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A75)*AI66</f>
-        <v>344195308151.64575</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>358697385033.43671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*B67</f>
-        <v>15620983655.281578</v>
+        <v>7218458364.029789</v>
       </c>
       <c r="C76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*C67</f>
-        <v>20536774691.03701</v>
+        <v>10395487383.605345</v>
       </c>
       <c r="D76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*D67</f>
-        <v>21228469702.884312</v>
+        <v>13781990178.710842</v>
       </c>
       <c r="E76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*E67</f>
-        <v>21920164714.737206</v>
+        <v>17377966748.064331</v>
       </c>
       <c r="F76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*F67</f>
-        <v>22611859726.587364</v>
+        <v>21183417085.868259</v>
       </c>
       <c r="G76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*G67</f>
-        <v>23303554738.437546</v>
+        <v>25198341199.202145</v>
       </c>
       <c r="H76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*H67</f>
-        <v>31928780449.802052</v>
+        <v>29422739085.310734</v>
       </c>
       <c r="I76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*I67</f>
-        <v>33135639792.789558</v>
+        <v>33856610743.457321</v>
       </c>
       <c r="J76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*J67</f>
-        <v>34342499135.776997</v>
+        <v>38499956175.067451</v>
       </c>
       <c r="K76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*K67</f>
-        <v>35549358478.770233</v>
+        <v>43352775377.978966</v>
       </c>
       <c r="L76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*L67</f>
-        <v>36756217821.752357</v>
+        <v>48415068353.569458</v>
       </c>
       <c r="M76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*M67</f>
-        <v>52768015764.664589</v>
+        <v>53686835104.785606</v>
       </c>
       <c r="N76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*N67</f>
-        <v>54936234757.003586</v>
+        <v>59168075625.925507</v>
       </c>
       <c r="O76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*O67</f>
-        <v>57104453749.337234</v>
+        <v>64858789920.480988</v>
       </c>
       <c r="P76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*P67</f>
-        <v>59272672741.65934</v>
+        <v>70758977987.763458</v>
       </c>
       <c r="Q76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*Q67</f>
-        <v>61440891734.003723</v>
+        <v>76868639827.77272</v>
       </c>
       <c r="R76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*R67</f>
-        <v>89572506013.198212</v>
+        <v>83187775441.982086</v>
       </c>
       <c r="S76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*S67</f>
-        <v>93426659764.430405</v>
+        <v>89716384827.540802</v>
       </c>
       <c r="T76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*T67</f>
-        <v>97280813515.651917</v>
+        <v>96454467984.352921</v>
       </c>
       <c r="U76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*U67</f>
-        <v>101134967266.85028</v>
+        <v>103402024918.2162</v>
       </c>
       <c r="V76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*V67</f>
-        <v>104989121018.09329</v>
+        <v>110559055619.10443</v>
       </c>
       <c r="W76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*W67</f>
-        <v>126027318350.62302</v>
+        <v>117925560096.94806</v>
       </c>
       <c r="X76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*X67</f>
-        <v>130997319087.64368</v>
+        <v>125501538347.61435</v>
       </c>
       <c r="Y76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*Y67</f>
-        <v>135967319824.68738</v>
+        <v>133286990369.6297</v>
       </c>
       <c r="Z76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*Z67</f>
-        <v>140937320561.68652</v>
+        <v>141281916161.42532</v>
       </c>
       <c r="AA76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*AA67</f>
-        <v>145907321298.70737</v>
+        <v>149486315731.64972</v>
       </c>
       <c r="AB76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*AB67</f>
-        <v>169609322211.88043</v>
+        <v>157900189071.84573</v>
       </c>
       <c r="AC76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*AC67</f>
-        <v>175795686596.70322</v>
+        <v>166523536181.82193</v>
       </c>
       <c r="AD76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*AD67</f>
-        <v>181982050981.52588</v>
+        <v>175356357071.70026</v>
       </c>
       <c r="AE76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*AE67</f>
-        <v>188168415366.34882</v>
+        <v>184398651728.69882</v>
       </c>
       <c r="AF76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*AF67</f>
-        <v>194354779751.19476</v>
+        <v>193650420158.32925</v>
       </c>
       <c r="AG76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*AG67</f>
-        <v>200541144135.99588</v>
+        <v>203111662365.01013</v>
       </c>
       <c r="AH76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*AH67</f>
-        <v>206727508520.81866</v>
+        <v>212782378341.66306</v>
       </c>
       <c r="AI76" s="6">
         <f>SUMIFS('Calculations 1'!$E$35:$E$55,'Calculations 1'!$F$35:$F$55,$A76)*AI67</f>
-        <v>212913872905.66464</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+        <v>222662568088.09589</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>167</v>
       </c>
@@ -16203,7 +17139,7 @@
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
     </row>
-    <row r="79" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B79" s="50">
         <v>2017</v>
       </c>
@@ -16307,7 +17243,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A80" s="57" t="s">
         <v>11</v>
       </c>
@@ -16448,709 +17384,709 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A81" s="57" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="6">
         <f>B72/$B$2</f>
-        <v>435241652.41342491</v>
+        <v>198343402.37690645</v>
       </c>
       <c r="C81" s="6">
         <f t="shared" ref="C81:AI85" si="7">C72/$B$2</f>
-        <v>574214511.22675765</v>
+        <v>288397774.2138322</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="7"/>
-        <v>593276308.4503926</v>
+        <v>384224844.37301129</v>
       </c>
       <c r="E81" s="6">
         <f t="shared" si="7"/>
-        <v>612338105.67418611</v>
+        <v>485824612.81797314</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="7"/>
-        <v>631399902.89790213</v>
+        <v>593197079.38437831</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="7"/>
-        <v>650461700.12161863</v>
+        <v>706342244.27303731</v>
       </c>
       <c r="H81" s="6">
         <f t="shared" si="7"/>
-        <v>894308505.10054898</v>
+        <v>825260107.40573585</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" si="7"/>
-        <v>927567250.18249083</v>
+        <v>949950668.76160002</v>
       </c>
       <c r="J81" s="6">
         <f t="shared" si="7"/>
-        <v>960825995.2644304</v>
+        <v>1080413928.3810577</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="7"/>
-        <v>994084740.34653401</v>
+        <v>1216649886.2028105</v>
       </c>
       <c r="L81" s="6">
         <f t="shared" si="7"/>
-        <v>1027343485.4283229</v>
+        <v>1358658542.2659645</v>
       </c>
       <c r="M81" s="6">
         <f t="shared" si="7"/>
-        <v>1480078547.4297001</v>
+        <v>1506439896.6540098</v>
       </c>
       <c r="N81" s="6">
         <f t="shared" si="7"/>
-        <v>1539830533.5803998</v>
+        <v>1659993949.2052426</v>
       </c>
       <c r="O81" s="6">
         <f t="shared" si="7"/>
-        <v>1599582519.7309482</v>
+        <v>1819320700.0187471</v>
       </c>
       <c r="P81" s="6">
         <f t="shared" si="7"/>
-        <v>1659334505.8811688</v>
+        <v>1984420149.0749762</v>
       </c>
       <c r="Q81" s="6">
         <f t="shared" si="7"/>
-        <v>1719086492.0320213</v>
+        <v>2155292296.3739238</v>
       </c>
       <c r="R81" s="6">
         <f t="shared" si="7"/>
-        <v>2514473371.6438098</v>
+        <v>2331937141.957335</v>
       </c>
       <c r="S81" s="6">
         <f t="shared" si="7"/>
-        <v>2620686508.9606557</v>
+        <v>2514354685.7443619</v>
       </c>
       <c r="T81" s="6">
         <f t="shared" si="7"/>
-        <v>2726899646.2771983</v>
+        <v>2702544927.7323632</v>
       </c>
       <c r="U81" s="6">
         <f t="shared" si="7"/>
-        <v>2833112783.5930853</v>
+        <v>2896507868.085681</v>
       </c>
       <c r="V81" s="6">
         <f t="shared" si="7"/>
-        <v>2939325920.9102387</v>
+        <v>3096243506.5200167</v>
       </c>
       <c r="W81" s="6">
         <f t="shared" si="7"/>
-        <v>3532423840.802434</v>
+        <v>3301751843.3170309</v>
       </c>
       <c r="X81" s="6">
         <f t="shared" si="7"/>
-        <v>3669387595.9658585</v>
+        <v>3513032878.3594069</v>
       </c>
       <c r="Y81" s="6">
         <f t="shared" si="7"/>
-        <v>3806351351.1299348</v>
+        <v>3730086611.6053891</v>
       </c>
       <c r="Z81" s="6">
         <f t="shared" si="7"/>
-        <v>3943315106.2927485</v>
+        <v>3952913043.0106072</v>
       </c>
       <c r="AA81" s="6">
         <f t="shared" si="7"/>
-        <v>4080278861.4561772</v>
+        <v>4181512172.8202496</v>
       </c>
       <c r="AB81" s="6">
         <f t="shared" si="7"/>
-        <v>4747986488.9695063</v>
+        <v>4415884000.7943983</v>
       </c>
       <c r="AC81" s="6">
         <f t="shared" si="7"/>
-        <v>4918470909.7550306</v>
+        <v>4656028526.9277782</v>
       </c>
       <c r="AD81" s="6">
         <f t="shared" si="7"/>
-        <v>5088955330.5405502</v>
+        <v>4901945751.5073261</v>
       </c>
       <c r="AE81" s="6">
         <f t="shared" si="7"/>
-        <v>5259439751.3260775</v>
+        <v>5153635674.1705198</v>
       </c>
       <c r="AF81" s="6">
         <f t="shared" si="7"/>
-        <v>5429924172.112258</v>
+        <v>5411098295.0738153</v>
       </c>
       <c r="AG81" s="6">
         <f t="shared" si="7"/>
-        <v>5600408592.8971672</v>
+        <v>5674333614.3424091</v>
       </c>
       <c r="AH81" s="6">
         <f t="shared" si="7"/>
-        <v>5770893013.6826897</v>
+        <v>5943341631.7755213</v>
       </c>
       <c r="AI81" s="6">
         <f t="shared" si="7"/>
-        <v>5941377434.4688702</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+        <v>6218122347.367857</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A82" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="6">
         <f t="shared" ref="B82:Q85" si="8">B73/$B$2</f>
-        <v>1058520028.0030756</v>
+        <v>191085394.83042541</v>
       </c>
       <c r="C82" s="6">
         <f t="shared" si="8"/>
-        <v>1606559916.5805442</v>
+        <v>570728895.50225139</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="8"/>
-        <v>1630861713.7709665</v>
+        <v>957731982.82981169</v>
       </c>
       <c r="E82" s="6">
         <f t="shared" si="8"/>
-        <v>1655163510.9620652</v>
+        <v>1352094656.6456592</v>
       </c>
       <c r="F82" s="6">
         <f t="shared" si="8"/>
-        <v>1679465308.1528251</v>
+        <v>1753816916.2564676</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="8"/>
-        <v>1703767105.3435879</v>
+        <v>2162898762.5230122</v>
       </c>
       <c r="H82" s="6">
         <f t="shared" si="8"/>
-        <v>2665958469.2069798</v>
+        <v>2579340195.1036744</v>
       </c>
       <c r="I82" s="6">
         <f t="shared" si="8"/>
-        <v>2708359889.6142354</v>
+        <v>3003141213.9113607</v>
       </c>
       <c r="J82" s="6">
         <f t="shared" si="8"/>
-        <v>2750761310.0214834</v>
+        <v>3434301819.1185727</v>
       </c>
       <c r="K82" s="6">
         <f t="shared" si="8"/>
-        <v>2793162730.4294157</v>
+        <v>3872822010.4657278</v>
       </c>
       <c r="L82" s="6">
         <f t="shared" si="8"/>
-        <v>2835564150.8360047</v>
+        <v>4318701788.1236324</v>
       </c>
       <c r="M82" s="6">
         <f t="shared" si="8"/>
-        <v>4628182211.7294846</v>
+        <v>4771941152.4406395</v>
       </c>
       <c r="N82" s="6">
         <f t="shared" si="8"/>
-        <v>4704359742.7432909</v>
+        <v>5232540102.726778</v>
       </c>
       <c r="O82" s="6">
         <f t="shared" si="8"/>
-        <v>4780537273.7564344</v>
+        <v>5700498639.4107466</v>
       </c>
       <c r="P82" s="6">
         <f t="shared" si="8"/>
-        <v>4856714804.7682142</v>
+        <v>6175816762.4071674</v>
       </c>
       <c r="Q82" s="6">
         <f t="shared" si="8"/>
-        <v>4932892335.7826891</v>
+        <v>6658494471.716013</v>
       </c>
       <c r="R82" s="6">
         <f t="shared" si="7"/>
-        <v>8078421770.4110537</v>
+        <v>7148531767.5114622</v>
       </c>
       <c r="S82" s="6">
         <f t="shared" si="7"/>
-        <v>8213832408.3374271</v>
+        <v>7645928649.4485483</v>
       </c>
       <c r="T82" s="6">
         <f t="shared" si="7"/>
-        <v>8349243046.262475</v>
+        <v>8150685117.5238819</v>
       </c>
       <c r="U82" s="6">
         <f t="shared" si="7"/>
-        <v>8484653684.1847839</v>
+        <v>8662801172.430809</v>
       </c>
       <c r="V82" s="6">
         <f t="shared" si="7"/>
-        <v>8620064322.1125011</v>
+        <v>9182276812.960207</v>
       </c>
       <c r="W82" s="6">
         <f t="shared" si="7"/>
-        <v>10786945663.131109</v>
+        <v>9709112040.3178291</v>
       </c>
       <c r="X82" s="6">
         <f t="shared" si="7"/>
-        <v>10961560121.642162</v>
+        <v>10243306853.991264</v>
       </c>
       <c r="Y82" s="6">
         <f t="shared" si="7"/>
-        <v>11136174580.155943</v>
+        <v>10784861253.806299</v>
       </c>
       <c r="Z82" s="6">
         <f t="shared" si="7"/>
-        <v>11310789038.664328</v>
+        <v>11333775239.585436</v>
       </c>
       <c r="AA82" s="6">
         <f t="shared" si="7"/>
-        <v>11485403497.175402</v>
+        <v>11890048812.36697</v>
       </c>
       <c r="AB82" s="6">
         <f t="shared" si="7"/>
-        <v>13874485661.622061</v>
+        <v>12453681971.119328</v>
       </c>
       <c r="AC82" s="6">
         <f t="shared" si="7"/>
-        <v>14091835461.826611</v>
+        <v>13024674715.835768</v>
       </c>
       <c r="AD82" s="6">
         <f t="shared" si="7"/>
-        <v>14309185262.031143</v>
+        <v>13603027047.728785</v>
       </c>
       <c r="AE82" s="6">
         <f t="shared" si="7"/>
-        <v>14526535062.23571</v>
+        <v>14188738965.247595</v>
       </c>
       <c r="AF82" s="6">
         <f t="shared" si="7"/>
-        <v>14743884862.443001</v>
+        <v>14781810469.075548</v>
       </c>
       <c r="AG82" s="6">
         <f t="shared" si="7"/>
-        <v>14961234662.644863</v>
+        <v>15382241559.735016</v>
       </c>
       <c r="AH82" s="6">
         <f t="shared" si="7"/>
-        <v>15178584462.849411</v>
+        <v>15990032236.365362</v>
       </c>
       <c r="AI82" s="6">
         <f t="shared" si="7"/>
-        <v>15395934263.056702</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+        <v>16605182498.959753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A83" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="6">
         <f t="shared" si="8"/>
-        <v>143153978.00396717</v>
+        <v>82076691.708378464</v>
       </c>
       <c r="C83" s="6">
         <f t="shared" si="8"/>
-        <v>176719438.16721475</v>
+        <v>102409903.87468652</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="8"/>
-        <v>184264159.08515969</v>
+        <v>125027968.67095701</v>
       </c>
       <c r="E83" s="6">
         <f t="shared" si="8"/>
-        <v>191808880.00313994</v>
+        <v>149930886.08974716</v>
       </c>
       <c r="F83" s="6">
         <f t="shared" si="8"/>
-        <v>199353600.92110336</v>
+        <v>177118656.09398109</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="8"/>
-        <v>206898321.83906689</v>
+        <v>206591278.72817755</v>
       </c>
       <c r="H83" s="6">
         <f t="shared" si="8"/>
-        <v>265759917.8602055</v>
+        <v>238348753.97536394</v>
       </c>
       <c r="I83" s="6">
         <f t="shared" si="8"/>
-        <v>278923836.60196698</v>
+        <v>272391081.83077502</v>
       </c>
       <c r="J83" s="6">
         <f t="shared" si="8"/>
-        <v>292087755.34372795</v>
+        <v>308718262.30341929</v>
       </c>
       <c r="K83" s="6">
         <f t="shared" si="8"/>
-        <v>305251674.08552641</v>
+        <v>347330295.37952358</v>
       </c>
       <c r="L83" s="6">
         <f t="shared" si="8"/>
-        <v>318415592.82725471</v>
+        <v>388227181.06757396</v>
       </c>
       <c r="M83" s="6">
         <f t="shared" si="8"/>
-        <v>427343076.84885091</v>
+        <v>431408919.38663059</v>
       </c>
       <c r="N83" s="6">
         <f t="shared" si="8"/>
-        <v>450993105.98879135</v>
+        <v>476875510.30066079</v>
       </c>
       <c r="O83" s="6">
         <f t="shared" si="8"/>
-        <v>474643135.12869877</v>
+        <v>524626953.83140177</v>
       </c>
       <c r="P83" s="6">
         <f t="shared" si="8"/>
-        <v>498293164.26853156</v>
+        <v>574663249.97461176</v>
       </c>
       <c r="Q83" s="6">
         <f t="shared" si="8"/>
-        <v>521943193.40850514</v>
+        <v>626984398.7302891</v>
       </c>
       <c r="R83" s="6">
         <f t="shared" si="7"/>
-        <v>713533621.80492115</v>
+        <v>681590400.10796428</v>
       </c>
       <c r="S83" s="6">
         <f t="shared" si="7"/>
-        <v>755573124.66349077</v>
+        <v>738481254.08962214</v>
       </c>
       <c r="T83" s="6">
         <f t="shared" si="7"/>
-        <v>797612627.52199423</v>
+        <v>797656960.67421722</v>
       </c>
       <c r="U83" s="6">
         <f t="shared" si="7"/>
-        <v>839652130.38034785</v>
+        <v>859117519.89882684</v>
       </c>
       <c r="V83" s="6">
         <f t="shared" si="7"/>
-        <v>881691633.23898423</v>
+        <v>922862931.6998719</v>
       </c>
       <c r="W83" s="6">
         <f t="shared" si="7"/>
-        <v>1034883591.6219234</v>
+        <v>988893196.13988757</v>
       </c>
       <c r="X83" s="6">
         <f t="shared" si="7"/>
-        <v>1089094288.3603525</v>
+        <v>1057208313.1934156</v>
       </c>
       <c r="Y83" s="6">
         <f t="shared" si="7"/>
-        <v>1143304985.0989301</v>
+        <v>1127808282.8509243</v>
       </c>
       <c r="Z83" s="6">
         <f t="shared" si="7"/>
-        <v>1197515681.8372266</v>
+        <v>1200693105.1018417</v>
       </c>
       <c r="AA83" s="6">
         <f t="shared" si="7"/>
-        <v>1251726378.5756564</v>
+        <v>1275862780.0012596</v>
       </c>
       <c r="AB83" s="6">
         <f t="shared" si="7"/>
-        <v>1427102260.1328843</v>
+        <v>1353317307.4961736</v>
       </c>
       <c r="AC83" s="6">
         <f t="shared" si="7"/>
-        <v>1494580544.6089716</v>
+        <v>1433056687.5844948</v>
       </c>
       <c r="AD83" s="6">
         <f t="shared" si="7"/>
-        <v>1562058829.085058</v>
+        <v>1515080920.3308475</v>
       </c>
       <c r="AE83" s="6">
         <f t="shared" si="7"/>
-        <v>1629537113.5611463</v>
+        <v>1599390005.6546769</v>
       </c>
       <c r="AF83" s="6">
         <f t="shared" si="7"/>
-        <v>1697015398.0373843</v>
+        <v>1685983943.5899348</v>
       </c>
       <c r="AG83" s="6">
         <f t="shared" si="7"/>
-        <v>1764493682.5133379</v>
+        <v>1774862734.1652031</v>
       </c>
       <c r="AH83" s="6">
         <f t="shared" si="7"/>
-        <v>1831971966.9894257</v>
+        <v>1866026377.3359697</v>
       </c>
       <c r="AI83" s="6">
         <f t="shared" si="7"/>
-        <v>1899450251.4656627</v>
-      </c>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+        <v>1959474873.1001425</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A84" s="57" t="s">
         <v>15</v>
       </c>
       <c r="B84" s="6">
         <f t="shared" si="8"/>
-        <v>464304354.21554506</v>
+        <v>228125723.427302</v>
       </c>
       <c r="C84" s="6">
         <f t="shared" si="8"/>
-        <v>600631041.65789402</v>
+        <v>315073594.52557069</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="8"/>
-        <v>622217963.61234343</v>
+        <v>408558875.83889914</v>
       </c>
       <c r="E84" s="6">
         <f t="shared" si="8"/>
-        <v>643804885.56694555</v>
+        <v>508581567.33285242</v>
       </c>
       <c r="F84" s="6">
         <f t="shared" si="8"/>
-        <v>665391807.52147341</v>
+        <v>615141668.84878969</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="8"/>
-        <v>686978729.47600174</v>
+        <v>728239180.57978714</v>
       </c>
       <c r="H84" s="6">
         <f t="shared" si="8"/>
-        <v>926149494.01600993</v>
+        <v>847874102.45100343</v>
       </c>
       <c r="I84" s="6">
         <f t="shared" si="8"/>
-        <v>963814039.80690491</v>
+        <v>974046434.4422338</v>
       </c>
       <c r="J84" s="6">
         <f t="shared" si="8"/>
-        <v>1001478585.5977979</v>
+        <v>1106756176.5923936</v>
       </c>
       <c r="K84" s="6">
         <f t="shared" si="8"/>
-        <v>1039143131.3888495</v>
+        <v>1246003328.842365</v>
       </c>
       <c r="L84" s="6">
         <f t="shared" si="8"/>
-        <v>1076807677.1795983</v>
+        <v>1391787891.2295682</v>
       </c>
       <c r="M84" s="6">
         <f t="shared" si="8"/>
-        <v>1520510284.9409244</v>
+        <v>1544109863.8348184</v>
       </c>
       <c r="N84" s="6">
         <f t="shared" si="8"/>
-        <v>1588177643.1928453</v>
+        <v>1702969246.502459</v>
       </c>
       <c r="O84" s="6">
         <f t="shared" si="8"/>
-        <v>1655845001.4446213</v>
+        <v>1868366039.3275328</v>
       </c>
       <c r="P84" s="6">
         <f t="shared" si="8"/>
-        <v>1723512359.6960809</v>
+        <v>2040300242.2913363</v>
       </c>
       <c r="Q84" s="6">
         <f t="shared" si="8"/>
-        <v>1791179717.9481483</v>
+        <v>2218771855.3938632</v>
       </c>
       <c r="R84" s="6">
         <f t="shared" si="7"/>
-        <v>2570915325.1356416</v>
+        <v>2403780878.6755204</v>
       </c>
       <c r="S84" s="6">
         <f t="shared" si="7"/>
-        <v>2691198563.8509631</v>
+        <v>2595327312.0584869</v>
       </c>
       <c r="T84" s="6">
         <f t="shared" si="7"/>
-        <v>2811481802.5659933</v>
+        <v>2793411155.5397677</v>
       </c>
       <c r="U84" s="6">
         <f t="shared" si="7"/>
-        <v>2931765041.2803888</v>
+        <v>2998032409.2780094</v>
       </c>
       <c r="V84" s="6">
         <f t="shared" si="7"/>
-        <v>3052048279.9960041</v>
+        <v>3209191072.999321</v>
       </c>
       <c r="W84" s="6">
         <f t="shared" si="7"/>
-        <v>3643618562.9278398</v>
+        <v>3426887146.974606</v>
       </c>
       <c r="X84" s="6">
         <f t="shared" si="7"/>
-        <v>3798725967.4716978</v>
+        <v>3651120631.0916066</v>
       </c>
       <c r="Y84" s="6">
         <f t="shared" si="7"/>
-        <v>3953833372.0161853</v>
+        <v>3881891525.3099055</v>
       </c>
       <c r="Z84" s="6">
         <f t="shared" si="7"/>
-        <v>4108940776.5594583</v>
+        <v>4119199829.5861197</v>
       </c>
       <c r="AA84" s="6">
         <f t="shared" si="7"/>
-        <v>4264048181.1033192</v>
+        <v>4363045544.1567144</v>
       </c>
       <c r="AB84" s="6">
         <f t="shared" si="7"/>
-        <v>4932896659.0747538</v>
+        <v>4613428668.791194</v>
       </c>
       <c r="AC84" s="6">
         <f t="shared" si="7"/>
-        <v>5125965226.6797628</v>
+        <v>4870349203.4835844</v>
       </c>
       <c r="AD84" s="6">
         <f t="shared" si="7"/>
-        <v>5319033794.2847652</v>
+        <v>5133807148.5107622</v>
       </c>
       <c r="AE84" s="6">
         <f t="shared" si="7"/>
-        <v>5512102361.8897772</v>
+        <v>5403802503.5239878</v>
       </c>
       <c r="AF84" s="6">
         <f t="shared" si="7"/>
-        <v>5705170929.4954224</v>
+        <v>5680335268.6729698</v>
       </c>
       <c r="AG84" s="6">
         <f t="shared" si="7"/>
-        <v>5898239497.0998421</v>
+        <v>5963405444.0788937</v>
       </c>
       <c r="AH84" s="6">
         <f t="shared" si="7"/>
-        <v>6091308064.7048502</v>
+        <v>6253013029.5487156</v>
       </c>
       <c r="AI84" s="6">
         <f t="shared" si="7"/>
-        <v>6284376632.3104935</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+        <v>6549158025.0764408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A85" s="57" t="s">
         <v>16</v>
       </c>
       <c r="B85" s="6">
         <f t="shared" si="8"/>
-        <v>285210583.44498038</v>
+        <v>131795843.78363682</v>
       </c>
       <c r="C85" s="6">
         <f t="shared" si="8"/>
-        <v>374963934.47210169</v>
+        <v>189802581.40597671</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="8"/>
-        <v>387593019.95406812</v>
+        <v>251633926.94378018</v>
       </c>
       <c r="E85" s="6">
         <f t="shared" si="8"/>
-        <v>400222105.43613666</v>
+        <v>317289880.37364125</v>
       </c>
       <c r="F85" s="6">
         <f t="shared" si="8"/>
-        <v>412851190.91815525</v>
+        <v>386770441.58970714</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="8"/>
-        <v>425480276.40017426</v>
+        <v>460075610.72123688</v>
       </c>
       <c r="H85" s="6">
         <f t="shared" si="8"/>
-        <v>582961118.30933082</v>
+        <v>537205387.71792459</v>
       </c>
       <c r="I85" s="6">
         <f t="shared" si="8"/>
-        <v>604996162.0009048</v>
+        <v>618159772.56631947</v>
       </c>
       <c r="J85" s="6">
         <f t="shared" si="8"/>
-        <v>627031205.69247758</v>
+        <v>702938765.29244936</v>
       </c>
       <c r="K85" s="6">
         <f t="shared" si="8"/>
-        <v>649066249.38415611</v>
+        <v>791542365.85683703</v>
       </c>
       <c r="L85" s="6">
         <f t="shared" si="8"/>
-        <v>671101293.07563186</v>
+        <v>883970574.28463495</v>
       </c>
       <c r="M85" s="6">
         <f t="shared" si="8"/>
-        <v>963447430.43024623</v>
+        <v>980223390.62964404</v>
       </c>
       <c r="N85" s="6">
         <f t="shared" si="8"/>
-        <v>1003035142.5416027</v>
+        <v>1080300814.7877579</v>
       </c>
       <c r="O85" s="6">
         <f t="shared" si="8"/>
-        <v>1042622854.6528616</v>
+        <v>1184202846.822731</v>
       </c>
       <c r="P85" s="6">
         <f t="shared" si="8"/>
-        <v>1082210566.7639098</v>
+        <v>1291929486.7219911</v>
       </c>
       <c r="Q85" s="6">
         <f t="shared" si="8"/>
-        <v>1121798278.8753645</v>
+        <v>1403480734.4855344</v>
       </c>
       <c r="R85" s="6">
         <f t="shared" si="7"/>
-        <v>1635430089.7060108</v>
+        <v>1518856590.1402607</v>
       </c>
       <c r="S85" s="6">
         <f t="shared" si="7"/>
-        <v>1705799886.1499069</v>
+        <v>1638057053.6341207</v>
       </c>
       <c r="T85" s="6">
         <f t="shared" si="7"/>
-        <v>1776169682.5936079</v>
+        <v>1761082124.9653628</v>
       </c>
       <c r="U85" s="6">
         <f t="shared" si="7"/>
-        <v>1846539479.0368865</v>
+        <v>1887931804.2398429</v>
       </c>
       <c r="V85" s="6">
         <f t="shared" si="7"/>
-        <v>1916909275.4809802</v>
+        <v>2018606091.2745011</v>
       </c>
       <c r="W85" s="6">
         <f t="shared" si="7"/>
-        <v>2301028270.0497169</v>
+        <v>2153104986.250649</v>
       </c>
       <c r="X85" s="6">
         <f t="shared" si="7"/>
-        <v>2391771391.0469904</v>
+        <v>2291428489.0928307</v>
       </c>
       <c r="Y85" s="6">
         <f t="shared" si="7"/>
-        <v>2482514512.0446844</v>
+        <v>2433576599.7741408</v>
       </c>
       <c r="Z85" s="6">
         <f t="shared" si="7"/>
-        <v>2573257633.0415649</v>
+        <v>2579549318.2659359</v>
       </c>
       <c r="AA85" s="6">
         <f t="shared" si="7"/>
-        <v>2664000754.0388417</v>
+        <v>2729346644.7261224</v>
       </c>
       <c r="AB85" s="6">
         <f t="shared" si="7"/>
-        <v>3096755928.6448865</v>
+        <v>2882968579.0002871</v>
       </c>
       <c r="AC85" s="6">
         <f t="shared" si="7"/>
-        <v>3209707624.5518203</v>
+        <v>3040415121.0849357</v>
       </c>
       <c r="AD85" s="6">
         <f t="shared" si="7"/>
-        <v>3322659320.4587522</v>
+        <v>3201686271.164876</v>
       </c>
       <c r="AE85" s="6">
         <f t="shared" si="7"/>
-        <v>3435611016.3656893</v>
+        <v>3366782029.0067339</v>
       </c>
       <c r="AF85" s="6">
         <f t="shared" si="7"/>
-        <v>3548562712.2730465</v>
+        <v>3535702394.7111421</v>
       </c>
       <c r="AG85" s="6">
         <f t="shared" si="7"/>
-        <v>3661514408.179585</v>
+        <v>3708447368.3587751</v>
       </c>
       <c r="AH85" s="6">
         <f t="shared" si="7"/>
-        <v>3774466104.0865192</v>
+        <v>3885016949.820395</v>
       </c>
       <c r="AI85" s="6">
         <f t="shared" si="7"/>
-        <v>3887417799.9938769</v>
+        <v>4065411139.0924935</v>
       </c>
     </row>
   </sheetData>
@@ -17159,24 +18095,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="4" width="8.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="4" width="8.59765625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" s="57" t="s">
         <v>168</v>
       </c>
@@ -17292,7 +18228,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -17445,7 +18381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -17598,7 +18534,7 @@
         <v>4536731635.2802124</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -17751,7 +18687,7 @@
         <v>20436215808.044544</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -17904,7 +18840,7 @@
         <v>3510811455.8281054</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -18057,7 +18993,7 @@
         <v>18410331313.886311</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>

--- a/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
+++ b/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="170">
   <si>
     <t>BASoBC BAU Amount Spent on Building Components</t>
   </si>
@@ -557,6 +557,9 @@
   <si>
     <t>$</t>
   </si>
+  <si>
+    <t>The EPS does not handle changes in envelope costs.</t>
+  </si>
 </sst>
 </file>
 
@@ -1003,7 +1006,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1079,7 +1081,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="#,##0.0000000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2462,9 +2463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2734,6 +2737,11 @@
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
+++ b/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\bldgs\BASoBC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\bldgs\BASoBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2764,8 +2764,8 @@
   </sheetPr>
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3202,152 +3202,115 @@
         <v>13</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>10715659161.443731</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" si="1"/>
-        <v>10715659161.443731</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="1"/>
-        <v>10715659161.443731</v>
-      </c>
-      <c r="E4" s="9">
-        <f>'Calculations 2'!B54</f>
-        <v>10715659161.443731</v>
-      </c>
-      <c r="F4" s="9">
-        <f>'Calculations 2'!C54</f>
-        <v>11326161436.261013</v>
-      </c>
-      <c r="G4" s="9">
-        <f>'Calculations 2'!D54</f>
-        <v>11407010441.858749</v>
-      </c>
-      <c r="H4" s="9">
-        <f>'Calculations 2'!E54</f>
-        <v>11487859447.456543</v>
-      </c>
-      <c r="I4" s="9">
-        <f>'Calculations 2'!F54</f>
-        <v>11568708453.056213</v>
-      </c>
-      <c r="J4" s="9">
-        <f>'Calculations 2'!G54</f>
-        <v>11649557458.652225</v>
-      </c>
-      <c r="K4" s="9">
-        <f>'Calculations 2'!H54</f>
-        <v>10409819281.321047</v>
-      </c>
-      <c r="L4" s="9">
-        <f>'Calculations 2'!I54</f>
-        <v>10465183271.108898</v>
-      </c>
-      <c r="M4" s="9">
-        <f>'Calculations 2'!J54</f>
-        <v>10520547260.896711</v>
-      </c>
-      <c r="N4" s="9">
-        <f>'Calculations 2'!K54</f>
-        <v>10575911250.682663</v>
-      </c>
-      <c r="O4" s="9">
-        <f>'Calculations 2'!L54</f>
-        <v>10631275240.469624</v>
-      </c>
-      <c r="P4" s="9">
-        <f>'Calculations 2'!M54</f>
-        <v>11082249866.901928</v>
-      </c>
-      <c r="Q4" s="9">
-        <f>'Calculations 2'!N54</f>
-        <v>11145248447.920527</v>
-      </c>
-      <c r="R4" s="9">
-        <f>'Calculations 2'!O54</f>
-        <v>11208247028.940842</v>
-      </c>
-      <c r="S4" s="9">
-        <f>'Calculations 2'!P54</f>
-        <v>11271245609.961275</v>
-      </c>
-      <c r="T4" s="9">
-        <f>'Calculations 2'!Q54</f>
-        <v>11334244190.982561</v>
-      </c>
-      <c r="U4" s="9">
-        <f>'Calculations 2'!R54</f>
-        <v>9967189772.424593</v>
-      </c>
-      <c r="V4" s="9">
-        <f>'Calculations 2'!S54</f>
-        <v>10002590839.419001</v>
-      </c>
-      <c r="W4" s="9">
-        <f>'Calculations 2'!T54</f>
-        <v>10037991906.412886</v>
-      </c>
-      <c r="X4" s="9">
-        <f>'Calculations 2'!U54</f>
-        <v>10073392973.405933</v>
-      </c>
-      <c r="Y4" s="9">
-        <f>'Calculations 2'!V54</f>
-        <v>10108794040.399818</v>
-      </c>
-      <c r="Z4" s="9">
-        <f>'Calculations 2'!W54</f>
-        <v>10422492427.940308</v>
-      </c>
-      <c r="AA4" s="9">
-        <f>'Calculations 2'!X54</f>
-        <v>10463264144.978514</v>
-      </c>
-      <c r="AB4" s="9">
-        <f>'Calculations 2'!Y54</f>
-        <v>10504035862.018518</v>
-      </c>
-      <c r="AC4" s="9">
-        <f>'Calculations 2'!Z54</f>
-        <v>10544807579.056726</v>
-      </c>
-      <c r="AD4" s="9">
-        <f>'Calculations 2'!AA54</f>
-        <v>10585579296.096727</v>
-      </c>
-      <c r="AE4" s="9">
-        <f>'Calculations 2'!AB54</f>
-        <v>9178701156.3222847</v>
-      </c>
-      <c r="AF4" s="9">
-        <f>'Calculations 2'!AC54</f>
-        <v>9191535770.8617306</v>
-      </c>
-      <c r="AG4" s="9">
-        <f>'Calculations 2'!AD54</f>
-        <v>9204370385.4006977</v>
-      </c>
-      <c r="AH4" s="9">
-        <f>'Calculations 2'!AE54</f>
-        <v>9217204999.9400826</v>
-      </c>
-      <c r="AI4" s="9">
-        <f>'Calculations 2'!AF54</f>
-        <v>9230039614.4791088</v>
-      </c>
-      <c r="AJ4" s="9">
-        <f>'Calculations 2'!AG54</f>
-        <v>9242874229.0185528</v>
-      </c>
-      <c r="AK4" s="9">
-        <f>'Calculations 2'!AH54</f>
-        <v>9255708843.5577621</v>
-      </c>
-      <c r="AL4" s="9">
-        <f>'Calculations 2'!AI54</f>
-        <v>9268543458.0967274</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.45">
@@ -3821,8 +3784,8 @@
   </sheetPr>
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AL3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4258,152 +4221,115 @@
         <v>13</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>191085394.83042541</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" si="1"/>
-        <v>191085394.83042541</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="1"/>
-        <v>191085394.83042541</v>
-      </c>
-      <c r="E4" s="9">
-        <f>'Calculations 2'!B82</f>
-        <v>191085394.83042541</v>
-      </c>
-      <c r="F4" s="9">
-        <f>'Calculations 2'!C82</f>
-        <v>570728895.50225139</v>
-      </c>
-      <c r="G4" s="9">
-        <f>'Calculations 2'!D82</f>
-        <v>957731982.82981169</v>
-      </c>
-      <c r="H4" s="9">
-        <f>'Calculations 2'!E82</f>
-        <v>1352094656.6456592</v>
-      </c>
-      <c r="I4" s="9">
-        <f>'Calculations 2'!F82</f>
-        <v>1753816916.2564676</v>
-      </c>
-      <c r="J4" s="9">
-        <f>'Calculations 2'!G82</f>
-        <v>2162898762.5230122</v>
-      </c>
-      <c r="K4" s="9">
-        <f>'Calculations 2'!H82</f>
-        <v>2579340195.1036744</v>
-      </c>
-      <c r="L4" s="9">
-        <f>'Calculations 2'!I82</f>
-        <v>3003141213.9113607</v>
-      </c>
-      <c r="M4" s="9">
-        <f>'Calculations 2'!J82</f>
-        <v>3434301819.1185727</v>
-      </c>
-      <c r="N4" s="9">
-        <f>'Calculations 2'!K82</f>
-        <v>3872822010.4657278</v>
-      </c>
-      <c r="O4" s="9">
-        <f>'Calculations 2'!L82</f>
-        <v>4318701788.1236324</v>
-      </c>
-      <c r="P4" s="9">
-        <f>'Calculations 2'!M82</f>
-        <v>4771941152.4406395</v>
-      </c>
-      <c r="Q4" s="9">
-        <f>'Calculations 2'!N82</f>
-        <v>5232540102.726778</v>
-      </c>
-      <c r="R4" s="9">
-        <f>'Calculations 2'!O82</f>
-        <v>5700498639.4107466</v>
-      </c>
-      <c r="S4" s="9">
-        <f>'Calculations 2'!P82</f>
-        <v>6175816762.4071674</v>
-      </c>
-      <c r="T4" s="9">
-        <f>'Calculations 2'!Q82</f>
-        <v>6658494471.716013</v>
-      </c>
-      <c r="U4" s="9">
-        <f>'Calculations 2'!R82</f>
-        <v>7148531767.5114622</v>
-      </c>
-      <c r="V4" s="9">
-        <f>'Calculations 2'!S82</f>
-        <v>7645928649.4485483</v>
-      </c>
-      <c r="W4" s="9">
-        <f>'Calculations 2'!T82</f>
-        <v>8150685117.5238819</v>
-      </c>
-      <c r="X4" s="9">
-        <f>'Calculations 2'!U82</f>
-        <v>8662801172.430809</v>
-      </c>
-      <c r="Y4" s="9">
-        <f>'Calculations 2'!V82</f>
-        <v>9182276812.960207</v>
-      </c>
-      <c r="Z4" s="9">
-        <f>'Calculations 2'!W82</f>
-        <v>9709112040.3178291</v>
-      </c>
-      <c r="AA4" s="9">
-        <f>'Calculations 2'!X82</f>
-        <v>10243306853.991264</v>
-      </c>
-      <c r="AB4" s="9">
-        <f>'Calculations 2'!Y82</f>
-        <v>10784861253.806299</v>
-      </c>
-      <c r="AC4" s="9">
-        <f>'Calculations 2'!Z82</f>
-        <v>11333775239.585436</v>
-      </c>
-      <c r="AD4" s="9">
-        <f>'Calculations 2'!AA82</f>
-        <v>11890048812.36697</v>
-      </c>
-      <c r="AE4" s="9">
-        <f>'Calculations 2'!AB82</f>
-        <v>12453681971.119328</v>
-      </c>
-      <c r="AF4" s="9">
-        <f>'Calculations 2'!AC82</f>
-        <v>13024674715.835768</v>
-      </c>
-      <c r="AG4" s="9">
-        <f>'Calculations 2'!AD82</f>
-        <v>13603027047.728785</v>
-      </c>
-      <c r="AH4" s="9">
-        <f>'Calculations 2'!AE82</f>
-        <v>14188738965.247595</v>
-      </c>
-      <c r="AI4" s="9">
-        <f>'Calculations 2'!AF82</f>
-        <v>14781810469.075548</v>
-      </c>
-      <c r="AJ4" s="9">
-        <f>'Calculations 2'!AG82</f>
-        <v>15382241559.735016</v>
-      </c>
-      <c r="AK4" s="9">
-        <f>'Calculations 2'!AH82</f>
-        <v>15990032236.365362</v>
-      </c>
-      <c r="AL4" s="9">
-        <f>'Calculations 2'!AI82</f>
-        <v>16605182498.959753</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.45">
@@ -18109,8 +18035,8 @@
   </sheetPr>
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18547,152 +18473,115 @@
         <v>13</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>9688694120.3146515</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" si="1"/>
-        <v>9688694120.3146515</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="1"/>
-        <v>9688694120.3146515</v>
+        <v>0</v>
       </c>
       <c r="E4" s="6">
-        <f>'Calculations 2'!B26</f>
-        <v>9688694120.3146515</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
-        <f>'Calculations 2'!C26</f>
-        <v>11046263268.022633</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6">
-        <f>'Calculations 2'!D26</f>
-        <v>11191601556.120682</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6">
-        <f>'Calculations 2'!E26</f>
-        <v>11336939844.218761</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f>'Calculations 2'!F26</f>
-        <v>11482278132.31678</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6">
-        <f>'Calculations 2'!G26</f>
-        <v>11627616420.412987</v>
+        <v>0</v>
       </c>
       <c r="K4" s="6">
-        <f>'Calculations 2'!H26</f>
-        <v>12081492179.399916</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6">
-        <f>'Calculations 2'!I26</f>
-        <v>12232784699.390432</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6">
-        <f>'Calculations 2'!J26</f>
-        <v>12384077219.380913</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6">
-        <f>'Calculations 2'!K26</f>
-        <v>12535369739.375048</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6">
-        <f>'Calculations 2'!L26</f>
-        <v>12686662259.365498</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6">
-        <f>'Calculations 2'!M26</f>
-        <v>14232213991.858164</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6">
-        <f>'Calculations 2'!N26</f>
-        <v>14410413268.584698</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6">
-        <f>'Calculations 2'!O26</f>
-        <v>14588612545.305826</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6">
-        <f>'Calculations 2'!P26</f>
-        <v>14766811822.030603</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6">
-        <f>'Calculations 2'!Q26</f>
-        <v>14945011098.758945</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6">
-        <f>'Calculations 2'!R26</f>
-        <v>15316632588.201284</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6">
-        <f>'Calculations 2'!S26</f>
-        <v>15498564574.297993</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6">
-        <f>'Calculations 2'!T26</f>
-        <v>15680496560.394772</v>
+        <v>0</v>
       </c>
       <c r="X4" s="6">
-        <f>'Calculations 2'!U26</f>
-        <v>15862428546.484306</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="6">
-        <f>'Calculations 2'!V26</f>
-        <v>16044360532.577337</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="6">
-        <f>'Calculations 2'!W26</f>
-        <v>17782621236.860752</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="6">
-        <f>'Calculations 2'!X26</f>
-        <v>17994587636.813656</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="6">
-        <f>'Calculations 2'!Y26</f>
-        <v>18206554036.76656</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="6">
-        <f>'Calculations 2'!Z26</f>
-        <v>18418520436.723152</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="6">
-        <f>'Calculations 2'!AA26</f>
-        <v>18630486836.672443</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="6">
-        <f>'Calculations 2'!AB26</f>
-        <v>18939360083.451763</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="6">
-        <f>'Calculations 2'!AC26</f>
-        <v>19153196615.54015</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="6">
-        <f>'Calculations 2'!AD26</f>
-        <v>19367033147.62112</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="6">
-        <f>'Calculations 2'!AE26</f>
-        <v>19580869679.709507</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="6">
-        <f>'Calculations 2'!AF26</f>
-        <v>19794706211.790478</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="6">
-        <f>'Calculations 2'!AG26</f>
-        <v>20008542743.878811</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="6">
-        <f>'Calculations 2'!AH26</f>
-        <v>20222379275.963581</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="6">
-        <f>'Calculations 2'!AI26</f>
-        <v>20436215808.044544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.45">

--- a/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
+++ b/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\bldgs\BASoBC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Downloads\eps-india-3.1.3.4 - LG\eps-india-3.1.3.4\InputData - LG\bldgs\BASoBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E65B4EE-3999-4870-BC92-5EBD7F2FDD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -36,12 +37,15 @@
     <definedName name="Preferences.AreaUnits">[2]Preferences!$C$7</definedName>
     <definedName name="Unit.m2">[2]Conversions!$F$77</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -564,7 +568,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -917,9 +921,6 @@
     <xf numFmtId="1" fontId="13" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -963,20 +964,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="A - bold" xfId="8"/>
-    <cellStyle name="A - bottom border" xfId="11"/>
-    <cellStyle name="A - header 2 2" xfId="10"/>
-    <cellStyle name="A - normal" xfId="9"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="3"/>
+    <cellStyle name="A - bold" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="A - bottom border" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="A - header 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="A - normal" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="5"/>
-    <cellStyle name="Table title" xfId="1"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1151,28 +1155,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.5035115580063982E-2</c:v>
+                  <c:v>7.4686437845010639E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3970251998047552E-2</c:v>
+                  <c:v>8.9629089574557189E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12684881276416166</c:v>
+                  <c:v>0.11143153280914476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18421484485167577</c:v>
+                  <c:v>0.14315847316548483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2872774933779334</c:v>
+                  <c:v>0.19120997529072631</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47047821933449213</c:v>
+                  <c:v>0.26398624190817477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70671885782441357</c:v>
+                  <c:v>0.35545181955264299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0007772995698385</c:v>
+                  <c:v>0.47393337216346249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,7 +1941,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2252,6 +2262,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2287,6 +2314,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2462,20 +2506,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="83.59765625" customWidth="1"/>
-    <col min="4" max="4" width="69.86328125" customWidth="1"/>
+    <col min="2" max="2" width="83.6328125" customWidth="1"/>
+    <col min="4" max="4" width="69.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2529,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2495,7 +2539,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>39</v>
@@ -2503,7 +2547,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="5">
         <v>2015</v>
@@ -2511,7 +2555,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>38</v>
@@ -2519,38 +2563,38 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
@@ -2558,7 +2602,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
@@ -2567,13 +2611,13 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>56</v>
@@ -2581,7 +2625,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
         <v>39</v>
@@ -2589,7 +2633,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="5">
         <v>2015</v>
@@ -2597,7 +2641,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
         <v>57</v>
@@ -2605,7 +2649,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="10" t="s">
         <v>58</v>
@@ -2613,7 +2657,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>59</v>
@@ -2621,7 +2665,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>69</v>
@@ -2629,128 +2673,128 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="48" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>2008</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
         <v>2014</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
-    <hyperlink ref="B31" r:id="rId4"/>
-    <hyperlink ref="B38" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -2758,7 +2802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2768,24 +2812,24 @@
       <selection activeCell="B4" sqref="B4:AL4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="8.59765625" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="24.81640625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="8.6328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="57">
+      <c r="B1" s="56">
         <v>2014</v>
       </c>
-      <c r="C1" s="57">
+      <c r="C1" s="56">
         <v>2015</v>
       </c>
-      <c r="D1" s="57">
+      <c r="D1" s="56">
         <v>2016</v>
       </c>
       <c r="E1" s="7">
@@ -2891,7 +2935,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -3044,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -3197,7 +3241,7 @@
         <v>623687348.02427864</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -3313,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -3466,7 +3510,7 @@
         <v>1353709724.9118495</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -3619,7 +3663,7 @@
         <v>2344362581.3172245</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -3778,7 +3822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3788,23 +3832,23 @@
       <selection activeCell="B4" sqref="B4:AL4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="4" width="8.59765625" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="4" width="8.6328125" style="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="57">
+      <c r="B1" s="56">
         <v>2014</v>
       </c>
-      <c r="C1" s="57">
+      <c r="C1" s="56">
         <v>2015</v>
       </c>
-      <c r="D1" s="57">
+      <c r="D1" s="56">
         <v>2016</v>
       </c>
       <c r="E1" s="7">
@@ -3910,7 +3954,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -4063,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -4216,7 +4260,7 @@
         <v>6218122347.367857</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -4332,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -4485,7 +4529,7 @@
         <v>1959474873.1001425</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -4638,7 +4682,7 @@
         <v>6549158025.0764408</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -4797,25 +4841,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I35:I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="40" width="9.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.1328125" style="1"/>
+    <col min="16" max="40" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
@@ -4832,7 +4876,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4849,7 +4893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="22" t="s">
         <v>45</v>
@@ -4888,7 +4932,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="26"/>
       <c r="B4" s="27" t="s">
         <v>6</v>
@@ -4921,7 +4965,7 @@
       </c>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="31" t="s">
         <v>7</v>
@@ -4954,12 +4998,12 @@
       </c>
       <c r="M5" s="34"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>2012</v>
       </c>
@@ -5078,7 +5122,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -5239,326 +5283,326 @@
         <v>244.50886199386878</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <f>B9*10^6</f>
         <v>74294156.627517626</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <f t="shared" ref="C10:AN10" si="2">C9*10^6</f>
         <v>77398198.516624689</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <f t="shared" si="2"/>
         <v>80502240.405732661</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <f t="shared" si="2"/>
         <v>83606282.294840634</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <f t="shared" si="2"/>
         <v>86710324.183948621</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="46">
         <f t="shared" si="2"/>
         <v>89814366.073055685</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="46">
         <f t="shared" si="2"/>
         <v>93527909.287950933</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="46">
         <f t="shared" si="2"/>
         <v>97241452.502846181</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="46">
         <f t="shared" si="2"/>
         <v>100954995.71774144</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="46">
         <f t="shared" si="2"/>
         <v>104668538.93263669</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="46">
         <f t="shared" si="2"/>
         <v>108382082.14753103</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="46">
         <f t="shared" si="2"/>
         <v>112247762.13065434</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="46">
         <f t="shared" si="2"/>
         <v>116113442.11377673</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="46">
         <f t="shared" si="2"/>
         <v>119979122.09689821</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="46">
         <f t="shared" si="2"/>
         <v>123844802.08002061</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="46">
         <f t="shared" si="2"/>
         <v>127710482.06314208</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="46">
         <f t="shared" si="2"/>
         <v>132263657.4420485</v>
       </c>
-      <c r="S10" s="47">
+      <c r="S10" s="46">
         <f t="shared" si="2"/>
         <v>136816832.82095581</v>
       </c>
-      <c r="T10" s="47">
+      <c r="T10" s="46">
         <f t="shared" si="2"/>
         <v>141370008.19986132</v>
       </c>
-      <c r="U10" s="47">
+      <c r="U10" s="46">
         <f t="shared" si="2"/>
         <v>145923183.57876685</v>
       </c>
-      <c r="V10" s="47">
+      <c r="V10" s="46">
         <f t="shared" si="2"/>
         <v>150476358.95767418</v>
       </c>
-      <c r="W10" s="47">
+      <c r="W10" s="46">
         <f t="shared" si="2"/>
         <v>155124908.91219386</v>
       </c>
-      <c r="X10" s="47">
+      <c r="X10" s="46">
         <f t="shared" si="2"/>
         <v>159773458.86671537</v>
       </c>
-      <c r="Y10" s="47">
+      <c r="Y10" s="46">
         <f t="shared" si="2"/>
         <v>164422008.8212387</v>
       </c>
-      <c r="Z10" s="47">
+      <c r="Z10" s="46">
         <f t="shared" si="2"/>
         <v>169070558.77576023</v>
       </c>
-      <c r="AA10" s="47">
+      <c r="AA10" s="46">
         <f t="shared" si="2"/>
         <v>173719108.73028174</v>
       </c>
-      <c r="AB10" s="47">
+      <c r="AB10" s="46">
         <f t="shared" si="2"/>
         <v>179135068.9471783</v>
       </c>
-      <c r="AC10" s="47">
+      <c r="AC10" s="46">
         <f t="shared" si="2"/>
         <v>184551029.16407487</v>
       </c>
-      <c r="AD10" s="47">
+      <c r="AD10" s="46">
         <f t="shared" si="2"/>
         <v>189966989.38097143</v>
       </c>
-      <c r="AE10" s="47">
+      <c r="AE10" s="46">
         <f t="shared" si="2"/>
         <v>195382949.59786981</v>
       </c>
-      <c r="AF10" s="47">
+      <c r="AF10" s="46">
         <f t="shared" si="2"/>
         <v>200798909.81476638</v>
       </c>
-      <c r="AG10" s="47">
+      <c r="AG10" s="46">
         <f t="shared" si="2"/>
         <v>206262653.83715326</v>
       </c>
-      <c r="AH10" s="47">
+      <c r="AH10" s="46">
         <f t="shared" si="2"/>
         <v>211726397.85954198</v>
       </c>
-      <c r="AI10" s="47">
+      <c r="AI10" s="46">
         <f t="shared" si="2"/>
         <v>217190141.88192886</v>
       </c>
-      <c r="AJ10" s="47">
+      <c r="AJ10" s="46">
         <f t="shared" si="2"/>
         <v>222653885.90431759</v>
       </c>
-      <c r="AK10" s="47">
+      <c r="AK10" s="46">
         <f t="shared" si="2"/>
         <v>228117629.92670447</v>
       </c>
-      <c r="AL10" s="47">
+      <c r="AL10" s="46">
         <f t="shared" si="2"/>
         <v>233581373.94909316</v>
       </c>
-      <c r="AM10" s="47">
+      <c r="AM10" s="46">
         <f t="shared" si="2"/>
         <v>239045117.97148189</v>
       </c>
-      <c r="AN10" s="47">
+      <c r="AN10" s="46">
         <f t="shared" si="2"/>
         <v>244508861.99386877</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="35"/>
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <f>C10-B10</f>
         <v>3104041.8891070634</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <f t="shared" ref="D11" si="3">D10-C10</f>
         <v>3104041.8891079724</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <f t="shared" ref="E11" si="4">E10-D10</f>
         <v>3104041.8891079724</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <f t="shared" ref="F11" si="5">F10-E10</f>
         <v>3104041.8891079873</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="46">
         <f t="shared" ref="G11" si="6">G10-F10</f>
         <v>3104041.8891070634</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="46">
         <f t="shared" ref="H11" si="7">H10-G10</f>
         <v>3713543.2148952484</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="46">
         <f t="shared" ref="I11" si="8">I10-H10</f>
         <v>3713543.2148952484</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="46">
         <f t="shared" ref="J11" si="9">J10-I10</f>
         <v>3713543.2148952633</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="46">
         <f t="shared" ref="K11" si="10">K10-J10</f>
         <v>3713543.2148952484</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="46">
         <f t="shared" ref="L11" si="11">L10-K10</f>
         <v>3713543.2148943394</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="46">
         <f t="shared" ref="M11" si="12">M10-L10</f>
         <v>3865679.9831233025</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="46">
         <f t="shared" ref="N11" si="13">N10-M10</f>
         <v>3865679.9831223935</v>
       </c>
-      <c r="O11" s="47">
+      <c r="O11" s="46">
         <f t="shared" ref="O11" si="14">O10-N10</f>
         <v>3865679.9831214845</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <f t="shared" ref="P11" si="15">P10-O10</f>
         <v>3865679.9831223935</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f t="shared" ref="Q11" si="16">Q10-P10</f>
         <v>3865679.9831214696</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="46">
         <f t="shared" ref="R11" si="17">R10-Q10</f>
         <v>4553175.3789064288</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S11" s="46">
         <f t="shared" ref="S11" si="18">S10-R10</f>
         <v>4553175.378907308</v>
       </c>
-      <c r="T11" s="47">
+      <c r="T11" s="46">
         <f t="shared" ref="T11" si="19">T10-S10</f>
         <v>4553175.3789055049</v>
       </c>
-      <c r="U11" s="47">
+      <c r="U11" s="46">
         <f t="shared" ref="U11" si="20">U10-T10</f>
         <v>4553175.3789055347</v>
       </c>
-      <c r="V11" s="47">
+      <c r="V11" s="46">
         <f t="shared" ref="V11" si="21">V10-U10</f>
         <v>4553175.3789073229</v>
       </c>
-      <c r="W11" s="47">
+      <c r="W11" s="46">
         <f t="shared" ref="W11" si="22">W10-V10</f>
         <v>4648549.9545196891</v>
       </c>
-      <c r="X11" s="47">
+      <c r="X11" s="46">
         <f t="shared" ref="X11" si="23">X10-W10</f>
         <v>4648549.954521507</v>
       </c>
-      <c r="Y11" s="47">
+      <c r="Y11" s="46">
         <f t="shared" ref="Y11" si="24">Y10-X10</f>
         <v>4648549.954523325</v>
       </c>
-      <c r="Z11" s="47">
+      <c r="Z11" s="46">
         <f t="shared" ref="Z11" si="25">Z10-Y10</f>
         <v>4648549.9545215368</v>
       </c>
-      <c r="AA11" s="47">
+      <c r="AA11" s="46">
         <f t="shared" ref="AA11" si="26">AA10-Z10</f>
         <v>4648549.954521507</v>
       </c>
-      <c r="AB11" s="47">
+      <c r="AB11" s="46">
         <f t="shared" ref="AB11" si="27">AB10-AA10</f>
         <v>5415960.2168965638</v>
       </c>
-      <c r="AC11" s="47">
+      <c r="AC11" s="46">
         <f t="shared" ref="AC11" si="28">AC10-AB10</f>
         <v>5415960.2168965638</v>
       </c>
-      <c r="AD11" s="47">
+      <c r="AD11" s="46">
         <f t="shared" ref="AD11" si="29">AD10-AC10</f>
         <v>5415960.2168965638</v>
       </c>
-      <c r="AE11" s="47">
+      <c r="AE11" s="46">
         <f t="shared" ref="AE11" si="30">AE10-AD10</f>
         <v>5415960.2168983817</v>
       </c>
-      <c r="AF11" s="47">
+      <c r="AF11" s="46">
         <f t="shared" ref="AF11" si="31">AF10-AE10</f>
         <v>5415960.2168965638</v>
       </c>
-      <c r="AG11" s="47">
+      <c r="AG11" s="46">
         <f t="shared" ref="AG11" si="32">AG10-AF10</f>
         <v>5463744.0223868787</v>
       </c>
-      <c r="AH11" s="47">
+      <c r="AH11" s="46">
         <f t="shared" ref="AH11" si="33">AH10-AG10</f>
         <v>5463744.0223887265</v>
       </c>
-      <c r="AI11" s="47">
+      <c r="AI11" s="46">
         <f t="shared" ref="AI11" si="34">AI10-AH10</f>
         <v>5463744.0223868787</v>
       </c>
-      <c r="AJ11" s="47">
+      <c r="AJ11" s="46">
         <f t="shared" ref="AJ11" si="35">AJ10-AI10</f>
         <v>5463744.0223887265</v>
       </c>
-      <c r="AK11" s="47">
+      <c r="AK11" s="46">
         <f t="shared" ref="AK11" si="36">AK10-AJ10</f>
         <v>5463744.0223868787</v>
       </c>
-      <c r="AL11" s="47">
+      <c r="AL11" s="46">
         <f t="shared" ref="AL11" si="37">AL10-AK10</f>
         <v>5463744.0223886967</v>
       </c>
-      <c r="AM11" s="47">
+      <c r="AM11" s="46">
         <f t="shared" ref="AM11" si="38">AM10-AL10</f>
         <v>5463744.0223887265</v>
       </c>
-      <c r="AN11" s="47">
+      <c r="AN11" s="46">
         <f t="shared" ref="AN11" si="39">AN10-AM10</f>
         <v>5463744.0223868787</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -5599,7 +5643,7 @@
       <c r="AM12" s="35"/>
       <c r="AN12" s="35"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -5760,325 +5804,325 @@
         <v>220.15565344890638</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <f>B13*10^6</f>
         <v>173353032.13087401</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <f t="shared" ref="C14:AN14" si="42">C13*10^6</f>
         <v>175152501.62527356</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <f t="shared" si="42"/>
         <v>176951971.1196731</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="46">
         <f t="shared" si="42"/>
         <v>178751440.61407262</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="46">
         <f t="shared" si="42"/>
         <v>180550910.10847217</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="46">
         <f t="shared" si="42"/>
         <v>182350379.60287172</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="46">
         <f t="shared" si="42"/>
         <v>184416155.11253077</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="46">
         <f t="shared" si="42"/>
         <v>186481930.62218979</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="46">
         <f t="shared" si="42"/>
         <v>188547706.13184881</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="46">
         <f t="shared" si="42"/>
         <v>190613481.64150876</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="46">
         <f t="shared" si="42"/>
         <v>192679257.15116781</v>
       </c>
-      <c r="M14" s="47">
+      <c r="M14" s="46">
         <f t="shared" si="42"/>
         <v>194093864.21248063</v>
       </c>
-      <c r="N14" s="47">
+      <c r="N14" s="46">
         <f t="shared" si="42"/>
         <v>195508471.27379394</v>
       </c>
-      <c r="O14" s="47">
+      <c r="O14" s="46">
         <f t="shared" si="42"/>
         <v>196923078.33510768</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="46">
         <f t="shared" si="42"/>
         <v>198337685.39642096</v>
       </c>
-      <c r="Q14" s="47">
+      <c r="Q14" s="46">
         <f t="shared" si="42"/>
         <v>199752292.45773426</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="46">
         <f t="shared" si="42"/>
         <v>201361971.20211682</v>
       </c>
-      <c r="S14" s="47">
+      <c r="S14" s="46">
         <f t="shared" si="42"/>
         <v>202971649.94649848</v>
       </c>
-      <c r="T14" s="47">
+      <c r="T14" s="46">
         <f t="shared" si="42"/>
         <v>204581328.69088012</v>
       </c>
-      <c r="U14" s="47">
+      <c r="U14" s="46">
         <f t="shared" si="42"/>
         <v>206191007.43526179</v>
       </c>
-      <c r="V14" s="47">
+      <c r="V14" s="46">
         <f t="shared" si="42"/>
         <v>207800686.1796439</v>
       </c>
-      <c r="W14" s="47">
+      <c r="W14" s="46">
         <f t="shared" si="42"/>
         <v>208705219.9666723</v>
       </c>
-      <c r="X14" s="47">
+      <c r="X14" s="46">
         <f t="shared" si="42"/>
         <v>209609753.75370118</v>
       </c>
-      <c r="Y14" s="47">
+      <c r="Y14" s="46">
         <f t="shared" si="42"/>
         <v>210514287.54073027</v>
       </c>
-      <c r="Z14" s="47">
+      <c r="Z14" s="46">
         <f t="shared" si="42"/>
         <v>211418821.32775915</v>
       </c>
-      <c r="AA14" s="47">
+      <c r="AA14" s="46">
         <f t="shared" si="42"/>
         <v>212323355.11478823</v>
       </c>
-      <c r="AB14" s="47">
+      <c r="AB14" s="46">
         <f t="shared" si="42"/>
         <v>213365114.55169648</v>
       </c>
-      <c r="AC14" s="47">
+      <c r="AC14" s="46">
         <f t="shared" si="42"/>
         <v>214406873.98860428</v>
       </c>
-      <c r="AD14" s="47">
+      <c r="AD14" s="46">
         <f t="shared" si="42"/>
         <v>215448633.42551252</v>
       </c>
-      <c r="AE14" s="47">
+      <c r="AE14" s="46">
         <f t="shared" si="42"/>
         <v>216490392.86242032</v>
       </c>
-      <c r="AF14" s="47">
+      <c r="AF14" s="46">
         <f t="shared" si="42"/>
         <v>217532152.29932857</v>
       </c>
-      <c r="AG14" s="47">
+      <c r="AG14" s="46">
         <f t="shared" si="42"/>
         <v>217860089.94302574</v>
       </c>
-      <c r="AH14" s="47">
+      <c r="AH14" s="46">
         <f t="shared" si="42"/>
         <v>218188027.58672303</v>
       </c>
-      <c r="AI14" s="47">
+      <c r="AI14" s="46">
         <f t="shared" si="42"/>
         <v>218515965.2304202</v>
       </c>
-      <c r="AJ14" s="47">
+      <c r="AJ14" s="46">
         <f t="shared" si="42"/>
         <v>218843902.87411746</v>
       </c>
-      <c r="AK14" s="47">
+      <c r="AK14" s="46">
         <f t="shared" si="42"/>
         <v>219171840.51781464</v>
       </c>
-      <c r="AL14" s="47">
+      <c r="AL14" s="46">
         <f t="shared" si="42"/>
         <v>219499778.16151193</v>
       </c>
-      <c r="AM14" s="47">
+      <c r="AM14" s="46">
         <f t="shared" si="42"/>
         <v>219827715.80520922</v>
       </c>
-      <c r="AN14" s="47">
+      <c r="AN14" s="46">
         <f t="shared" si="42"/>
         <v>220155653.44890639</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="46">
         <f>C14-B14</f>
         <v>1799469.4943995476</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <f t="shared" ref="D15:AN15" si="43">D14-C14</f>
         <v>1799469.4943995476</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <f t="shared" si="43"/>
         <v>1799469.4943995178</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="46">
         <f t="shared" si="43"/>
         <v>1799469.4943995476</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="46">
         <f t="shared" si="43"/>
         <v>1799469.4943995476</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="46">
         <f t="shared" si="43"/>
         <v>2065775.5096590519</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="46">
         <f t="shared" si="43"/>
         <v>2065775.5096590221</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="46">
         <f t="shared" si="43"/>
         <v>2065775.5096590221</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="46">
         <f t="shared" si="43"/>
         <v>2065775.509659946</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="46">
         <f t="shared" si="43"/>
         <v>2065775.5096590519</v>
       </c>
-      <c r="M15" s="47">
+      <c r="M15" s="46">
         <f t="shared" si="43"/>
         <v>1414607.0613128245</v>
       </c>
-      <c r="N15" s="47">
+      <c r="N15" s="46">
         <f t="shared" si="43"/>
         <v>1414607.0613133013</v>
       </c>
-      <c r="O15" s="47">
+      <c r="O15" s="46">
         <f t="shared" si="43"/>
         <v>1414607.0613137484</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <f t="shared" si="43"/>
         <v>1414607.0613132715</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="46">
         <f t="shared" si="43"/>
         <v>1414607.0613133013</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="46">
         <f t="shared" si="43"/>
         <v>1609678.7443825603</v>
       </c>
-      <c r="S15" s="47">
+      <c r="S15" s="46">
         <f t="shared" si="43"/>
         <v>1609678.7443816662</v>
       </c>
-      <c r="T15" s="47">
+      <c r="T15" s="46">
         <f t="shared" si="43"/>
         <v>1609678.7443816364</v>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="46">
         <f t="shared" si="43"/>
         <v>1609678.7443816662</v>
       </c>
-      <c r="V15" s="47">
+      <c r="V15" s="46">
         <f t="shared" si="43"/>
         <v>1609678.7443821132</v>
       </c>
-      <c r="W15" s="47">
+      <c r="W15" s="46">
         <f t="shared" si="43"/>
         <v>904533.78702840209</v>
       </c>
-      <c r="X15" s="47">
+      <c r="X15" s="46">
         <f t="shared" si="43"/>
         <v>904533.78702887893</v>
       </c>
-      <c r="Y15" s="47">
+      <c r="Y15" s="46">
         <f t="shared" si="43"/>
         <v>904533.78702908754</v>
       </c>
-      <c r="Z15" s="47">
+      <c r="Z15" s="46">
         <f t="shared" si="43"/>
         <v>904533.78702887893</v>
       </c>
-      <c r="AA15" s="47">
+      <c r="AA15" s="46">
         <f t="shared" si="43"/>
         <v>904533.78702908754</v>
       </c>
-      <c r="AB15" s="47">
+      <c r="AB15" s="46">
         <f t="shared" si="43"/>
         <v>1041759.4369082451</v>
       </c>
-      <c r="AC15" s="47">
+      <c r="AC15" s="46">
         <f t="shared" si="43"/>
         <v>1041759.4369077981</v>
       </c>
-      <c r="AD15" s="47">
+      <c r="AD15" s="46">
         <f t="shared" si="43"/>
         <v>1041759.4369082451</v>
       </c>
-      <c r="AE15" s="47">
+      <c r="AE15" s="46">
         <f t="shared" si="43"/>
         <v>1041759.4369077981</v>
       </c>
-      <c r="AF15" s="47">
+      <c r="AF15" s="46">
         <f t="shared" si="43"/>
         <v>1041759.4369082451</v>
       </c>
-      <c r="AG15" s="47">
+      <c r="AG15" s="46">
         <f t="shared" si="43"/>
         <v>327937.6436971724</v>
       </c>
-      <c r="AH15" s="47">
+      <c r="AH15" s="46">
         <f t="shared" si="43"/>
         <v>327937.64369729161</v>
       </c>
-      <c r="AI15" s="47">
+      <c r="AI15" s="46">
         <f t="shared" si="43"/>
         <v>327937.6436971724</v>
       </c>
-      <c r="AJ15" s="47">
+      <c r="AJ15" s="46">
         <f t="shared" si="43"/>
         <v>327937.64369726181</v>
       </c>
-      <c r="AK15" s="47">
+      <c r="AK15" s="46">
         <f t="shared" si="43"/>
         <v>327937.6436971724</v>
       </c>
-      <c r="AL15" s="47">
+      <c r="AL15" s="46">
         <f t="shared" si="43"/>
         <v>327937.64369729161</v>
       </c>
-      <c r="AM15" s="47">
+      <c r="AM15" s="46">
         <f t="shared" si="43"/>
         <v>327937.64369729161</v>
       </c>
-      <c r="AN15" s="47">
+      <c r="AN15" s="46">
         <f t="shared" si="43"/>
         <v>327937.6436971724</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
         <v>48</v>
       </c>
@@ -6098,7 +6142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>45</v>
       </c>
@@ -6138,7 +6182,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="41" t="s">
         <v>52</v>
       </c>
@@ -6147,124 +6191,124 @@
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="42">
-        <v>0.61709163788298604</v>
-      </c>
-      <c r="H20" s="42">
-        <v>0.72644671063087862</v>
-      </c>
-      <c r="I20" s="42">
-        <v>0.91680800500124393</v>
-      </c>
-      <c r="J20" s="42">
-        <v>1.2674168428745958</v>
-      </c>
-      <c r="K20" s="42">
-        <v>1.8728108469644267</v>
-      </c>
-      <c r="L20" s="42">
-        <v>2.9549878534997931</v>
-      </c>
-      <c r="M20" s="42">
-        <v>4.2584222964583089</v>
-      </c>
-      <c r="N20" s="42">
-        <v>5.8725104119963625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A22" s="43" t="s">
+      <c r="G20" s="65">
+        <v>0.61422409895865659</v>
+      </c>
+      <c r="H20" s="65">
+        <v>0.69288690743992332</v>
+      </c>
+      <c r="I20" s="65">
+        <v>0.80537861618714401</v>
+      </c>
+      <c r="J20" s="65">
+        <v>0.98494483566857749</v>
+      </c>
+      <c r="K20" s="65">
+        <v>1.2465303548898861</v>
+      </c>
+      <c r="L20" s="65">
+        <v>1.6580494192338158</v>
+      </c>
+      <c r="M20" s="65">
+        <v>2.1418191080387508</v>
+      </c>
+      <c r="N20" s="65">
+        <v>2.7810169793207402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A22" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43">
         <v>1215947696.8037</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="43">
         <v>1293560155.5197299</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="43">
         <v>1383591897.89131</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="43">
         <v>1453466914.90909</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="43">
         <v>1533937577.53791</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="43">
         <v>1592149418.74388</v>
       </c>
-      <c r="M22" s="44">
+      <c r="M22" s="43">
         <v>1659579084.9869099</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="43">
         <v>1704172882.39362</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A23" s="43" t="s">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A23" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44">
-        <v>7.5035115580063982E-2</v>
-      </c>
-      <c r="H23" s="44">
-        <v>9.3970251998047552E-2</v>
-      </c>
-      <c r="I23" s="44">
-        <v>0.12684881276416166</v>
-      </c>
-      <c r="J23" s="44">
-        <v>0.18421484485167577</v>
-      </c>
-      <c r="K23" s="44">
-        <v>0.2872774933779334</v>
-      </c>
-      <c r="L23" s="44">
-        <v>0.47047821933449213</v>
-      </c>
-      <c r="M23" s="44">
-        <v>0.70671885782441357</v>
-      </c>
-      <c r="N23" s="44">
-        <v>1.0007772995698385</v>
-      </c>
-      <c r="O23" s="47"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43">
+        <v>7.4686437845010639E-2</v>
+      </c>
+      <c r="H23" s="43">
+        <v>8.9629089574557189E-2</v>
+      </c>
+      <c r="I23" s="43">
+        <v>0.11143153280914476</v>
+      </c>
+      <c r="J23" s="43">
+        <v>0.14315847316548483</v>
+      </c>
+      <c r="K23" s="43">
+        <v>0.19120997529072631</v>
+      </c>
+      <c r="L23" s="43">
+        <v>0.26398624190817477</v>
+      </c>
+      <c r="M23" s="43">
+        <v>0.35545181955264299</v>
+      </c>
+      <c r="N23" s="43">
+        <v>0.47393337216346249</v>
+      </c>
+      <c r="O23" s="46"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>2012</v>
       </c>
@@ -6383,481 +6427,481 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="45">
         <f>0.0009956984*B26^2-4.0161162101*B26+4049.792860899</f>
         <v>9.7549947400693782E-2</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="45">
         <f t="shared" ref="C27:AN27" si="44">0.0009956984*C26^2-4.0161162101*C26+4049.792860899</f>
         <v>8.9119797300554637E-2</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="45">
         <f t="shared" si="44"/>
         <v>8.2681044000310067E-2</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="45">
         <f t="shared" si="44"/>
         <v>7.8233687500869564E-2</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="45">
         <f t="shared" si="44"/>
         <v>7.5777727800414141E-2</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="45">
         <f t="shared" si="44"/>
         <v>7.5313164901217533E-2</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="45">
         <f t="shared" si="44"/>
         <v>7.6839998800551257E-2</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="45">
         <f t="shared" si="44"/>
         <v>8.0358229500234302E-2</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="45">
         <f t="shared" si="44"/>
         <v>8.5867857001176162E-2</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="45">
         <f t="shared" si="44"/>
         <v>9.3368881300648354E-2</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="45">
         <f t="shared" si="44"/>
         <v>0.10286130240046987</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="45">
         <f t="shared" si="44"/>
         <v>0.1143451203006407</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="45">
         <f t="shared" si="44"/>
         <v>0.12782033500070611</v>
       </c>
-      <c r="O27" s="46">
+      <c r="O27" s="45">
         <f t="shared" si="44"/>
         <v>0.14328694650112084</v>
       </c>
-      <c r="P27" s="46">
+      <c r="P27" s="45">
         <f t="shared" si="44"/>
         <v>0.16074495480097539</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="45">
         <f t="shared" si="44"/>
         <v>0.18019435990026977</v>
       </c>
-      <c r="R27" s="46">
+      <c r="R27" s="45">
         <f t="shared" si="44"/>
         <v>0.20163516180082297</v>
       </c>
-      <c r="S27" s="46">
+      <c r="S27" s="45">
         <f t="shared" si="44"/>
         <v>0.22506736050081599</v>
       </c>
-      <c r="T27" s="46">
+      <c r="T27" s="45">
         <f t="shared" si="44"/>
         <v>0.25049095600070359</v>
       </c>
-      <c r="U27" s="46">
+      <c r="U27" s="45">
         <f t="shared" si="44"/>
         <v>0.27790594830048576</v>
       </c>
-      <c r="V27" s="46">
+      <c r="V27" s="45">
         <f t="shared" si="44"/>
         <v>0.30731233740016251</v>
       </c>
-      <c r="W27" s="46">
+      <c r="W27" s="45">
         <f t="shared" si="44"/>
         <v>0.33871012330064332</v>
       </c>
-      <c r="X27" s="46">
+      <c r="X27" s="45">
         <f t="shared" si="44"/>
         <v>0.3720993060010187</v>
       </c>
-      <c r="Y27" s="46">
+      <c r="Y27" s="45">
         <f t="shared" si="44"/>
         <v>0.40747988550037917</v>
       </c>
-      <c r="Z27" s="46">
+      <c r="Z27" s="45">
         <f t="shared" si="44"/>
         <v>0.4448518618014532</v>
       </c>
-      <c r="AA27" s="46">
+      <c r="AA27" s="45">
         <f t="shared" si="44"/>
         <v>0.48421523490060281</v>
       </c>
-      <c r="AB27" s="46">
+      <c r="AB27" s="45">
         <f t="shared" si="44"/>
         <v>0.52557000480055649</v>
       </c>
-      <c r="AC27" s="46">
+      <c r="AC27" s="45">
         <f t="shared" si="44"/>
         <v>0.56891617150131424</v>
       </c>
-      <c r="AD27" s="46">
+      <c r="AD27" s="45">
         <f t="shared" si="44"/>
         <v>0.61425373500196656</v>
       </c>
-      <c r="AE27" s="46">
+      <c r="AE27" s="45">
         <f t="shared" si="44"/>
         <v>0.66158269530069447</v>
       </c>
-      <c r="AF27" s="46">
+      <c r="AF27" s="45">
         <f t="shared" si="44"/>
         <v>0.71090305240113594</v>
       </c>
-      <c r="AG27" s="46">
+      <c r="AG27" s="45">
         <f t="shared" si="44"/>
         <v>0.76221480630147198</v>
       </c>
-      <c r="AH27" s="46">
+      <c r="AH27" s="45">
         <f t="shared" si="44"/>
         <v>0.81551795699988361</v>
       </c>
-      <c r="AI27" s="46">
+      <c r="AI27" s="45">
         <f t="shared" si="44"/>
         <v>0.87081250450091829</v>
       </c>
-      <c r="AJ27" s="46">
+      <c r="AJ27" s="45">
         <f t="shared" si="44"/>
         <v>0.92809844880093806</v>
       </c>
-      <c r="AK27" s="46">
+      <c r="AK27" s="45">
         <f t="shared" si="44"/>
         <v>0.9873757898999429</v>
       </c>
-      <c r="AL27" s="46">
+      <c r="AL27" s="45">
         <f t="shared" si="44"/>
         <v>1.0486445278006613</v>
       </c>
-      <c r="AM27" s="46">
+      <c r="AM27" s="45">
         <f t="shared" si="44"/>
         <v>1.1119046625012743</v>
       </c>
-      <c r="AN27" s="46">
+      <c r="AN27" s="45">
         <f t="shared" si="44"/>
         <v>1.1771561939999629</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="46">
         <f>B27*10^10</f>
         <v>975499474.00693786</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="46">
         <f t="shared" ref="C28:AN28" si="45">C27*10^10</f>
         <v>891197973.00554633</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="46">
         <f t="shared" si="45"/>
         <v>826810440.00310063</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="46">
         <f t="shared" si="45"/>
         <v>782336875.0086956</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="46">
         <f t="shared" si="45"/>
         <v>757777278.00414145</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="46">
         <f t="shared" si="45"/>
         <v>753131649.01217532</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="46">
         <f t="shared" si="45"/>
         <v>768399988.0055126</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="46">
         <f t="shared" si="45"/>
         <v>803582295.00234306</v>
       </c>
-      <c r="J28" s="47">
+      <c r="J28" s="46">
         <f t="shared" si="45"/>
         <v>858678570.01176167</v>
       </c>
-      <c r="K28" s="47">
+      <c r="K28" s="46">
         <f t="shared" si="45"/>
         <v>933688813.00648355</v>
       </c>
-      <c r="L28" s="47">
+      <c r="L28" s="46">
         <f t="shared" si="45"/>
         <v>1028613024.0046986</v>
       </c>
-      <c r="M28" s="47">
+      <c r="M28" s="46">
         <f t="shared" si="45"/>
         <v>1143451203.006407</v>
       </c>
-      <c r="N28" s="47">
+      <c r="N28" s="46">
         <f t="shared" si="45"/>
         <v>1278203350.007061</v>
       </c>
-      <c r="O28" s="47">
+      <c r="O28" s="46">
         <f t="shared" si="45"/>
         <v>1432869465.0112083</v>
       </c>
-      <c r="P28" s="47">
+      <c r="P28" s="46">
         <f t="shared" si="45"/>
         <v>1607449548.0097539</v>
       </c>
-      <c r="Q28" s="47">
+      <c r="Q28" s="46">
         <f t="shared" si="45"/>
         <v>1801943599.0026977</v>
       </c>
-      <c r="R28" s="47">
+      <c r="R28" s="46">
         <f t="shared" si="45"/>
         <v>2016351618.0082297</v>
       </c>
-      <c r="S28" s="47">
+      <c r="S28" s="46">
         <f t="shared" si="45"/>
         <v>2250673605.0081601</v>
       </c>
-      <c r="T28" s="47">
+      <c r="T28" s="46">
         <f t="shared" si="45"/>
         <v>2504909560.0070357</v>
       </c>
-      <c r="U28" s="47">
+      <c r="U28" s="46">
         <f t="shared" si="45"/>
         <v>2779059483.0048575</v>
       </c>
-      <c r="V28" s="47">
+      <c r="V28" s="46">
         <f t="shared" si="45"/>
         <v>3073123374.0016251</v>
       </c>
-      <c r="W28" s="47">
+      <c r="W28" s="46">
         <f t="shared" si="45"/>
         <v>3387101233.006433</v>
       </c>
-      <c r="X28" s="47">
+      <c r="X28" s="46">
         <f t="shared" si="45"/>
         <v>3720993060.0101871</v>
       </c>
-      <c r="Y28" s="47">
+      <c r="Y28" s="46">
         <f t="shared" si="45"/>
         <v>4074798855.0037918</v>
       </c>
-      <c r="Z28" s="47">
+      <c r="Z28" s="46">
         <f t="shared" si="45"/>
         <v>4448518618.0145321</v>
       </c>
-      <c r="AA28" s="47">
+      <c r="AA28" s="46">
         <f t="shared" si="45"/>
         <v>4842152349.0060282</v>
       </c>
-      <c r="AB28" s="47">
+      <c r="AB28" s="46">
         <f t="shared" si="45"/>
         <v>5255700048.0055647</v>
       </c>
-      <c r="AC28" s="47">
+      <c r="AC28" s="46">
         <f t="shared" si="45"/>
         <v>5689161715.0131426</v>
       </c>
-      <c r="AD28" s="47">
+      <c r="AD28" s="46">
         <f t="shared" si="45"/>
         <v>6142537350.0196657</v>
       </c>
-      <c r="AE28" s="47">
+      <c r="AE28" s="46">
         <f t="shared" si="45"/>
         <v>6615826953.0069447</v>
       </c>
-      <c r="AF28" s="47">
+      <c r="AF28" s="46">
         <f t="shared" si="45"/>
         <v>7109030524.0113592</v>
       </c>
-      <c r="AG28" s="47">
+      <c r="AG28" s="46">
         <f t="shared" si="45"/>
         <v>7622148063.01472</v>
       </c>
-      <c r="AH28" s="47">
+      <c r="AH28" s="46">
         <f t="shared" si="45"/>
         <v>8155179569.9988365</v>
       </c>
-      <c r="AI28" s="47">
+      <c r="AI28" s="46">
         <f t="shared" si="45"/>
         <v>8708125045.0091839</v>
       </c>
-      <c r="AJ28" s="47">
+      <c r="AJ28" s="46">
         <f t="shared" si="45"/>
         <v>9280984488.0093803</v>
       </c>
-      <c r="AK28" s="47">
+      <c r="AK28" s="46">
         <f t="shared" si="45"/>
         <v>9873757898.9994297</v>
       </c>
-      <c r="AL28" s="47">
+      <c r="AL28" s="46">
         <f t="shared" si="45"/>
         <v>10486445278.006613</v>
       </c>
-      <c r="AM28" s="47">
+      <c r="AM28" s="46">
         <f t="shared" si="45"/>
         <v>11119046625.012743</v>
       </c>
-      <c r="AN28" s="47">
+      <c r="AN28" s="46">
         <f t="shared" si="45"/>
         <v>11771561939.999628</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="46">
         <f>C28-B28</f>
         <v>-84301501.00139153</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="46">
         <f t="shared" ref="D29:AN29" si="46">D28-C28</f>
         <v>-64387533.002445698</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="46">
         <f t="shared" si="46"/>
         <v>-44473564.994405031</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="46">
         <f t="shared" si="46"/>
         <v>-24559597.004554152</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="46">
         <f t="shared" si="46"/>
         <v>-4645628.9919661283</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="46">
         <f t="shared" si="46"/>
         <v>15268338.993337274</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="46">
         <f t="shared" si="46"/>
         <v>35182306.996830463</v>
       </c>
-      <c r="J29" s="47">
+      <c r="J29" s="46">
         <f t="shared" si="46"/>
         <v>55096275.009418607</v>
       </c>
-      <c r="K29" s="47">
+      <c r="K29" s="46">
         <f t="shared" si="46"/>
         <v>75010242.994721889</v>
       </c>
-      <c r="L29" s="47">
+      <c r="L29" s="46">
         <f t="shared" si="46"/>
         <v>94924210.998215079</v>
       </c>
-      <c r="M29" s="47">
+      <c r="M29" s="46">
         <f t="shared" si="46"/>
         <v>114838179.00170839</v>
       </c>
-      <c r="N29" s="47">
+      <c r="N29" s="46">
         <f t="shared" si="46"/>
         <v>134752147.00065398</v>
       </c>
-      <c r="O29" s="47">
+      <c r="O29" s="46">
         <f t="shared" si="46"/>
         <v>154666115.00414729</v>
       </c>
-      <c r="P29" s="47">
+      <c r="P29" s="46">
         <f t="shared" si="46"/>
         <v>174580082.99854565</v>
       </c>
-      <c r="Q29" s="47">
+      <c r="Q29" s="46">
         <f t="shared" si="46"/>
         <v>194494050.99294376</v>
       </c>
-      <c r="R29" s="47">
+      <c r="R29" s="46">
         <f t="shared" si="46"/>
         <v>214408019.00553203</v>
       </c>
-      <c r="S29" s="47">
+      <c r="S29" s="46">
         <f t="shared" si="46"/>
         <v>234321986.99993038</v>
       </c>
-      <c r="T29" s="47">
+      <c r="T29" s="46">
         <f t="shared" si="46"/>
         <v>254235954.99887562</v>
       </c>
-      <c r="U29" s="47">
+      <c r="U29" s="46">
         <f t="shared" si="46"/>
         <v>274149922.99782181</v>
       </c>
-      <c r="V29" s="47">
+      <c r="V29" s="46">
         <f t="shared" si="46"/>
         <v>294063890.99676752</v>
       </c>
-      <c r="W29" s="47">
+      <c r="W29" s="46">
         <f t="shared" si="46"/>
         <v>313977859.00480795</v>
       </c>
-      <c r="X29" s="47">
+      <c r="X29" s="46">
         <f t="shared" si="46"/>
         <v>333891827.00375414</v>
       </c>
-      <c r="Y29" s="47">
+      <c r="Y29" s="46">
         <f t="shared" si="46"/>
         <v>353805794.99360466</v>
       </c>
-      <c r="Z29" s="47">
+      <c r="Z29" s="46">
         <f t="shared" si="46"/>
         <v>373719763.01074028</v>
       </c>
-      <c r="AA29" s="47">
+      <c r="AA29" s="46">
         <f t="shared" si="46"/>
         <v>393633730.99149609</v>
       </c>
-      <c r="AB29" s="47">
+      <c r="AB29" s="46">
         <f t="shared" si="46"/>
         <v>413547698.99953651</v>
       </c>
-      <c r="AC29" s="47">
+      <c r="AC29" s="46">
         <f t="shared" si="46"/>
         <v>433461667.0075779</v>
       </c>
-      <c r="AD29" s="47">
+      <c r="AD29" s="46">
         <f t="shared" si="46"/>
         <v>453375635.00652313</v>
       </c>
-      <c r="AE29" s="47">
+      <c r="AE29" s="46">
         <f t="shared" si="46"/>
         <v>473289602.98727894</v>
       </c>
-      <c r="AF29" s="47">
+      <c r="AF29" s="46">
         <f t="shared" si="46"/>
         <v>493203571.00441456</v>
       </c>
-      <c r="AG29" s="47">
+      <c r="AG29" s="46">
         <f t="shared" si="46"/>
         <v>513117539.00336075</v>
       </c>
-      <c r="AH29" s="47">
+      <c r="AH29" s="46">
         <f t="shared" si="46"/>
         <v>533031506.98411655</v>
       </c>
-      <c r="AI29" s="47">
+      <c r="AI29" s="46">
         <f t="shared" si="46"/>
         <v>552945475.01034737</v>
       </c>
-      <c r="AJ29" s="47">
+      <c r="AJ29" s="46">
         <f t="shared" si="46"/>
         <v>572859443.00019646</v>
       </c>
-      <c r="AK29" s="47">
+      <c r="AK29" s="46">
         <f t="shared" si="46"/>
         <v>592773410.99004936</v>
       </c>
-      <c r="AL29" s="47">
+      <c r="AL29" s="46">
         <f t="shared" si="46"/>
         <v>612687379.00718307</v>
       </c>
-      <c r="AM29" s="47">
+      <c r="AM29" s="46">
         <f t="shared" si="46"/>
         <v>632601347.00613022</v>
       </c>
-      <c r="AN29" s="47">
+      <c r="AN29" s="46">
         <f t="shared" si="46"/>
         <v>652515314.98688507</v>
       </c>
@@ -6869,18 +6913,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" customWidth="1"/>
-    <col min="2" max="7" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="7" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>98</v>
       </c>
@@ -6891,377 +6935,377 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="65"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53" t="s">
+      <c r="G2" s="64"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="53">
         <v>31.1</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="53">
         <v>43.3</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="58">
         <f>'Building Projections'!E4</f>
         <v>74.294156627517296</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="58">
         <f>'Building Projections'!E5</f>
         <v>173.35303213087374</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="54">
         <f>B4/$D$4</f>
         <v>0.41860627284489677</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="54">
         <f>C4/$E$4</f>
         <v>0.2497793056616999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <v>32.6</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="53">
         <v>31.6</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54">
         <f t="shared" ref="F5:F19" si="0">B5/$D$4</f>
         <v>0.43879628600461851</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="54">
         <f t="shared" ref="G5:G19" si="1">C5/$E$4</f>
         <v>0.18228697595634452</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>66.900000000000006</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="53">
         <v>72.7</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55">
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54">
         <f t="shared" si="0"/>
         <v>0.90047458692358828</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="54">
         <f t="shared" si="1"/>
         <v>0.41937541620336222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="53">
         <v>5.5</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53">
         <v>2.1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54">
         <f t="shared" si="0"/>
         <v>7.4030048252312936E-2</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="54">
         <f t="shared" si="1"/>
         <v>1.2114007895833022E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="53">
         <v>3.1</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="53">
         <v>0.3</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54">
         <f t="shared" si="0"/>
         <v>4.1726027196758199E-2</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="54">
         <f t="shared" si="1"/>
         <v>1.7305725565475744E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="57"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="57" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="56"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="53">
         <v>41.4</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="53">
         <v>16.2</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54">
         <f t="shared" si="0"/>
         <v>0.55724436320831916</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="54">
         <f t="shared" si="1"/>
         <v>9.3450918053569018E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="57" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="53">
         <v>14.3</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="53">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="55">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="54">
         <f t="shared" si="0"/>
         <v>0.19247812545601364</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="54">
         <f t="shared" si="1"/>
         <v>1.2690865414682215E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="53">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C12" s="54">
-        <v>0</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="55">
+      <c r="C12" s="53">
+        <v>0</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="54">
         <f t="shared" si="0"/>
         <v>0.1238320807129598</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="53">
         <v>6.9</v>
       </c>
-      <c r="C13" s="54">
-        <v>0</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="55">
+      <c r="C13" s="53">
+        <v>0</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="54">
         <f t="shared" si="0"/>
         <v>9.287406053471986E-2</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="57" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="53">
         <v>12.5</v>
       </c>
-      <c r="C14" s="54">
-        <v>0</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="55">
+      <c r="C14" s="53">
+        <v>0</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="54">
         <f t="shared" si="0"/>
         <v>0.16825010966434756</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="57"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="57" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="56"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="53">
         <v>38.9</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="55">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="54">
         <f t="shared" si="0"/>
         <v>0.52359434127544957</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="53">
         <v>179.7</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="53">
         <v>174.2</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="55">
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="54">
         <f t="shared" si="0"/>
         <v>2.4187635765346607</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="54">
         <f t="shared" si="1"/>
         <v>1.0048857978352916</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="57" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="53">
         <v>28.3</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="53">
         <v>10.1</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="55">
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="54">
         <f t="shared" si="0"/>
         <v>0.38091824828008292</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="54">
         <f t="shared" si="1"/>
         <v>5.8262609403768338E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="53">
         <v>4</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="53">
         <v>0.6</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="55">
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="54">
         <f t="shared" si="0"/>
         <v>5.3840035092591221E-2</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="54">
         <f t="shared" si="1"/>
         <v>3.4611451130951488E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7274,18 +7318,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -7293,7 +7337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -7301,7 +7345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -7309,7 +7353,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -7317,7 +7361,7 @@
         <v>51.81818181818182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -7325,7 +7369,7 @@
         <v>9.1324200913242013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -7333,7 +7377,7 @@
         <v>13.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -7347,34 +7391,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.1328125" customWidth="1"/>
-    <col min="2" max="2" width="19.265625" customWidth="1"/>
+    <col min="1" max="1" width="29.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="5" max="5" width="19.73046875" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="25.73046875" customWidth="1"/>
-    <col min="9" max="9" width="27.265625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" customWidth="1"/>
+    <col min="9" max="9" width="27.26953125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -7385,7 +7429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7396,7 +7440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -7407,7 +7451,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -7418,7 +7462,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -7429,7 +7473,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -7440,7 +7484,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -7451,7 +7495,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -7462,7 +7506,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -7473,7 +7517,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -7484,7 +7528,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -7495,14 +7539,14 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -7510,7 +7554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -7518,7 +7562,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -7526,7 +7570,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -7534,21 +7578,21 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" s="53"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="53"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="53"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="53"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="53"/>
+    <row r="32" spans="1:3" s="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="52"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="52"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="52"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7556,19 +7600,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>105.9</v>
       </c>
@@ -7576,18 +7620,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -7596,7 +7640,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -7605,7 +7649,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -7614,7 +7658,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -7623,30 +7667,30 @@
         <v>52.95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="55">
         <f>SQRT(C10)</f>
         <v>7.2766750648905578</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="55">
         <f>2*C11</f>
         <v>14.553350129781116</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -7657,12 +7701,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <f>(2*C11+2*C12)*A15</f>
         <v>130.98015116803003</v>
@@ -7671,27 +7715,27 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>4</v>
       </c>
@@ -7699,17 +7743,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="61">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="60">
         <f>A18-A25</f>
         <v>126.98015116803003</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="61">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="60">
         <f>A2</f>
         <v>105.9</v>
       </c>
@@ -7717,25 +7761,25 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7743,15 +7787,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="57">
+    <row r="35" spans="1:2" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="56">
         <v>3</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="56" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4</v>
       </c>
@@ -7759,7 +7803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4</v>
       </c>
@@ -7767,7 +7811,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2</v>
       </c>
@@ -7775,7 +7819,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7783,7 +7827,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <f>SUM(A34:A39)</f>
         <v>17</v>
@@ -7792,12 +7836,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <f>A40/2</f>
         <v>8.5</v>
@@ -7812,24 +7856,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="19.1328125" customWidth="1"/>
-    <col min="3" max="4" width="14.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>157</v>
       </c>
@@ -7838,9 +7882,9 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="60"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
@@ -7853,17 +7897,17 @@
       <c r="D2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="62" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -7871,11 +7915,11 @@
         <f>AVERAGE('Component Costs'!C11:C12)</f>
         <v>30000</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="57">
         <f>'Appliances per Household'!F19</f>
         <v>5.3840035092591221E-2</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="57">
         <f>'Appliances per Household'!G19</f>
         <v>3.4611451130951488E-3</v>
       </c>
@@ -7887,11 +7931,11 @@
         <f t="shared" si="0"/>
         <v>103.83435339285447</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -7899,11 +7943,11 @@
         <f>AVERAGE('Component Costs'!C5:C6)</f>
         <v>1100</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="57">
         <f>'Appliances per Household'!F17</f>
         <v>2.4187635765346607</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="57">
         <f>'Appliances per Household'!G17</f>
         <v>1.0048857978352916</v>
       </c>
@@ -7915,11 +7959,11 @@
         <f t="shared" si="0"/>
         <v>1105.3743776188207</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -7927,11 +7971,11 @@
         <f>'Component Costs'!C16</f>
         <v>250</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="61">
         <f>'Envelope Lighting Calcs'!$A26</f>
         <v>126.98015116803003</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="61">
         <f>'Envelope Lighting Calcs'!$A26</f>
         <v>126.98015116803003</v>
       </c>
@@ -7943,11 +7987,11 @@
         <f t="shared" si="0"/>
         <v>31745.037792007508</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -7955,11 +7999,11 @@
         <f>'Component Costs'!C17</f>
         <v>700</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="61">
         <f>'Envelope Lighting Calcs'!$A27</f>
         <v>105.9</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="61">
         <f>'Envelope Lighting Calcs'!$A27</f>
         <v>105.9</v>
       </c>
@@ -7971,11 +8015,11 @@
         <f t="shared" si="0"/>
         <v>74130</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -7999,11 +8043,11 @@
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -8027,11 +8071,11 @@
         <f t="shared" si="0"/>
         <v>3038.75</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -8039,11 +8083,11 @@
         <f>AVERAGE('Component Costs'!C9:C10)</f>
         <v>20500</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="57">
         <f>'Appliances per Household'!F10</f>
         <v>0.55724436320831916</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <f>'Appliances per Household'!G10</f>
         <v>9.3450918053569018E-2</v>
       </c>
@@ -8055,11 +8099,11 @@
         <f t="shared" si="0"/>
         <v>1915.7438200981649</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -8067,11 +8111,11 @@
         <f>AVERAGE('Component Costs'!C7:C8)</f>
         <v>13000</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="57">
         <f>'Appliances per Household'!F6</f>
         <v>0.90047458692358828</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <f>'Appliances per Household'!G6</f>
         <v>0.41937541620336222</v>
       </c>
@@ -8083,45 +8127,45 @@
         <f t="shared" si="0"/>
         <v>5451.8804106437092</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="49"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="53" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="52" t="s">
         <v>83</v>
       </c>
       <c r="B14" s="16">
         <f>B8</f>
         <v>357.5</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <f>'Appliances per Household'!F4</f>
         <v>0.41860627284489677</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="54">
         <f>'Appliances per Household'!G4</f>
         <v>0.2497793056616999</v>
       </c>
@@ -8133,23 +8177,23 @@
         <f t="shared" ref="F14:F23" si="2">$B14*D14</f>
         <v>89.296101774057718</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="52" t="s">
         <v>84</v>
       </c>
       <c r="B15">
         <f>B4/2</f>
         <v>550</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <f>'Appliances per Household'!F5</f>
         <v>0.43879628600461851</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="54">
         <f>'Appliances per Household'!G5</f>
         <v>0.18228697595634452</v>
       </c>
@@ -8161,23 +8205,23 @@
         <f t="shared" si="2"/>
         <v>100.25783677598949</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="52" t="s">
         <v>86</v>
       </c>
       <c r="B16">
         <f>B4</f>
         <v>1100</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <f>'Appliances per Household'!F7</f>
         <v>7.4030048252312936E-2</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="54">
         <f>'Appliances per Household'!G7</f>
         <v>1.2114007895833022E-2</v>
       </c>
@@ -8189,23 +8233,23 @@
         <f t="shared" si="2"/>
         <v>13.325408685416324</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="53" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="52" t="s">
         <v>99</v>
       </c>
       <c r="B17">
         <f>B9</f>
         <v>20500</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <f>'Appliances per Household'!F8</f>
         <v>4.1726027196758199E-2</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="54">
         <f>'Appliances per Household'!G8</f>
         <v>1.7305725565475744E-3</v>
       </c>
@@ -8217,23 +8261,23 @@
         <f t="shared" si="2"/>
         <v>35.476737409225272</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="53" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="52" t="s">
         <v>89</v>
       </c>
       <c r="B18">
         <f>B3</f>
         <v>30000</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="54">
         <f>'Appliances per Household'!F11</f>
         <v>0.19247812545601364</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="54">
         <f>'Appliances per Household'!G11</f>
         <v>1.2690865414682215E-2</v>
       </c>
@@ -8245,23 +8289,23 @@
         <f t="shared" si="2"/>
         <v>380.72596244046645</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="53" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="52" t="s">
         <v>90</v>
       </c>
       <c r="B19">
         <f>B3</f>
         <v>30000</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <f>'Appliances per Household'!F12</f>
         <v>0.1238320807129598</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="54">
         <f>'Appliances per Household'!G12</f>
         <v>0</v>
       </c>
@@ -8273,23 +8317,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="53" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="52" t="s">
         <v>91</v>
       </c>
       <c r="B20">
         <f>B8*2</f>
         <v>715</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <f>'Appliances per Household'!F13</f>
         <v>9.287406053471986E-2</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="54">
         <f>'Appliances per Household'!G13</f>
         <v>0</v>
       </c>
@@ -8301,23 +8345,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="52" t="s">
         <v>92</v>
       </c>
       <c r="B21">
         <f>B8*3</f>
         <v>1072.5</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <f>'Appliances per Household'!F14</f>
         <v>0.16825010966434756</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="54">
         <f>'Appliances per Household'!G14</f>
         <v>0</v>
       </c>
@@ -8329,23 +8373,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="53" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="52" t="s">
         <v>93</v>
       </c>
       <c r="B22">
         <f>B9</f>
         <v>20500</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="54">
         <f>'Appliances per Household'!F16</f>
         <v>0.52359434127544957</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="54">
         <f>'Appliances per Household'!G16</f>
         <v>0</v>
       </c>
@@ -8357,23 +8401,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="53" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="52" t="s">
         <v>95</v>
       </c>
       <c r="B23">
         <f>B9</f>
         <v>20500</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="54">
         <f>'Appliances per Household'!F18</f>
         <v>0.38091824828008292</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="54">
         <f>'Appliances per Household'!G18</f>
         <v>5.8262609403768338E-2</v>
       </c>
@@ -8385,11 +8429,11 @@
         <f t="shared" si="2"/>
         <v>1194.3834927772509</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>156</v>
       </c>
@@ -8400,32 +8444,32 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>27</v>
       </c>
@@ -8438,22 +8482,22 @@
       <c r="D34" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="62" t="s">
         <v>155</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="57" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B35">
         <f>B3</f>
         <v>30000</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="54">
         <f>C3*10</f>
         <v>0.53840035092591221</v>
       </c>
@@ -8461,71 +8505,71 @@
         <f>C35/'Envelope Lighting Calcs'!$A$2</f>
         <v>5.0840448623787745E-3</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="54">
         <f>B35*D35</f>
         <v>152.52134587136322</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="57" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="57">
+      <c r="B36" s="56">
         <f t="shared" ref="B36:C42" si="3">B4</f>
         <v>1100</v>
       </c>
-      <c r="C36" s="55">
+      <c r="C36" s="54">
         <f>C4</f>
         <v>2.4187635765346607</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="56">
         <f>C36/'Envelope Lighting Calcs'!$A$2</f>
         <v>2.2840071544236642E-2</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="54">
         <f t="shared" ref="E36:E42" si="4">B36*D36</f>
         <v>25.124078698660306</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="57" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="57">
+      <c r="B37" s="56">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="54">
         <f>C5</f>
         <v>126.98015116803003</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="56">
         <f>C37/'Envelope Lighting Calcs'!$A$2</f>
         <v>1.1990571403968842</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="54">
         <f t="shared" si="4"/>
         <v>299.76428509922101</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="57" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="56">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="54">
         <f t="shared" si="3"/>
         <v>105.9</v>
       </c>
@@ -8533,117 +8577,117 @@
         <f>C38/'Envelope Lighting Calcs'!$A$2</f>
         <v>1</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="54">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="57" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="57">
+      <c r="B39" s="56">
         <f t="shared" si="3"/>
         <v>1300</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="54">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="56">
         <f>C39/'Envelope Lighting Calcs'!$A$2</f>
         <v>3.7771482530689328E-2</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="54">
         <f t="shared" si="4"/>
         <v>49.10292728989613</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="57" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="57">
+      <c r="B40" s="56">
         <f t="shared" si="3"/>
         <v>357.5</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="54">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="56">
         <f>C40/'Envelope Lighting Calcs'!$A$2</f>
         <v>0.16052880075542963</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="54">
         <f t="shared" si="4"/>
         <v>57.389046270066096</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="57" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="57">
+      <c r="B41" s="56">
         <f t="shared" si="3"/>
         <v>20500</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="54">
         <f t="shared" si="3"/>
         <v>0.55724436320831916</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="56">
         <f>C41/'Envelope Lighting Calcs'!$A$2</f>
         <v>5.2619864325620311E-3</v>
       </c>
-      <c r="E41" s="55">
+      <c r="E41" s="54">
         <f t="shared" si="4"/>
         <v>107.87072186752164</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="57" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="57">
+      <c r="B42" s="56">
         <f t="shared" si="3"/>
         <v>13000</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42" s="54">
         <f>C10/4</f>
         <v>0.22511864673089707</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="56">
         <f>C42/'Envelope Lighting Calcs'!$A$2</f>
         <v>2.1257662580821254E-3</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="54">
         <f t="shared" si="4"/>
         <v>27.634961355067631</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="57"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B44" s="56"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>27</v>
       </c>
@@ -8651,243 +8695,243 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="57" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="57">
+      <c r="B46" s="56">
         <f t="shared" ref="B46:C55" si="5">B14</f>
         <v>357.5</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="54">
         <f>C14/10</f>
         <v>4.1860627284489679E-2</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="56">
         <f>C46/'Envelope Lighting Calcs'!$A$2</f>
         <v>3.9528448804994972E-4</v>
       </c>
-      <c r="E46" s="55">
+      <c r="E46" s="54">
         <f t="shared" ref="E46:E55" si="6">B46*D46</f>
         <v>0.14131420447785703</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="57" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B47" s="56">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="C47" s="55">
+      <c r="C47" s="54">
         <f>C15/10</f>
         <v>4.3879628600461851E-2</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="56">
         <f>C47/'Envelope Lighting Calcs'!$A$2</f>
         <v>4.1434965628387013E-4</v>
       </c>
-      <c r="E47" s="55">
+      <c r="E47" s="54">
         <f t="shared" si="6"/>
         <v>0.22789231095612858</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="57" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="57">
+      <c r="B48" s="56">
         <f t="shared" si="5"/>
         <v>1100</v>
       </c>
-      <c r="C48" s="55">
+      <c r="C48" s="54">
         <f>C16/10</f>
         <v>7.4030048252312934E-3</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D48" s="56">
         <f>C48/'Envelope Lighting Calcs'!$A$2</f>
         <v>6.9905616857708145E-5</v>
       </c>
-      <c r="E48" s="55">
+      <c r="E48" s="54">
         <f t="shared" si="6"/>
         <v>7.6896178543478966E-2</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="57" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="57">
+      <c r="B49" s="56">
         <f t="shared" si="5"/>
         <v>20500</v>
       </c>
-      <c r="C49" s="55">
+      <c r="C49" s="54">
         <f>C17*20</f>
         <v>0.83452054393516395</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D49" s="56">
         <f>C49/'Envelope Lighting Calcs'!$A$2</f>
         <v>7.8802695366870998E-3</v>
       </c>
-      <c r="E49" s="55">
+      <c r="E49" s="54">
         <f t="shared" si="6"/>
         <v>161.54552550208555</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="57" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="57">
+      <c r="B50" s="56">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="C50" s="55">
+      <c r="C50" s="54">
         <f>C18/20</f>
         <v>9.6239062728006829E-3</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D50" s="56">
         <f>C50/'Envelope Lighting Calcs'!$A$2</f>
         <v>9.0877301915020603E-5</v>
       </c>
-      <c r="E50" s="55">
+      <c r="E50" s="54">
         <f t="shared" si="6"/>
         <v>2.7263190574506182</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="57" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="57">
+      <c r="B51" s="56">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="54">
         <f>C19/10</f>
         <v>1.2383208071295979E-2</v>
       </c>
-      <c r="D51" s="57">
+      <c r="D51" s="56">
         <f>C51/'Envelope Lighting Calcs'!$A$2</f>
         <v>1.1693303183471179E-4</v>
       </c>
-      <c r="E51" s="55">
+      <c r="E51" s="54">
         <f t="shared" si="6"/>
         <v>3.5079909550413535</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="57" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="57">
+      <c r="B52" s="56">
         <f t="shared" si="5"/>
         <v>715</v>
       </c>
-      <c r="C52" s="55">
+      <c r="C52" s="54">
         <f>C20/10</f>
         <v>9.2874060534719853E-3</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="56">
         <f>C52/'Envelope Lighting Calcs'!$A$2</f>
         <v>8.7699773876033854E-5</v>
       </c>
-      <c r="E52" s="55">
+      <c r="E52" s="54">
         <f t="shared" si="6"/>
         <v>6.2705338321364212E-2</v>
       </c>
-      <c r="F52" s="49" t="s">
+      <c r="F52" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="57" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="57">
+      <c r="B53" s="56">
         <f t="shared" si="5"/>
         <v>1072.5</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53" s="54">
         <f>C21/10</f>
         <v>1.6825010966434756E-2</v>
       </c>
-      <c r="D53" s="57">
+      <c r="D53" s="56">
         <f>C53/'Envelope Lighting Calcs'!$A$2</f>
         <v>1.588764019493367E-4</v>
       </c>
-      <c r="E53" s="55">
+      <c r="E53" s="54">
         <f t="shared" si="6"/>
         <v>0.17039494109066361</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="57" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="57">
+      <c r="B54" s="56">
         <f t="shared" si="5"/>
         <v>20500</v>
       </c>
-      <c r="C54" s="55">
+      <c r="C54" s="54">
         <f>C22</f>
         <v>0.52359434127544957</v>
       </c>
-      <c r="D54" s="57">
+      <c r="D54" s="56">
         <f>C54/'Envelope Lighting Calcs'!$A$2</f>
         <v>4.9442336286633576E-3</v>
       </c>
-      <c r="E54" s="55">
+      <c r="E54" s="54">
         <f t="shared" si="6"/>
         <v>101.35678938759884</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="57" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="57">
+      <c r="B55" s="56">
         <f t="shared" si="5"/>
         <v>20500</v>
       </c>
-      <c r="C55" s="55">
+      <c r="C55" s="54">
         <f t="shared" si="5"/>
         <v>0.38091824828008292</v>
       </c>
-      <c r="D55" s="57">
+      <c r="D55" s="56">
         <f>C55/'Envelope Lighting Calcs'!$A$2</f>
         <v>3.5969617401329828E-3</v>
       </c>
-      <c r="E55" s="55">
+      <c r="E55" s="54">
         <f t="shared" si="6"/>
         <v>73.737715672726154</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="48" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8900,76 +8944,76 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AI85"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="57">
+    <row r="2" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="56">
         <v>2012</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="56">
         <v>54.77</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-    </row>
-    <row r="4" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+    </row>
+    <row r="4" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -9008,112 +9052,112 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
     </row>
-    <row r="5" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="50">
+    <row r="5" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="49">
         <v>2017</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>2018</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>2019</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="49">
         <v>2020</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="49">
         <v>2021</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="49">
         <v>2022</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="49">
         <v>2023</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="49">
         <v>2024</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="49">
         <v>2025</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="49">
         <v>2026</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="49">
         <v>2027</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="49">
         <v>2028</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="49">
         <v>2029</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="49">
         <v>2030</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5" s="49">
         <v>2031</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="49">
         <v>2032</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="49">
         <v>2033</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S5" s="49">
         <v>2034</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5" s="49">
         <v>2035</v>
       </c>
-      <c r="U5" s="50">
+      <c r="U5" s="49">
         <v>2036</v>
       </c>
-      <c r="V5" s="50">
+      <c r="V5" s="49">
         <v>2037</v>
       </c>
-      <c r="W5" s="50">
+      <c r="W5" s="49">
         <v>2038</v>
       </c>
-      <c r="X5" s="50">
+      <c r="X5" s="49">
         <v>2039</v>
       </c>
-      <c r="Y5" s="50">
+      <c r="Y5" s="49">
         <v>2040</v>
       </c>
-      <c r="Z5" s="50">
+      <c r="Z5" s="49">
         <v>2041</v>
       </c>
-      <c r="AA5" s="50">
+      <c r="AA5" s="49">
         <v>2042</v>
       </c>
-      <c r="AB5" s="50">
+      <c r="AB5" s="49">
         <v>2043</v>
       </c>
-      <c r="AC5" s="50">
+      <c r="AC5" s="49">
         <v>2044</v>
       </c>
-      <c r="AD5" s="50">
+      <c r="AD5" s="49">
         <v>2045</v>
       </c>
-      <c r="AE5" s="50">
+      <c r="AE5" s="49">
         <v>2046</v>
       </c>
-      <c r="AF5" s="50">
+      <c r="AF5" s="49">
         <v>2047</v>
       </c>
-      <c r="AG5" s="50">
+      <c r="AG5" s="49">
         <v>2048</v>
       </c>
-      <c r="AH5" s="50">
+      <c r="AH5" s="49">
         <v>2049</v>
       </c>
-      <c r="AI5" s="50">
+      <c r="AI5" s="49">
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="6">
@@ -9253,8 +9297,8 @@
         <v>18045066.020885926</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="6">
@@ -9394,8 +9438,8 @@
         <v>20561330.420585737</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="6">
@@ -9535,8 +9579,8 @@
         <v>10076895.421836529</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="6">
@@ -9676,8 +9720,8 @@
         <v>31639184.440264147</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="53" t="s">
+    <row r="10" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6">
@@ -9817,8 +9861,8 @@
         <v>23127176.384811651</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="53" t="s">
+    <row r="11" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="6">
@@ -9958,8 +10002,8 @@
         <v>20986154.280275311</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>164</v>
       </c>
@@ -9998,112 +10042,112 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
     </row>
-    <row r="14" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="50">
+    <row r="14" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="49">
         <v>2017</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <v>2018</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <v>2019</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="49">
         <v>2020</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="49">
         <v>2021</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="49">
         <v>2022</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="49">
         <v>2023</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="49">
         <v>2024</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="49">
         <v>2025</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="49">
         <v>2026</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="49">
         <v>2027</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="49">
         <v>2028</v>
       </c>
-      <c r="N14" s="50">
+      <c r="N14" s="49">
         <v>2029</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="49">
         <v>2030</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14" s="49">
         <v>2031</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="49">
         <v>2032</v>
       </c>
-      <c r="R14" s="50">
+      <c r="R14" s="49">
         <v>2033</v>
       </c>
-      <c r="S14" s="50">
+      <c r="S14" s="49">
         <v>2034</v>
       </c>
-      <c r="T14" s="50">
+      <c r="T14" s="49">
         <v>2035</v>
       </c>
-      <c r="U14" s="50">
+      <c r="U14" s="49">
         <v>2036</v>
       </c>
-      <c r="V14" s="50">
+      <c r="V14" s="49">
         <v>2037</v>
       </c>
-      <c r="W14" s="50">
+      <c r="W14" s="49">
         <v>2038</v>
       </c>
-      <c r="X14" s="50">
+      <c r="X14" s="49">
         <v>2039</v>
       </c>
-      <c r="Y14" s="50">
+      <c r="Y14" s="49">
         <v>2040</v>
       </c>
-      <c r="Z14" s="50">
+      <c r="Z14" s="49">
         <v>2041</v>
       </c>
-      <c r="AA14" s="50">
+      <c r="AA14" s="49">
         <v>2042</v>
       </c>
-      <c r="AB14" s="50">
+      <c r="AB14" s="49">
         <v>2043</v>
       </c>
-      <c r="AC14" s="50">
+      <c r="AC14" s="49">
         <v>2044</v>
       </c>
-      <c r="AD14" s="50">
+      <c r="AD14" s="49">
         <v>2045</v>
       </c>
-      <c r="AE14" s="50">
+      <c r="AE14" s="49">
         <v>2046</v>
       </c>
-      <c r="AF14" s="50">
+      <c r="AF14" s="49">
         <v>2047</v>
       </c>
-      <c r="AG14" s="50">
+      <c r="AG14" s="49">
         <v>2048</v>
       </c>
-      <c r="AH14" s="50">
+      <c r="AH14" s="49">
         <v>2049</v>
       </c>
-      <c r="AI14" s="50">
+      <c r="AI14" s="49">
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="9">
@@ -10243,8 +10287,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6">
@@ -10384,8 +10428,8 @@
         <v>248476791664.29727</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="53" t="s">
+    <row r="17" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6">
@@ -10525,8 +10569,8 @@
         <v>1119291539806.5999</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="53" t="s">
+    <row r="18" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6">
@@ -10666,8 +10710,8 @@
         <v>192287143435.70535</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="53" t="s">
+    <row r="19" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6">
@@ -10807,8 +10851,8 @@
         <v>1008333846061.5533</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="53" t="s">
+    <row r="20" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="6">
@@ -10948,7 +10992,7 @@
         <v>27865548085.545998</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -10984,7 +11028,7 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>165</v>
       </c>
@@ -11023,253 +11067,253 @@
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
     </row>
-    <row r="23" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="50">
+    <row r="23" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="49">
         <v>2017</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="49">
         <v>2018</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="49">
         <v>2019</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="49">
         <v>2020</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="49">
         <v>2021</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="49">
         <v>2022</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="49">
         <v>2023</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="49">
         <v>2024</v>
       </c>
-      <c r="J23" s="50">
+      <c r="J23" s="49">
         <v>2025</v>
       </c>
-      <c r="K23" s="50">
+      <c r="K23" s="49">
         <v>2026</v>
       </c>
-      <c r="L23" s="50">
+      <c r="L23" s="49">
         <v>2027</v>
       </c>
-      <c r="M23" s="50">
+      <c r="M23" s="49">
         <v>2028</v>
       </c>
-      <c r="N23" s="50">
+      <c r="N23" s="49">
         <v>2029</v>
       </c>
-      <c r="O23" s="50">
+      <c r="O23" s="49">
         <v>2030</v>
       </c>
-      <c r="P23" s="50">
+      <c r="P23" s="49">
         <v>2031</v>
       </c>
-      <c r="Q23" s="50">
+      <c r="Q23" s="49">
         <v>2032</v>
       </c>
-      <c r="R23" s="50">
+      <c r="R23" s="49">
         <v>2033</v>
       </c>
-      <c r="S23" s="50">
+      <c r="S23" s="49">
         <v>2034</v>
       </c>
-      <c r="T23" s="50">
+      <c r="T23" s="49">
         <v>2035</v>
       </c>
-      <c r="U23" s="50">
+      <c r="U23" s="49">
         <v>2036</v>
       </c>
-      <c r="V23" s="50">
+      <c r="V23" s="49">
         <v>2037</v>
       </c>
-      <c r="W23" s="50">
+      <c r="W23" s="49">
         <v>2038</v>
       </c>
-      <c r="X23" s="50">
+      <c r="X23" s="49">
         <v>2039</v>
       </c>
-      <c r="Y23" s="50">
+      <c r="Y23" s="49">
         <v>2040</v>
       </c>
-      <c r="Z23" s="50">
+      <c r="Z23" s="49">
         <v>2041</v>
       </c>
-      <c r="AA23" s="50">
+      <c r="AA23" s="49">
         <v>2042</v>
       </c>
-      <c r="AB23" s="50">
+      <c r="AB23" s="49">
         <v>2043</v>
       </c>
-      <c r="AC23" s="50">
+      <c r="AC23" s="49">
         <v>2044</v>
       </c>
-      <c r="AD23" s="50">
+      <c r="AD23" s="49">
         <v>2045</v>
       </c>
-      <c r="AE23" s="50">
+      <c r="AE23" s="49">
         <v>2046</v>
       </c>
-      <c r="AF23" s="50">
+      <c r="AF23" s="49">
         <v>2047</v>
       </c>
-      <c r="AG23" s="50">
+      <c r="AG23" s="49">
         <v>2048</v>
       </c>
-      <c r="AH23" s="50">
+      <c r="AH23" s="49">
         <v>2049</v>
       </c>
-      <c r="AI23" s="50">
+      <c r="AI23" s="49">
         <v>2050</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="57" t="s">
+    <row r="24" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="63">
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="63">
         <f t="shared" ref="C24:AI24" si="0">C15</f>
         <v>0</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="64">
+      <c r="L24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="64">
+      <c r="M24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="64">
+      <c r="N24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="64">
+      <c r="O24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="64">
+      <c r="P24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="64">
+      <c r="Q24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="64">
+      <c r="R24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S24" s="64">
+      <c r="S24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T24" s="64">
+      <c r="T24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U24" s="64">
+      <c r="U24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V24" s="64">
+      <c r="V24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W24" s="64">
+      <c r="W24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X24" s="64">
+      <c r="X24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="64">
+      <c r="Y24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="64">
+      <c r="Z24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="64">
+      <c r="AA24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="64">
+      <c r="AB24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="64">
+      <c r="AC24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="64">
+      <c r="AD24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="64">
+      <c r="AE24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="64">
+      <c r="AF24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="64">
+      <c r="AG24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH24" s="64">
+      <c r="AH24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI24" s="64">
+      <c r="AI24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="57" t="s">
+    <row r="25" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="56" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="6">
@@ -11409,8 +11453,8 @@
         <v>4536731635.2802124</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="56" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="6">
@@ -11550,8 +11594,8 @@
         <v>20436215808.044544</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="57" t="s">
+    <row r="27" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="6">
@@ -11691,8 +11735,8 @@
         <v>3510811455.8281054</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="57" t="s">
+    <row r="28" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="56" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="6">
@@ -11832,8 +11876,8 @@
         <v>18410331313.886311</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="57" t="s">
+    <row r="29" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="56" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="6">
@@ -11973,47 +12017,47 @@
         <v>508773928.8943947</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="51" t="s">
+    <row r="30" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-    </row>
-    <row r="32" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+    </row>
+    <row r="32" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
@@ -12052,111 +12096,111 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="B33" s="50">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B33" s="49">
         <v>2017</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="49">
         <v>2018</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="49">
         <v>2019</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="49">
         <v>2020</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="49">
         <v>2021</v>
       </c>
-      <c r="G33" s="50">
+      <c r="G33" s="49">
         <v>2022</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33" s="49">
         <v>2023</v>
       </c>
-      <c r="I33" s="50">
+      <c r="I33" s="49">
         <v>2024</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="49">
         <v>2025</v>
       </c>
-      <c r="K33" s="50">
+      <c r="K33" s="49">
         <v>2026</v>
       </c>
-      <c r="L33" s="50">
+      <c r="L33" s="49">
         <v>2027</v>
       </c>
-      <c r="M33" s="50">
+      <c r="M33" s="49">
         <v>2028</v>
       </c>
-      <c r="N33" s="50">
+      <c r="N33" s="49">
         <v>2029</v>
       </c>
-      <c r="O33" s="50">
+      <c r="O33" s="49">
         <v>2030</v>
       </c>
-      <c r="P33" s="50">
+      <c r="P33" s="49">
         <v>2031</v>
       </c>
-      <c r="Q33" s="50">
+      <c r="Q33" s="49">
         <v>2032</v>
       </c>
-      <c r="R33" s="50">
+      <c r="R33" s="49">
         <v>2033</v>
       </c>
-      <c r="S33" s="50">
+      <c r="S33" s="49">
         <v>2034</v>
       </c>
-      <c r="T33" s="50">
+      <c r="T33" s="49">
         <v>2035</v>
       </c>
-      <c r="U33" s="50">
+      <c r="U33" s="49">
         <v>2036</v>
       </c>
-      <c r="V33" s="50">
+      <c r="V33" s="49">
         <v>2037</v>
       </c>
-      <c r="W33" s="50">
+      <c r="W33" s="49">
         <v>2038</v>
       </c>
-      <c r="X33" s="50">
+      <c r="X33" s="49">
         <v>2039</v>
       </c>
-      <c r="Y33" s="50">
+      <c r="Y33" s="49">
         <v>2040</v>
       </c>
-      <c r="Z33" s="50">
+      <c r="Z33" s="49">
         <v>2041</v>
       </c>
-      <c r="AA33" s="50">
+      <c r="AA33" s="49">
         <v>2042</v>
       </c>
-      <c r="AB33" s="50">
+      <c r="AB33" s="49">
         <v>2043</v>
       </c>
-      <c r="AC33" s="50">
+      <c r="AC33" s="49">
         <v>2044</v>
       </c>
-      <c r="AD33" s="50">
+      <c r="AD33" s="49">
         <v>2045</v>
       </c>
-      <c r="AE33" s="50">
+      <c r="AE33" s="49">
         <v>2046</v>
       </c>
-      <c r="AF33" s="50">
+      <c r="AF33" s="49">
         <v>2047</v>
       </c>
-      <c r="AG33" s="50">
+      <c r="AG33" s="49">
         <v>2048</v>
       </c>
-      <c r="AH33" s="50">
+      <c r="AH33" s="49">
         <v>2049</v>
       </c>
-      <c r="AI33" s="50">
+      <c r="AI33" s="49">
         <v>2050</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
@@ -12297,7 +12341,7 @@
         <v>11897817.422918709</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>12</v>
       </c>
@@ -12438,7 +12482,7 @@
         <v>14211793.378763018</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>13</v>
       </c>
@@ -12579,7 +12623,7 @@
         <v>4570226.8960784031</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>14</v>
       </c>
@@ -12720,7 +12764,7 @@
         <v>24399072.524367582</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
@@ -12861,7 +12905,7 @@
         <v>16571364.91994416</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>16</v>
       </c>
@@ -13002,7 +13046,7 @@
         <v>14602464.644035432</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>164</v>
       </c>
@@ -13041,111 +13085,111 @@
       <c r="AH41" s="13"/>
       <c r="AI41" s="13"/>
     </row>
-    <row r="42" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="50">
+    <row r="42" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="49">
         <v>2017</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="49">
         <v>2018</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="49">
         <v>2019</v>
       </c>
-      <c r="E42" s="50">
+      <c r="E42" s="49">
         <v>2020</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="49">
         <v>2021</v>
       </c>
-      <c r="G42" s="50">
+      <c r="G42" s="49">
         <v>2022</v>
       </c>
-      <c r="H42" s="50">
+      <c r="H42" s="49">
         <v>2023</v>
       </c>
-      <c r="I42" s="50">
+      <c r="I42" s="49">
         <v>2024</v>
       </c>
-      <c r="J42" s="50">
+      <c r="J42" s="49">
         <v>2025</v>
       </c>
-      <c r="K42" s="50">
+      <c r="K42" s="49">
         <v>2026</v>
       </c>
-      <c r="L42" s="50">
+      <c r="L42" s="49">
         <v>2027</v>
       </c>
-      <c r="M42" s="50">
+      <c r="M42" s="49">
         <v>2028</v>
       </c>
-      <c r="N42" s="50">
+      <c r="N42" s="49">
         <v>2029</v>
       </c>
-      <c r="O42" s="50">
+      <c r="O42" s="49">
         <v>2030</v>
       </c>
-      <c r="P42" s="50">
+      <c r="P42" s="49">
         <v>2031</v>
       </c>
-      <c r="Q42" s="50">
+      <c r="Q42" s="49">
         <v>2032</v>
       </c>
-      <c r="R42" s="50">
+      <c r="R42" s="49">
         <v>2033</v>
       </c>
-      <c r="S42" s="50">
+      <c r="S42" s="49">
         <v>2034</v>
       </c>
-      <c r="T42" s="50">
+      <c r="T42" s="49">
         <v>2035</v>
       </c>
-      <c r="U42" s="50">
+      <c r="U42" s="49">
         <v>2036</v>
       </c>
-      <c r="V42" s="50">
+      <c r="V42" s="49">
         <v>2037</v>
       </c>
-      <c r="W42" s="50">
+      <c r="W42" s="49">
         <v>2038</v>
       </c>
-      <c r="X42" s="50">
+      <c r="X42" s="49">
         <v>2039</v>
       </c>
-      <c r="Y42" s="50">
+      <c r="Y42" s="49">
         <v>2040</v>
       </c>
-      <c r="Z42" s="50">
+      <c r="Z42" s="49">
         <v>2041</v>
       </c>
-      <c r="AA42" s="50">
+      <c r="AA42" s="49">
         <v>2042</v>
       </c>
-      <c r="AB42" s="50">
+      <c r="AB42" s="49">
         <v>2043</v>
       </c>
-      <c r="AC42" s="50">
+      <c r="AC42" s="49">
         <v>2044</v>
       </c>
-      <c r="AD42" s="50">
+      <c r="AD42" s="49">
         <v>2045</v>
       </c>
-      <c r="AE42" s="50">
+      <c r="AE42" s="49">
         <v>2046</v>
       </c>
-      <c r="AF42" s="50">
+      <c r="AF42" s="49">
         <v>2047</v>
       </c>
-      <c r="AG42" s="50">
+      <c r="AG42" s="49">
         <v>2048</v>
       </c>
-      <c r="AH42" s="50">
+      <c r="AH42" s="49">
         <v>2049</v>
       </c>
-      <c r="AI42" s="50">
+      <c r="AI42" s="49">
         <v>2050</v>
       </c>
     </row>
-    <row r="43" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
@@ -13286,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>12</v>
       </c>
@@ -13427,7 +13471,7 @@
         <v>34159356051.289742</v>
       </c>
     </row>
-    <row r="45" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>13</v>
       </c>
@@ -13568,7 +13612,7 @@
         <v>507638125199.95782</v>
       </c>
     </row>
-    <row r="46" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
@@ -13709,7 +13753,7 @@
         <v>74142681633.421997</v>
       </c>
     </row>
-    <row r="47" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
@@ -13850,7 +13894,7 @@
         <v>128400738578.7444</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
@@ -13991,7 +14035,7 @@
         <v>3480586298.7147856</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -14027,7 +14071,7 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>165</v>
       </c>
@@ -14066,253 +14110,253 @@
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
     </row>
-    <row r="51" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="50">
+    <row r="51" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="49">
         <v>2017</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51" s="49">
         <v>2018</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="49">
         <v>2019</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E51" s="49">
         <v>2020</v>
       </c>
-      <c r="F51" s="50">
+      <c r="F51" s="49">
         <v>2021</v>
       </c>
-      <c r="G51" s="50">
+      <c r="G51" s="49">
         <v>2022</v>
       </c>
-      <c r="H51" s="50">
+      <c r="H51" s="49">
         <v>2023</v>
       </c>
-      <c r="I51" s="50">
+      <c r="I51" s="49">
         <v>2024</v>
       </c>
-      <c r="J51" s="50">
+      <c r="J51" s="49">
         <v>2025</v>
       </c>
-      <c r="K51" s="50">
+      <c r="K51" s="49">
         <v>2026</v>
       </c>
-      <c r="L51" s="50">
+      <c r="L51" s="49">
         <v>2027</v>
       </c>
-      <c r="M51" s="50">
+      <c r="M51" s="49">
         <v>2028</v>
       </c>
-      <c r="N51" s="50">
+      <c r="N51" s="49">
         <v>2029</v>
       </c>
-      <c r="O51" s="50">
+      <c r="O51" s="49">
         <v>2030</v>
       </c>
-      <c r="P51" s="50">
+      <c r="P51" s="49">
         <v>2031</v>
       </c>
-      <c r="Q51" s="50">
+      <c r="Q51" s="49">
         <v>2032</v>
       </c>
-      <c r="R51" s="50">
+      <c r="R51" s="49">
         <v>2033</v>
       </c>
-      <c r="S51" s="50">
+      <c r="S51" s="49">
         <v>2034</v>
       </c>
-      <c r="T51" s="50">
+      <c r="T51" s="49">
         <v>2035</v>
       </c>
-      <c r="U51" s="50">
+      <c r="U51" s="49">
         <v>2036</v>
       </c>
-      <c r="V51" s="50">
+      <c r="V51" s="49">
         <v>2037</v>
       </c>
-      <c r="W51" s="50">
+      <c r="W51" s="49">
         <v>2038</v>
       </c>
-      <c r="X51" s="50">
+      <c r="X51" s="49">
         <v>2039</v>
       </c>
-      <c r="Y51" s="50">
+      <c r="Y51" s="49">
         <v>2040</v>
       </c>
-      <c r="Z51" s="50">
+      <c r="Z51" s="49">
         <v>2041</v>
       </c>
-      <c r="AA51" s="50">
+      <c r="AA51" s="49">
         <v>2042</v>
       </c>
-      <c r="AB51" s="50">
+      <c r="AB51" s="49">
         <v>2043</v>
       </c>
-      <c r="AC51" s="50">
+      <c r="AC51" s="49">
         <v>2044</v>
       </c>
-      <c r="AD51" s="50">
+      <c r="AD51" s="49">
         <v>2045</v>
       </c>
-      <c r="AE51" s="50">
+      <c r="AE51" s="49">
         <v>2046</v>
       </c>
-      <c r="AF51" s="50">
+      <c r="AF51" s="49">
         <v>2047</v>
       </c>
-      <c r="AG51" s="50">
+      <c r="AG51" s="49">
         <v>2048</v>
       </c>
-      <c r="AH51" s="50">
+      <c r="AH51" s="49">
         <v>2049</v>
       </c>
-      <c r="AI51" s="50">
+      <c r="AI51" s="49">
         <v>2050</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="57" t="s">
+    <row r="52" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="57">
+      <c r="B52" s="56">
         <f>B43</f>
         <v>0</v>
       </c>
-      <c r="C52" s="57">
+      <c r="C52" s="56">
         <f t="shared" ref="C52:AI52" si="3">C43</f>
         <v>0</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E52" s="57">
+      <c r="E52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F52" s="57">
+      <c r="F52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G52" s="57">
+      <c r="G52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H52" s="57">
+      <c r="H52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I52" s="57">
+      <c r="I52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J52" s="57">
+      <c r="J52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K52" s="57">
+      <c r="K52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L52" s="57">
+      <c r="L52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M52" s="57">
+      <c r="M52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N52" s="57">
+      <c r="N52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O52" s="57">
+      <c r="O52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P52" s="57">
+      <c r="P52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="57">
+      <c r="Q52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R52" s="57">
+      <c r="R52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S52" s="57">
+      <c r="S52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T52" s="57">
+      <c r="T52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U52" s="57">
+      <c r="U52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V52" s="57">
+      <c r="V52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W52" s="57">
+      <c r="W52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X52" s="57">
+      <c r="X52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y52" s="57">
+      <c r="Y52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="57">
+      <c r="Z52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA52" s="57">
+      <c r="AA52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB52" s="57">
+      <c r="AB52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC52" s="57">
+      <c r="AC52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD52" s="57">
+      <c r="AD52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE52" s="57">
+      <c r="AE52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF52" s="57">
+      <c r="AF52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG52" s="57">
+      <c r="AG52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH52" s="57">
+      <c r="AH52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI52" s="57">
+      <c r="AI52" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="57" t="s">
+    <row r="53" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="56" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="6">
@@ -14452,8 +14496,8 @@
         <v>623687348.02427864</v>
       </c>
     </row>
-    <row r="54" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="57" t="s">
+    <row r="54" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="56" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="6">
@@ -14593,8 +14637,8 @@
         <v>9268543458.0967274</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="57" t="s">
+    <row r="55" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="6">
@@ -14734,8 +14778,8 @@
         <v>1353709724.9118495</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="57" t="s">
+    <row r="56" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="56" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="6">
@@ -14875,8 +14919,8 @@
         <v>2344362581.3172245</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A57" s="57" t="s">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A57" s="56" t="s">
         <v>16</v>
       </c>
       <c r="B57" s="6">
@@ -15016,46 +15060,46 @@
         <v>63549138.190885253</v>
       </c>
     </row>
-    <row r="59" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="51" t="s">
+    <row r="59" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="52"/>
-      <c r="AI59" s="52"/>
-    </row>
-    <row r="60" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="51"/>
+      <c r="X59" s="51"/>
+      <c r="Y59" s="51"/>
+      <c r="Z59" s="51"/>
+      <c r="AA59" s="51"/>
+      <c r="AB59" s="51"/>
+      <c r="AC59" s="51"/>
+      <c r="AD59" s="51"/>
+      <c r="AE59" s="51"/>
+      <c r="AF59" s="51"/>
+      <c r="AG59" s="51"/>
+      <c r="AH59" s="51"/>
+      <c r="AI59" s="51"/>
+    </row>
+    <row r="60" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>73</v>
       </c>
@@ -15094,111 +15138,111 @@
       <c r="AH60" s="13"/>
       <c r="AI60" s="13"/>
     </row>
-    <row r="61" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="50">
+    <row r="61" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="49">
         <v>2017</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="49">
         <v>2018</v>
       </c>
-      <c r="D61" s="50">
+      <c r="D61" s="49">
         <v>2019</v>
       </c>
-      <c r="E61" s="50">
+      <c r="E61" s="49">
         <v>2020</v>
       </c>
-      <c r="F61" s="50">
+      <c r="F61" s="49">
         <v>2021</v>
       </c>
-      <c r="G61" s="50">
+      <c r="G61" s="49">
         <v>2022</v>
       </c>
-      <c r="H61" s="50">
+      <c r="H61" s="49">
         <v>2023</v>
       </c>
-      <c r="I61" s="50">
+      <c r="I61" s="49">
         <v>2024</v>
       </c>
-      <c r="J61" s="50">
+      <c r="J61" s="49">
         <v>2025</v>
       </c>
-      <c r="K61" s="50">
+      <c r="K61" s="49">
         <v>2026</v>
       </c>
-      <c r="L61" s="50">
+      <c r="L61" s="49">
         <v>2027</v>
       </c>
-      <c r="M61" s="50">
+      <c r="M61" s="49">
         <v>2028</v>
       </c>
-      <c r="N61" s="50">
+      <c r="N61" s="49">
         <v>2029</v>
       </c>
-      <c r="O61" s="50">
+      <c r="O61" s="49">
         <v>2030</v>
       </c>
-      <c r="P61" s="50">
+      <c r="P61" s="49">
         <v>2031</v>
       </c>
-      <c r="Q61" s="50">
+      <c r="Q61" s="49">
         <v>2032</v>
       </c>
-      <c r="R61" s="50">
+      <c r="R61" s="49">
         <v>2033</v>
       </c>
-      <c r="S61" s="50">
+      <c r="S61" s="49">
         <v>2034</v>
       </c>
-      <c r="T61" s="50">
+      <c r="T61" s="49">
         <v>2035</v>
       </c>
-      <c r="U61" s="50">
+      <c r="U61" s="49">
         <v>2036</v>
       </c>
-      <c r="V61" s="50">
+      <c r="V61" s="49">
         <v>2037</v>
       </c>
-      <c r="W61" s="50">
+      <c r="W61" s="49">
         <v>2038</v>
       </c>
-      <c r="X61" s="50">
+      <c r="X61" s="49">
         <v>2039</v>
       </c>
-      <c r="Y61" s="50">
+      <c r="Y61" s="49">
         <v>2040</v>
       </c>
-      <c r="Z61" s="50">
+      <c r="Z61" s="49">
         <v>2041</v>
       </c>
-      <c r="AA61" s="50">
+      <c r="AA61" s="49">
         <v>2042</v>
       </c>
-      <c r="AB61" s="50">
+      <c r="AB61" s="49">
         <v>2043</v>
       </c>
-      <c r="AC61" s="50">
+      <c r="AC61" s="49">
         <v>2044</v>
       </c>
-      <c r="AD61" s="50">
+      <c r="AD61" s="49">
         <v>2045</v>
       </c>
-      <c r="AE61" s="50">
+      <c r="AE61" s="49">
         <v>2046</v>
       </c>
-      <c r="AF61" s="50">
+      <c r="AF61" s="49">
         <v>2047</v>
       </c>
-      <c r="AG61" s="50">
+      <c r="AG61" s="49">
         <v>2048</v>
       </c>
-      <c r="AH61" s="50">
+      <c r="AH61" s="49">
         <v>2049</v>
       </c>
-      <c r="AI61" s="50">
+      <c r="AI61" s="49">
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
@@ -15339,7 +15383,7 @@
         <v>1237728295.2507136</v>
       </c>
     </row>
-    <row r="63" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>12</v>
       </c>
@@ -15480,7 +15524,7 @@
         <v>1354770891.3034794</v>
       </c>
     </row>
-    <row r="64" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>13</v>
       </c>
@@ -15621,7 +15665,7 @@
         <v>867093407.75028896</v>
       </c>
     </row>
-    <row r="65" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>14</v>
       </c>
@@ -15762,7 +15806,7 @@
         <v>1870050920.4257805</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>15</v>
       </c>
@@ -15903,7 +15947,7 @@
         <v>1474119745.4065461</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>16</v>
       </c>
@@ -16044,8 +16088,8 @@
         <v>1374531329.5981021</v>
       </c>
     </row>
-    <row r="68" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="69" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>166</v>
       </c>
@@ -16084,111 +16128,111 @@
       <c r="AH69" s="13"/>
       <c r="AI69" s="13"/>
     </row>
-    <row r="70" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="50">
+    <row r="70" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="49">
         <v>2017</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70" s="49">
         <v>2018</v>
       </c>
-      <c r="D70" s="50">
+      <c r="D70" s="49">
         <v>2019</v>
       </c>
-      <c r="E70" s="50">
+      <c r="E70" s="49">
         <v>2020</v>
       </c>
-      <c r="F70" s="50">
+      <c r="F70" s="49">
         <v>2021</v>
       </c>
-      <c r="G70" s="50">
+      <c r="G70" s="49">
         <v>2022</v>
       </c>
-      <c r="H70" s="50">
+      <c r="H70" s="49">
         <v>2023</v>
       </c>
-      <c r="I70" s="50">
+      <c r="I70" s="49">
         <v>2024</v>
       </c>
-      <c r="J70" s="50">
+      <c r="J70" s="49">
         <v>2025</v>
       </c>
-      <c r="K70" s="50">
+      <c r="K70" s="49">
         <v>2026</v>
       </c>
-      <c r="L70" s="50">
+      <c r="L70" s="49">
         <v>2027</v>
       </c>
-      <c r="M70" s="50">
+      <c r="M70" s="49">
         <v>2028</v>
       </c>
-      <c r="N70" s="50">
+      <c r="N70" s="49">
         <v>2029</v>
       </c>
-      <c r="O70" s="50">
+      <c r="O70" s="49">
         <v>2030</v>
       </c>
-      <c r="P70" s="50">
+      <c r="P70" s="49">
         <v>2031</v>
       </c>
-      <c r="Q70" s="50">
+      <c r="Q70" s="49">
         <v>2032</v>
       </c>
-      <c r="R70" s="50">
+      <c r="R70" s="49">
         <v>2033</v>
       </c>
-      <c r="S70" s="50">
+      <c r="S70" s="49">
         <v>2034</v>
       </c>
-      <c r="T70" s="50">
+      <c r="T70" s="49">
         <v>2035</v>
       </c>
-      <c r="U70" s="50">
+      <c r="U70" s="49">
         <v>2036</v>
       </c>
-      <c r="V70" s="50">
+      <c r="V70" s="49">
         <v>2037</v>
       </c>
-      <c r="W70" s="50">
+      <c r="W70" s="49">
         <v>2038</v>
       </c>
-      <c r="X70" s="50">
+      <c r="X70" s="49">
         <v>2039</v>
       </c>
-      <c r="Y70" s="50">
+      <c r="Y70" s="49">
         <v>2040</v>
       </c>
-      <c r="Z70" s="50">
+      <c r="Z70" s="49">
         <v>2041</v>
       </c>
-      <c r="AA70" s="50">
+      <c r="AA70" s="49">
         <v>2042</v>
       </c>
-      <c r="AB70" s="50">
+      <c r="AB70" s="49">
         <v>2043</v>
       </c>
-      <c r="AC70" s="50">
+      <c r="AC70" s="49">
         <v>2044</v>
       </c>
-      <c r="AD70" s="50">
+      <c r="AD70" s="49">
         <v>2045</v>
       </c>
-      <c r="AE70" s="50">
+      <c r="AE70" s="49">
         <v>2046</v>
       </c>
-      <c r="AF70" s="50">
+      <c r="AF70" s="49">
         <v>2047</v>
       </c>
-      <c r="AG70" s="50">
+      <c r="AG70" s="49">
         <v>2048</v>
       </c>
-      <c r="AH70" s="50">
+      <c r="AH70" s="49">
         <v>2049</v>
       </c>
-      <c r="AI70" s="50">
+      <c r="AI70" s="49">
         <v>2050</v>
       </c>
     </row>
-    <row r="71" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>11</v>
       </c>
@@ -16329,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>12</v>
       </c>
@@ -16470,7 +16514,7 @@
         <v>340566560965.33752</v>
       </c>
     </row>
-    <row r="73" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>13</v>
       </c>
@@ -16611,7 +16655,7 @@
         <v>909465845468.02576</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>14</v>
       </c>
@@ -16752,7 +16796,7 @@
         <v>107320438799.69481</v>
       </c>
     </row>
-    <row r="75" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>15</v>
       </c>
@@ -16893,7 +16937,7 @@
         <v>358697385033.43671</v>
       </c>
     </row>
-    <row r="76" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>16</v>
       </c>
@@ -17034,7 +17078,7 @@
         <v>222662568088.09589</v>
       </c>
     </row>
-    <row r="78" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>167</v>
       </c>
@@ -17073,253 +17117,253 @@
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
     </row>
-    <row r="79" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="50">
+    <row r="79" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="49">
         <v>2017</v>
       </c>
-      <c r="C79" s="50">
+      <c r="C79" s="49">
         <v>2018</v>
       </c>
-      <c r="D79" s="50">
+      <c r="D79" s="49">
         <v>2019</v>
       </c>
-      <c r="E79" s="50">
+      <c r="E79" s="49">
         <v>2020</v>
       </c>
-      <c r="F79" s="50">
+      <c r="F79" s="49">
         <v>2021</v>
       </c>
-      <c r="G79" s="50">
+      <c r="G79" s="49">
         <v>2022</v>
       </c>
-      <c r="H79" s="50">
+      <c r="H79" s="49">
         <v>2023</v>
       </c>
-      <c r="I79" s="50">
+      <c r="I79" s="49">
         <v>2024</v>
       </c>
-      <c r="J79" s="50">
+      <c r="J79" s="49">
         <v>2025</v>
       </c>
-      <c r="K79" s="50">
+      <c r="K79" s="49">
         <v>2026</v>
       </c>
-      <c r="L79" s="50">
+      <c r="L79" s="49">
         <v>2027</v>
       </c>
-      <c r="M79" s="50">
+      <c r="M79" s="49">
         <v>2028</v>
       </c>
-      <c r="N79" s="50">
+      <c r="N79" s="49">
         <v>2029</v>
       </c>
-      <c r="O79" s="50">
+      <c r="O79" s="49">
         <v>2030</v>
       </c>
-      <c r="P79" s="50">
+      <c r="P79" s="49">
         <v>2031</v>
       </c>
-      <c r="Q79" s="50">
+      <c r="Q79" s="49">
         <v>2032</v>
       </c>
-      <c r="R79" s="50">
+      <c r="R79" s="49">
         <v>2033</v>
       </c>
-      <c r="S79" s="50">
+      <c r="S79" s="49">
         <v>2034</v>
       </c>
-      <c r="T79" s="50">
+      <c r="T79" s="49">
         <v>2035</v>
       </c>
-      <c r="U79" s="50">
+      <c r="U79" s="49">
         <v>2036</v>
       </c>
-      <c r="V79" s="50">
+      <c r="V79" s="49">
         <v>2037</v>
       </c>
-      <c r="W79" s="50">
+      <c r="W79" s="49">
         <v>2038</v>
       </c>
-      <c r="X79" s="50">
+      <c r="X79" s="49">
         <v>2039</v>
       </c>
-      <c r="Y79" s="50">
+      <c r="Y79" s="49">
         <v>2040</v>
       </c>
-      <c r="Z79" s="50">
+      <c r="Z79" s="49">
         <v>2041</v>
       </c>
-      <c r="AA79" s="50">
+      <c r="AA79" s="49">
         <v>2042</v>
       </c>
-      <c r="AB79" s="50">
+      <c r="AB79" s="49">
         <v>2043</v>
       </c>
-      <c r="AC79" s="50">
+      <c r="AC79" s="49">
         <v>2044</v>
       </c>
-      <c r="AD79" s="50">
+      <c r="AD79" s="49">
         <v>2045</v>
       </c>
-      <c r="AE79" s="50">
+      <c r="AE79" s="49">
         <v>2046</v>
       </c>
-      <c r="AF79" s="50">
+      <c r="AF79" s="49">
         <v>2047</v>
       </c>
-      <c r="AG79" s="50">
+      <c r="AG79" s="49">
         <v>2048</v>
       </c>
-      <c r="AH79" s="50">
+      <c r="AH79" s="49">
         <v>2049</v>
       </c>
-      <c r="AI79" s="50">
+      <c r="AI79" s="49">
         <v>2050</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A80" s="57" t="s">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A80" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B80">
         <f>B71</f>
         <v>0</v>
       </c>
-      <c r="C80" s="57">
+      <c r="C80" s="56">
         <f t="shared" ref="C80:AI80" si="6">C71</f>
         <v>0</v>
       </c>
-      <c r="D80" s="57">
+      <c r="D80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E80" s="57">
+      <c r="E80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F80" s="57">
+      <c r="F80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G80" s="57">
+      <c r="G80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H80" s="57">
+      <c r="H80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I80" s="57">
+      <c r="I80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J80" s="57">
+      <c r="J80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K80" s="57">
+      <c r="K80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L80" s="57">
+      <c r="L80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M80" s="57">
+      <c r="M80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N80" s="57">
+      <c r="N80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O80" s="57">
+      <c r="O80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P80" s="57">
+      <c r="P80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="57">
+      <c r="Q80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R80" s="57">
+      <c r="R80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S80" s="57">
+      <c r="S80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T80" s="57">
+      <c r="T80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U80" s="57">
+      <c r="U80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V80" s="57">
+      <c r="V80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W80" s="57">
+      <c r="W80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X80" s="57">
+      <c r="X80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y80" s="57">
+      <c r="Y80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z80" s="57">
+      <c r="Z80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA80" s="57">
+      <c r="AA80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB80" s="57">
+      <c r="AB80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC80" s="57">
+      <c r="AC80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD80" s="57">
+      <c r="AD80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE80" s="57">
+      <c r="AE80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF80" s="57">
+      <c r="AF80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG80" s="57">
+      <c r="AG80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH80" s="57">
+      <c r="AH80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AI80" s="57">
+      <c r="AI80" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A81" s="57" t="s">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A81" s="56" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="6">
@@ -17459,8 +17503,8 @@
         <v>6218122347.367857</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A82" s="57" t="s">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A82" s="56" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="6">
@@ -17600,8 +17644,8 @@
         <v>16605182498.959753</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A83" s="57" t="s">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A83" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="6">
@@ -17741,8 +17785,8 @@
         <v>1959474873.1001425</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A84" s="57" t="s">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A84" s="56" t="s">
         <v>15</v>
       </c>
       <c r="B84" s="6">
@@ -17882,8 +17926,8 @@
         <v>6549158025.0764408</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A85" s="57" t="s">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A85" s="56" t="s">
         <v>16</v>
       </c>
       <c r="B85" s="6">
@@ -18029,7 +18073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18039,24 +18083,24 @@
       <selection activeCell="B4" sqref="B4:AL4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="4" width="8.59765625" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="4" width="8.6328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="57">
+      <c r="B1" s="56">
         <v>2014</v>
       </c>
-      <c r="C1" s="57">
+      <c r="C1" s="56">
         <v>2015</v>
       </c>
-      <c r="D1" s="57">
+      <c r="D1" s="56">
         <v>2016</v>
       </c>
       <c r="E1" s="7">
@@ -18162,7 +18206,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -18315,7 +18359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -18468,7 +18512,7 @@
         <v>4536731635.2802124</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -18584,7 +18628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -18737,7 +18781,7 @@
         <v>3510811455.8281054</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -18890,7 +18934,7 @@
         <v>18410331313.886311</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
